--- a/PEN_Model.xlsx
+++ b/PEN_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF31388-0117-470E-8853-0A828465A8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825DA4B1-65B7-4DD6-AD52-48669693CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="676">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -1515,9 +1515,6 @@
     </r>
   </si>
   <si>
-    <t>It will be important to track and quantify the total write-down/impairment of Immersive</t>
-  </si>
-  <si>
     <t>As stated in the business overview section: "Generally, when introducing a next generation product or a new product designed to replace a current product, sales of the earlier generation product or the product replaced decline"</t>
   </si>
   <si>
@@ -2658,6 +2655,24 @@
   <si>
     <t>Share Repurchase Program Scope</t>
   </si>
+  <si>
+    <t>Follow Up List</t>
+  </si>
+  <si>
+    <t>Track and quantify the total write-down/impairment of Immersive</t>
+  </si>
+  <si>
+    <t>Fortress balance sheet</t>
+  </si>
+  <si>
+    <t>Zero debt leverage... Would have been great if managers accessed debt through bond issuance pre march 2022 (beg. of FED hike cycle) but terms may still have been unfavorable for a "smaller enterprise"</t>
+  </si>
+  <si>
+    <t>Inventories are a large portion of the firms balance sheet</t>
+  </si>
+  <si>
+    <t>Goodwill remains only 10-15% of the balance sheet</t>
+  </si>
 </sst>
 </file>
 
@@ -2668,7 +2683,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2767,12 +2782,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3018,6 +3027,1298 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Revenues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Net Income, Free Cash Flows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7327219219499473E-2"/>
+          <c:y val="0.10430602853738431"/>
+          <c:w val="0.90891089179266793"/>
+          <c:h val="0.86475931754211888"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Revenues</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$C$2:$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1'19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2'19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3'19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4'19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1'20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2'20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3'20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4'20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1'21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2'21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3'21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4'21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1'22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2'22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3'22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4'22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1'23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2'23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3'23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4'23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1'24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2'24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3'24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4'24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$26:$Z$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128.43899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.50200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145.26100000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.91200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>208.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>213.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221.23299999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>241.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>261.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>284.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>278.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>299.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D93F-422B-AB9F-C999508B906B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Net Income</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$39:$Z$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.68499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7180000000000115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.502000000000081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5160000000000133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.940000000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6550000000000091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.832000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2550000000000221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.841999999999981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-24.665000000000081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1999999999997399E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.6640000000000068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.2800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.869999999999949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6040000000000401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2099999999999937</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.096000000000032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.099999999999989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-60.200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D93F-422B-AB9F-C999508B906B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FCF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$79:$Z$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-16.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.7029999999999959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8359999999999985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-28.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.7029999999999959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.8359999999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.6050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-17.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-44.005999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-19.256999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2250000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.757000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.512</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.615999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.471000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.074999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.016000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.736999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D93F-422B-AB9F-C999508B906B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="40"/>
+        <c:overlap val="-19"/>
+        <c:axId val="1243124976"/>
+        <c:axId val="1243123056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1243124976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243123056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1243123056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243124976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26533128571552073"/>
+          <c:y val="0.85640186794822193"/>
+          <c:w val="0.46092398852484467"/>
+          <c:h val="0.14237071052936345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3145,7 +4446,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>3362</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3195,7 +4496,7 @@
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>141475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3244,14 +4545,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>604003</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3274,14 +4575,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201705" y="4863352"/>
-          <a:ext cx="5444945" cy="5031441"/>
+          <a:off x="201705" y="4859430"/>
+          <a:ext cx="5814739" cy="4878481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>644338</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8C5868-7F70-4D58-B35F-B729A4F3C1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3569,7 +4908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB260"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
@@ -3588,7 +4927,7 @@
   <sheetData>
     <row r="1" spans="1:80" ht="14.25">
       <c r="A1" s="52" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CB1" s="2" t="s">
         <v>369</v>
@@ -3599,10 +4938,10 @@
         <v>361</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:80" ht="13.9">
@@ -3610,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:80">
@@ -3626,7 +4965,7 @@
     </row>
     <row r="6" spans="1:80">
       <c r="B6" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" s="2">
         <v>38.520000000000003</v>
@@ -3687,17 +5026,17 @@
     </row>
     <row r="11" spans="1:80">
       <c r="AK11" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:80" ht="13.9">
       <c r="B12" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:80">
       <c r="AK13" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:80" ht="13.9">
@@ -3710,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3718,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3746,7 +5085,7 @@
     </row>
     <row r="23" spans="2:6" ht="13.9">
       <c r="B23" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.9">
@@ -3776,7 +5115,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -3801,151 +5140,151 @@
     </row>
     <row r="34" spans="1:4">
       <c r="C34" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.9">
       <c r="C35" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.9">
       <c r="D36" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.9">
       <c r="A41" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.9">
       <c r="B45" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.9">
       <c r="C46" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.9">
       <c r="C47" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.9">
       <c r="B48" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="13.9">
       <c r="C49" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="13.9">
       <c r="C50" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="13.9">
       <c r="A52" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:32">
       <c r="B54" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:32">
       <c r="C55" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:32">
       <c r="C56" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:32">
       <c r="C57" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:32">
       <c r="B58" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="13.9">
       <c r="C60" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE60" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:32">
       <c r="H61" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE61" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF61" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="AF61" s="11" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:32">
       <c r="H62" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AE62" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF62" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:32">
       <c r="H63" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE63" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF63" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -3954,106 +5293,106 @@
     </row>
     <row r="65" spans="3:32" ht="13.9">
       <c r="C65" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE65" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="3:32">
       <c r="C66" s="12"/>
       <c r="H66" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE66" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF66" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="3:32">
       <c r="C67" s="12"/>
       <c r="H67" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE67" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF67" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="3:32">
       <c r="C68" s="12"/>
       <c r="I68" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE68" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF68" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="3:32">
       <c r="C69" s="12"/>
       <c r="H69" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="3:32">
       <c r="C70" s="12"/>
       <c r="AE70" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="3:32" ht="13.9">
       <c r="C71" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE71" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF71" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="3:32" ht="13.9">
       <c r="C72" s="13"/>
       <c r="H72" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AE72" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF72" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="3:32" ht="13.9">
       <c r="C73" s="13"/>
       <c r="H73" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AE73" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF73" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="3:32" ht="13.9">
       <c r="C74" s="13"/>
       <c r="G74" s="44"/>
       <c r="H74" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="3:32" ht="13.9">
@@ -4061,63 +5400,63 @@
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
       <c r="AE75" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="3:32" ht="13.9">
       <c r="C76" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE76" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF76" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="3:32" ht="13.9">
       <c r="C77" s="13"/>
       <c r="H77" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AE77" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF77" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="3:32" ht="13.9">
       <c r="C78" s="13"/>
       <c r="H78" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AE78" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF78" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="3:32" ht="13.9">
       <c r="C79" s="13"/>
       <c r="H79" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="3:32" ht="13.9">
       <c r="C80" s="13"/>
       <c r="I80" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="13.9">
       <c r="C81" s="13"/>
       <c r="H81" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="13.9">
@@ -4125,61 +5464,61 @@
     </row>
     <row r="83" spans="1:32" ht="13.9">
       <c r="C83" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE83" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="13.9">
       <c r="C84" s="13"/>
       <c r="H84" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AE84" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF84" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="13.9">
       <c r="C85" s="13"/>
       <c r="G85" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AE85" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF85" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="13.9">
       <c r="C86" s="13"/>
       <c r="G86" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AE86" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF86" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="13.9">
       <c r="C87" s="13"/>
       <c r="H87" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="13.9">
       <c r="C88" s="13"/>
       <c r="G88" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="13.9">
@@ -4189,80 +5528,80 @@
     </row>
     <row r="90" spans="1:32" ht="13.9">
       <c r="C90" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:32">
       <c r="H91" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="13.9">
       <c r="A93" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:32">
       <c r="B95" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="13.9">
       <c r="C97" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="2:8">
       <c r="G98" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="2:8">
       <c r="H99" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="2:8">
       <c r="G100" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="13.9">
       <c r="C102" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="13.9">
       <c r="C103" s="1"/>
       <c r="H103" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="13.9">
       <c r="C104" s="1"/>
       <c r="H104" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="13.9">
       <c r="C105" s="1"/>
       <c r="H105" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="13.9">
       <c r="C106" s="1"/>
       <c r="H106" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="13.9">
@@ -4272,44 +5611,44 @@
     </row>
     <row r="108" spans="2:8">
       <c r="B108" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="2:8">
       <c r="C109" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="2:8">
       <c r="C110" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="C111" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="B113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13.9">
       <c r="A115" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13.9">
       <c r="B117" s="23"/>
       <c r="C117" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
@@ -4322,7 +5661,7 @@
       <c r="D118" s="16"/>
       <c r="E118" s="17"/>
       <c r="F118" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
@@ -4334,11 +5673,11 @@
       <c r="B119" s="26"/>
       <c r="C119" s="28"/>
       <c r="D119" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
@@ -4352,7 +5691,7 @@
       <c r="D120" s="38"/>
       <c r="E120" s="19"/>
       <c r="F120" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
@@ -4368,7 +5707,7 @@
       <c r="D121" s="41"/>
       <c r="E121" s="22"/>
       <c r="F121" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
@@ -4382,7 +5721,7 @@
       <c r="D122" s="42"/>
       <c r="E122" s="17"/>
       <c r="F122" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
@@ -4394,11 +5733,11 @@
       <c r="B123" s="26"/>
       <c r="C123" s="28"/>
       <c r="D123" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
@@ -4412,7 +5751,7 @@
       <c r="D124" s="38"/>
       <c r="E124" s="19"/>
       <c r="F124" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
@@ -4426,7 +5765,7 @@
       <c r="D125" s="41"/>
       <c r="E125" s="22"/>
       <c r="F125" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
@@ -4440,7 +5779,7 @@
       <c r="D126" s="42"/>
       <c r="E126" s="17"/>
       <c r="F126" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G126" s="16"/>
       <c r="H126" s="16"/>
@@ -4454,7 +5793,7 @@
       <c r="D127" s="38"/>
       <c r="E127" s="19"/>
       <c r="F127" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -4466,11 +5805,11 @@
       <c r="B128" s="32"/>
       <c r="C128" s="30"/>
       <c r="D128" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -4482,11 +5821,11 @@
       <c r="B129" s="32"/>
       <c r="C129" s="30"/>
       <c r="D129" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
@@ -4500,7 +5839,7 @@
       <c r="D130" s="38"/>
       <c r="E130" s="36"/>
       <c r="F130" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -4514,7 +5853,7 @@
       <c r="D131" s="41"/>
       <c r="E131" s="22"/>
       <c r="F131" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
@@ -4528,7 +5867,7 @@
       <c r="D132" s="42"/>
       <c r="E132" s="17"/>
       <c r="F132" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="16"/>
@@ -4540,11 +5879,11 @@
       <c r="B133" s="32"/>
       <c r="C133" s="28"/>
       <c r="D133" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
@@ -4554,15 +5893,15 @@
     </row>
     <row r="134" spans="2:11" ht="13.9">
       <c r="B134" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C134" s="28"/>
       <c r="D134" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
@@ -4572,13 +5911,13 @@
     </row>
     <row r="135" spans="2:11" ht="13.9">
       <c r="B135" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="38"/>
       <c r="E135" s="19"/>
       <c r="F135" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -4592,7 +5931,7 @@
       <c r="D136" s="41"/>
       <c r="E136" s="22"/>
       <c r="F136" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
@@ -4606,7 +5945,7 @@
       <c r="D137" s="42"/>
       <c r="E137" s="17"/>
       <c r="F137" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G137" s="16"/>
       <c r="H137" s="16"/>
@@ -4620,7 +5959,7 @@
       <c r="D138" s="38"/>
       <c r="E138" s="19"/>
       <c r="F138" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
@@ -4634,7 +5973,7 @@
       <c r="D139" s="38"/>
       <c r="E139" s="19"/>
       <c r="F139" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -4646,11 +5985,11 @@
       <c r="B140" s="32"/>
       <c r="C140" s="28"/>
       <c r="D140" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
@@ -4664,7 +6003,7 @@
       <c r="D141" s="38"/>
       <c r="E141" s="19"/>
       <c r="F141" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
@@ -4678,7 +6017,7 @@
       <c r="D142" s="38"/>
       <c r="E142" s="19"/>
       <c r="F142" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
@@ -4692,7 +6031,7 @@
       <c r="D143" s="41"/>
       <c r="E143" s="22"/>
       <c r="F143" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
@@ -4704,11 +6043,11 @@
       <c r="B144" s="34"/>
       <c r="C144" s="29"/>
       <c r="D144" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E144" s="22"/>
       <c r="F144" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
@@ -4718,168 +6057,168 @@
     </row>
     <row r="146" spans="1:3">
       <c r="B146" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.9">
       <c r="A149" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="B151" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="B153" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="C154" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="B155" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.9">
       <c r="A157" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="B159" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="C161" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="C162" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="C163" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="C164" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.9">
       <c r="A166" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="B168" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="C169" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="B170" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="C171" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.9">
       <c r="B172" s="45"/>
       <c r="C172" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="B173" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.9">
       <c r="C174" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.9">
       <c r="C175" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="B176" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="B177" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="C178" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="B179" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="C180" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="13.9">
       <c r="A182" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="B184" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="C185" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="B186" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="13.9">
@@ -4887,72 +6226,72 @@
     </row>
     <row r="188" spans="1:5" ht="13.9">
       <c r="C188" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="C189" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="C190" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="C191" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="C192" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="C193" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E193" s="51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="2:6">
       <c r="C194" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E194" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="C195" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="13.9">
@@ -4960,42 +6299,42 @@
     </row>
     <row r="197" spans="2:6" ht="13.9">
       <c r="C197" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="2:6">
       <c r="C198" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="C199" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="200" spans="2:6">
       <c r="C200" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="C203" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="2:6">
@@ -5003,7 +6342,7 @@
         <v>369</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="2:6">
@@ -5011,7 +6350,7 @@
         <v>369</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="2:3">
@@ -5019,7 +6358,7 @@
         <v>369</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="2:3">
@@ -5027,7 +6366,7 @@
         <v>369</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="2:3">
@@ -5035,7 +6374,7 @@
         <v>369</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="2:3">
@@ -5043,17 +6382,17 @@
         <v>369</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="2:3">
@@ -5061,7 +6400,7 @@
         <v>369</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="2:3">
@@ -5069,7 +6408,7 @@
         <v>369</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="2:3">
@@ -5077,7 +6416,7 @@
         <v>369</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="2:3">
@@ -5085,7 +6424,7 @@
         <v>369</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="2:3">
@@ -5093,7 +6432,7 @@
         <v>369</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="2:3">
@@ -5101,7 +6440,7 @@
         <v>369</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="2:3">
@@ -5109,157 +6448,157 @@
         <v>369</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.9">
       <c r="A225" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="B227" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="C228" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="C229" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="C230" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="B231" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.9">
       <c r="B232" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="C233" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="C234" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="B235" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="C236" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="B237" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="B238" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="B239" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="13.9">
       <c r="A241" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="B243" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="C245" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="C247" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="C249" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="13.9">
       <c r="A251" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="13.9">
       <c r="A253" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="B255" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="C256" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="257" spans="2:7">
       <c r="C257" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="258" spans="2:7">
       <c r="C258" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="259" spans="2:7">
       <c r="C259" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="260" spans="2:7">
       <c r="B260" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -5278,13 +6617,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3344BAB9-DE4D-4C7A-9063-1F5A1C1DB289}">
-  <dimension ref="B1:CS78"/>
+  <dimension ref="B1:CS81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q53" sqref="Q53"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
@@ -5416,16 +6755,16 @@
         <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>281</v>
@@ -5512,16 +6851,16 @@
         <v>308</v>
       </c>
       <c r="AI2" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="AV2" s="1">
         <v>2019</v>
@@ -5781,7 +7120,7 @@
         <v>95.110000000000014</v>
       </c>
       <c r="AZ4" s="2">
-        <f t="shared" ref="AZ4:BA72" si="42">SUM(S4:V4)</f>
+        <f t="shared" ref="AZ4:AZ71" si="42">SUM(S4:V4)</f>
         <v>381</v>
       </c>
       <c r="BA4" s="2">
@@ -6210,7 +7549,7 @@
         <v>355.22</v>
       </c>
       <c r="AW14" s="2">
-        <f t="shared" ref="AW14:AW72" si="50">SUM(G14:J14)</f>
+        <f t="shared" ref="AW14:AW71" si="50">SUM(G14:J14)</f>
         <v>400</v>
       </c>
       <c r="AX14" s="2">
@@ -6226,7 +7565,7 @@
         <v>757</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" ref="BA14:BA72" si="51">SUM(W14:Z14)</f>
+        <f t="shared" ref="BA14:BA41" si="51">SUM(W14:Z14)</f>
         <v>902</v>
       </c>
     </row>
@@ -6449,11 +7788,11 @@
         <v>560</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" ref="AX16:AX72" si="58">SUM(K16:N16)</f>
+        <f t="shared" ref="AX16:AX71" si="58">SUM(K16:N16)</f>
         <v>748</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" ref="AY16:AZ72" si="59">SUM(O16:R16)</f>
+        <f t="shared" ref="AY16:AY71" si="59">SUM(O16:R16)</f>
         <v>847</v>
       </c>
       <c r="AZ16" s="2">
@@ -6566,27 +7905,27 @@
         <v>0.78730158730158728</v>
       </c>
       <c r="AV18" s="48">
-        <f>AV14/AV16</f>
+        <f t="shared" ref="AV18:BA18" si="63">AV14/AV16</f>
         <v>0.64891862119864163</v>
       </c>
       <c r="AW18" s="48">
-        <f>AW14/AW16</f>
+        <f t="shared" si="63"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AX18" s="48">
-        <f>AX14/AX16</f>
+        <f t="shared" si="63"/>
         <v>0.51203208556149737</v>
       </c>
       <c r="AY18" s="48">
-        <f>AY14/AY16</f>
+        <f t="shared" si="63"/>
         <v>0.51239669421487599</v>
       </c>
       <c r="AZ18" s="48">
-        <f>AZ14/AZ16</f>
+        <f t="shared" si="63"/>
         <v>0.71550094517958407</v>
       </c>
       <c r="BA18" s="48">
-        <f>BA14/BA16</f>
+        <f t="shared" si="63"/>
         <v>0.75544388609715241</v>
       </c>
     </row>
@@ -6595,123 +7934,123 @@
         <v>322</v>
       </c>
       <c r="C19" s="48">
-        <f>C15/C16</f>
+        <f t="shared" ref="C19:Z19" si="64">C15/C16</f>
         <v>0.35758609145197329</v>
       </c>
       <c r="D19" s="48">
-        <f>D15/D16</f>
+        <f t="shared" si="64"/>
         <v>0.35638333544459433</v>
       </c>
       <c r="E19" s="48">
-        <f>E15/E16</f>
+        <f t="shared" si="64"/>
         <v>0.3528981663345328</v>
       </c>
       <c r="F19" s="48">
-        <f>F15/F16</f>
+        <f t="shared" si="64"/>
         <v>0.33868691527664002</v>
       </c>
       <c r="G19" s="48">
-        <f>G15/G16</f>
+        <f t="shared" si="64"/>
         <v>0.29927007299270075</v>
       </c>
       <c r="H19" s="48">
-        <f>H15/H16</f>
+        <f t="shared" si="64"/>
         <v>0.25714285714285712</v>
       </c>
       <c r="I19" s="48">
-        <f>I15/I16</f>
+        <f t="shared" si="64"/>
         <v>0.27152317880794702</v>
       </c>
       <c r="J19" s="48">
-        <f>J15/J16</f>
+        <f t="shared" si="64"/>
         <v>0.30538922155688625</v>
       </c>
       <c r="K19" s="48">
-        <f>K15/K16</f>
+        <f t="shared" si="64"/>
         <v>0.28994082840236685</v>
       </c>
       <c r="L19" s="48">
-        <f>L15/L16</f>
+        <f t="shared" si="64"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="M19" s="48">
-        <f>M15/M16</f>
+        <f t="shared" si="64"/>
         <v>0.28947368421052633</v>
       </c>
       <c r="N19" s="48">
-        <f>N15/N16</f>
+        <f t="shared" si="64"/>
         <v>0.29268292682926828</v>
       </c>
       <c r="O19" s="48">
-        <f>O15/O16</f>
+        <f t="shared" si="64"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="P19" s="48">
-        <f>P15/P16</f>
+        <f t="shared" si="64"/>
         <v>0.32211538461538464</v>
       </c>
       <c r="Q19" s="48">
-        <f>Q15/Q16</f>
+        <f t="shared" si="64"/>
         <v>0.30373831775700932</v>
       </c>
       <c r="R19" s="48">
-        <f>R15/R16</f>
+        <f t="shared" si="64"/>
         <v>0.28506787330316741</v>
       </c>
       <c r="S19" s="48">
-        <f>S15/S16</f>
+        <f t="shared" si="64"/>
         <v>0.2863070539419087</v>
       </c>
       <c r="T19" s="48">
-        <f>T15/T16</f>
+        <f t="shared" si="64"/>
         <v>0.28735632183908044</v>
       </c>
       <c r="U19" s="48">
-        <f>U15/U16</f>
+        <f t="shared" si="64"/>
         <v>0.28044280442804426</v>
       </c>
       <c r="V19" s="48">
-        <f>V15/V16</f>
+        <f t="shared" si="64"/>
         <v>0.28421052631578947</v>
       </c>
       <c r="W19" s="48">
-        <f>W15/W16</f>
+        <f t="shared" si="64"/>
         <v>0.24731182795698925</v>
       </c>
       <c r="X19" s="48">
-        <f>X15/X16</f>
+        <f t="shared" si="64"/>
         <v>0.2709030100334448</v>
       </c>
       <c r="Y19" s="48">
-        <f>Y15/Y16</f>
+        <f t="shared" si="64"/>
         <v>0.24916943521594684</v>
       </c>
       <c r="Z19" s="48">
-        <f>Z15/Z16</f>
+        <f t="shared" si="64"/>
         <v>0.21269841269841269</v>
       </c>
       <c r="AV19" s="48">
-        <f>AV15/AV16</f>
+        <f t="shared" ref="AV19:BA19" si="65">AV15/AV16</f>
         <v>0.35108137880135842</v>
       </c>
       <c r="AW19" s="48">
-        <f>AW15/AW16</f>
+        <f t="shared" si="65"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AX19" s="48">
-        <f>AX15/AX16</f>
+        <f t="shared" si="65"/>
         <v>0.21390374331550802</v>
       </c>
       <c r="AY19" s="48">
-        <f>AY15/AY16</f>
+        <f t="shared" si="65"/>
         <v>0.22668240850059032</v>
       </c>
       <c r="AZ19" s="48">
-        <f>AZ15/AZ16</f>
+        <f t="shared" si="65"/>
         <v>0.28449905482041588</v>
       </c>
       <c r="BA19" s="48">
-        <f>BA15/BA16</f>
+        <f t="shared" si="65"/>
         <v>0.24455611390284757</v>
       </c>
     </row>
@@ -6756,107 +8095,107 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48">
-        <f>G14/C14-1</f>
+        <f t="shared" ref="G21:P23" si="66">G14/C14-1</f>
         <v>0.16348123280532301</v>
       </c>
       <c r="H21" s="48">
-        <f>H14/D14-1</f>
+        <f t="shared" si="66"/>
         <v>-9.6950471206613043E-2</v>
       </c>
       <c r="I21" s="48">
-        <f>I14/E14-1</f>
+        <f t="shared" si="66"/>
         <v>0.21853952499113771</v>
       </c>
       <c r="J21" s="48">
-        <f>J14/F14-1</f>
+        <f t="shared" si="66"/>
         <v>0.20754088462779574</v>
       </c>
       <c r="K21" s="48">
-        <f>K14/G14-1</f>
+        <f t="shared" si="66"/>
         <v>0.25</v>
       </c>
       <c r="L21" s="48">
-        <f>L14/H14-1</f>
+        <f t="shared" si="66"/>
         <v>0.64102564102564097</v>
       </c>
       <c r="M21" s="48">
-        <f>M14/I14-1</f>
+        <f t="shared" si="66"/>
         <v>0.22727272727272729</v>
       </c>
       <c r="N21" s="48">
-        <f>N14/J14-1</f>
+        <f t="shared" si="66"/>
         <v>0.25</v>
       </c>
       <c r="O21" s="48">
-        <f>O14/K14-1</f>
+        <f t="shared" si="66"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="P21" s="48">
-        <f>P14/L14-1</f>
+        <f t="shared" si="66"/>
         <v>0.1015625</v>
       </c>
       <c r="Q21" s="48">
-        <f>Q14/M14-1</f>
+        <f t="shared" ref="Q21:Z23" si="67">Q14/M14-1</f>
         <v>0.10370370370370363</v>
       </c>
       <c r="R21" s="48">
-        <f>R14/N14-1</f>
+        <f t="shared" si="67"/>
         <v>8.9655172413793061E-2</v>
       </c>
       <c r="S21" s="48">
-        <f>S14/O14-1</f>
+        <f t="shared" si="67"/>
         <v>0.19444444444444442</v>
       </c>
       <c r="T21" s="48">
-        <f>T14/P14-1</f>
+        <f t="shared" si="67"/>
         <v>0.31914893617021267</v>
       </c>
       <c r="U21" s="48">
-        <f>U14/Q14-1</f>
+        <f t="shared" si="67"/>
         <v>0.3087248322147651</v>
       </c>
       <c r="V21" s="48">
-        <f>V14/R14-1</f>
+        <f t="shared" si="67"/>
         <v>0.29113924050632911</v>
       </c>
       <c r="W21" s="48">
-        <f>W14/S14-1</f>
+        <f t="shared" si="67"/>
         <v>0.22093023255813948</v>
       </c>
       <c r="X21" s="48">
-        <f>X14/T14-1</f>
+        <f t="shared" si="67"/>
         <v>0.17204301075268824</v>
       </c>
       <c r="Y21" s="48">
-        <f>Y14/U14-1</f>
+        <f t="shared" si="67"/>
         <v>0.15897435897435908</v>
       </c>
       <c r="Z21" s="48">
-        <f>Z14/V14-1</f>
+        <f t="shared" si="67"/>
         <v>0.21568627450980382</v>
       </c>
       <c r="AV21" s="48" t="e">
-        <f>AV14/AU14-1</f>
+        <f t="shared" ref="AV21:BA23" si="68">AV14/AU14-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW21" s="48">
-        <f>AW14/AV14-1</f>
+        <f t="shared" si="68"/>
         <v>0.12606272169359833</v>
       </c>
       <c r="AX21" s="48">
-        <f>AX14/AW14-1</f>
+        <f t="shared" si="68"/>
         <v>-4.2499999999999982E-2</v>
       </c>
       <c r="AY21" s="48">
-        <f>AY14/AX14-1</f>
+        <f t="shared" si="68"/>
         <v>0.13315926892950403</v>
       </c>
       <c r="AZ21" s="48">
-        <f>AZ14/AY14-1</f>
+        <f t="shared" si="68"/>
         <v>0.74423963133640547</v>
       </c>
       <c r="BA21" s="48">
-        <f>BA14/AZ14-1</f>
+        <f t="shared" si="68"/>
         <v>0.19154557463672384</v>
       </c>
     </row>
@@ -6869,107 +8208,107 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48">
-        <f>G15/C15-1</f>
+        <f t="shared" si="66"/>
         <v>-0.10729838007315795</v>
       </c>
       <c r="H22" s="48">
-        <f>H15/D15-1</f>
+        <f t="shared" si="66"/>
         <v>-0.43546532293474394</v>
       </c>
       <c r="I22" s="48">
-        <f>I15/E15-1</f>
+        <f t="shared" si="66"/>
         <v>-0.16717448710136096</v>
       </c>
       <c r="J22" s="48">
-        <f>J15/F15-1</f>
+        <f t="shared" si="66"/>
         <v>3.6627505183136844E-2</v>
       </c>
       <c r="K22" s="48">
-        <f>K15/G15-1</f>
+        <f t="shared" si="66"/>
         <v>0.19512195121951215</v>
       </c>
       <c r="L22" s="48">
-        <f>L15/H15-1</f>
+        <f t="shared" si="66"/>
         <v>1.074074074074074</v>
       </c>
       <c r="M22" s="48">
-        <f>M15/I15-1</f>
+        <f t="shared" si="66"/>
         <v>0.34146341463414642</v>
       </c>
       <c r="N22" s="48">
-        <f>N15/J15-1</f>
+        <f t="shared" si="66"/>
         <v>0.17647058823529416</v>
       </c>
       <c r="O22" s="48">
-        <f>O15/K15-1</f>
+        <f t="shared" si="66"/>
         <v>0.22448979591836737</v>
       </c>
       <c r="P22" s="48">
-        <f>P15/L15-1</f>
+        <f t="shared" si="66"/>
         <v>0.1964285714285714</v>
       </c>
       <c r="Q22" s="48">
-        <f>Q15/M15-1</f>
+        <f t="shared" si="67"/>
         <v>0.18181818181818188</v>
       </c>
       <c r="R22" s="48">
-        <f>R15/N15-1</f>
+        <f t="shared" si="67"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S22" s="48">
-        <f>S15/O15-1</f>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="T22" s="48">
-        <f>T15/P15-1</f>
+        <f t="shared" si="67"/>
         <v>0.11940298507462677</v>
       </c>
       <c r="U22" s="48">
-        <f>U15/Q15-1</f>
+        <f t="shared" si="67"/>
         <v>0.1692307692307693</v>
       </c>
       <c r="V22" s="48">
-        <f>V15/R15-1</f>
+        <f t="shared" si="67"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="W22" s="48">
-        <f>W15/S15-1</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X22" s="48">
-        <f>X15/T15-1</f>
+        <f t="shared" si="67"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Y22" s="48">
-        <f>Y15/U15-1</f>
+        <f t="shared" si="67"/>
         <v>-1.3157894736842146E-2</v>
       </c>
       <c r="Z22" s="48">
-        <f>Z15/V15-1</f>
+        <f t="shared" si="67"/>
         <v>-0.1728395061728395</v>
       </c>
       <c r="AV22" s="48" t="e">
-        <f>AV15/AU15-1</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW22" s="48">
-        <f>AW15/AV15-1</f>
+        <f t="shared" si="68"/>
         <v>-0.16746018118147821</v>
       </c>
       <c r="AX22" s="48">
-        <f>AX15/AW15-1</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AY22" s="48">
-        <f>AY15/AX15-1</f>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ22" s="48">
-        <f>AZ15/AY15-1</f>
+        <f t="shared" si="68"/>
         <v>0.56770833333333326</v>
       </c>
       <c r="BA22" s="48">
-        <f>BA15/AZ15-1</f>
+        <f t="shared" si="68"/>
         <v>-2.9900332225913595E-2</v>
       </c>
     </row>
@@ -6982,107 +8321,107 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48">
-        <f>G16/C16-1</f>
+        <f t="shared" si="66"/>
         <v>6.6654209391228569E-2</v>
       </c>
       <c r="H23" s="48">
-        <f>H16/D16-1</f>
+        <f t="shared" si="66"/>
         <v>-0.21759152316301666</v>
       </c>
       <c r="I23" s="48">
-        <f>I16/E16-1</f>
+        <f t="shared" si="66"/>
         <v>8.2421757394159245E-2</v>
       </c>
       <c r="J23" s="48">
-        <f>J16/F16-1</f>
+        <f t="shared" si="66"/>
         <v>0.14965475936417838</v>
       </c>
       <c r="K23" s="48">
-        <f>K16/G16-1</f>
+        <f t="shared" si="66"/>
         <v>0.23357664233576636</v>
       </c>
       <c r="L23" s="48">
-        <f>L16/H16-1</f>
+        <f t="shared" si="66"/>
         <v>0.75238095238095237</v>
       </c>
       <c r="M23" s="48">
-        <f>M16/I16-1</f>
+        <f t="shared" si="66"/>
         <v>0.25827814569536423</v>
       </c>
       <c r="N23" s="48">
-        <f>N16/J16-1</f>
+        <f t="shared" si="66"/>
         <v>0.22754491017964074</v>
       </c>
       <c r="O23" s="48">
-        <f>O16/K16-1</f>
+        <f t="shared" si="66"/>
         <v>0.20710059171597628</v>
       </c>
       <c r="P23" s="48">
-        <f>P16/L16-1</f>
+        <f t="shared" si="66"/>
         <v>0.13043478260869557</v>
       </c>
       <c r="Q23" s="48">
-        <f>Q16/M16-1</f>
+        <f t="shared" si="67"/>
         <v>0.12631578947368416</v>
       </c>
       <c r="R23" s="48">
-        <f>R16/N16-1</f>
+        <f t="shared" si="67"/>
         <v>7.8048780487804947E-2</v>
       </c>
       <c r="S23" s="48">
-        <f>S16/O16-1</f>
+        <f t="shared" si="67"/>
         <v>0.18137254901960786</v>
       </c>
       <c r="T23" s="48">
-        <f>T16/P16-1</f>
+        <f t="shared" si="67"/>
         <v>0.25480769230769229</v>
       </c>
       <c r="U23" s="48">
-        <f>U16/Q16-1</f>
+        <f t="shared" si="67"/>
         <v>0.26635514018691597</v>
       </c>
       <c r="V23" s="48">
-        <f>V16/R16-1</f>
+        <f t="shared" si="67"/>
         <v>0.28959276018099556</v>
       </c>
       <c r="W23" s="48">
-        <f>W16/S16-1</f>
+        <f t="shared" si="67"/>
         <v>0.15767634854771795</v>
       </c>
       <c r="X23" s="48">
-        <f>X16/T16-1</f>
+        <f t="shared" si="67"/>
         <v>0.14559386973180066</v>
       </c>
       <c r="Y23" s="48">
-        <f>Y16/U16-1</f>
+        <f t="shared" si="67"/>
         <v>0.11070110701107017</v>
       </c>
       <c r="Z23" s="48">
-        <f>Z16/V16-1</f>
+        <f t="shared" si="67"/>
         <v>0.10526315789473695</v>
       </c>
       <c r="AV23" s="48" t="e">
-        <f>AV16/AU16-1</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW23" s="48">
-        <f>AW16/AV16-1</f>
+        <f t="shared" si="68"/>
         <v>2.3012296242439279E-2</v>
       </c>
       <c r="AX23" s="48">
-        <f>AX16/AW16-1</f>
+        <f t="shared" si="68"/>
         <v>0.33571428571428563</v>
       </c>
       <c r="AY23" s="48">
-        <f>AY16/AX16-1</f>
+        <f t="shared" si="68"/>
         <v>0.13235294117647056</v>
       </c>
       <c r="AZ23" s="48">
-        <f>AZ16/AY16-1</f>
+        <f t="shared" si="68"/>
         <v>0.2491145218417945</v>
       </c>
       <c r="BA23" s="48">
-        <f>BA16/AZ16-1</f>
+        <f t="shared" si="68"/>
         <v>0.12854442344045358</v>
       </c>
     </row>
@@ -7172,7 +8511,7 @@
         <v>315.5</v>
       </c>
       <c r="AV26" s="53">
-        <f>SUM(C26:F26)</f>
+        <f t="shared" ref="AV26:AV41" si="69">SUM(C26:F26)</f>
         <v>547.40300000000002</v>
       </c>
       <c r="AW26" s="53">
@@ -7211,8 +8550,8 @@
         <v>49.3</v>
       </c>
       <c r="F27" s="46">
-        <f>222.237-SUM(C27:E27)</f>
-        <v>88.134999999999991</v>
+        <f>175-SUM(C27:E27)</f>
+        <v>40.897999999999996</v>
       </c>
       <c r="G27" s="46">
         <v>49.3</v>
@@ -7280,8 +8619,8 @@
         <v>104.80000000000001</v>
       </c>
       <c r="AV27" s="46">
-        <f>SUM(C27:F27)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>175</v>
       </c>
       <c r="AW27" s="46">
         <f t="shared" si="50"/>
@@ -7309,31 +8648,31 @@
         <v>326</v>
       </c>
       <c r="C28" s="46">
-        <f t="shared" ref="C28" si="63">C26-C27</f>
+        <f t="shared" ref="C28" si="70">C26-C27</f>
         <v>83.91</v>
       </c>
       <c r="D28" s="46">
-        <f t="shared" ref="D28" si="64">D26-D27</f>
+        <f t="shared" ref="D28" si="71">D26-D27</f>
         <v>93.927999999999997</v>
       </c>
       <c r="E28" s="46">
-        <f t="shared" ref="E28" si="65">E26-E27</f>
+        <f t="shared" ref="E28" si="72">E26-E27</f>
         <v>90.202000000000012</v>
       </c>
       <c r="F28" s="46">
-        <f t="shared" ref="F28" si="66">F26-F27</f>
-        <v>57.12600000000009</v>
+        <f t="shared" ref="F28" si="73">F26-F27</f>
+        <v>104.36300000000008</v>
       </c>
       <c r="G28" s="46">
-        <f t="shared" ref="G28:X28" si="67">G26-G27</f>
+        <f t="shared" ref="G28:X28" si="74">G26-G27</f>
         <v>88.000000000000014</v>
       </c>
       <c r="H28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>64.899999999999991</v>
       </c>
       <c r="I28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>90.947000000000003</v>
       </c>
       <c r="J28" s="46">
@@ -7341,59 +8680,59 @@
         <v>94.328000000000031</v>
       </c>
       <c r="K28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>111.333</v>
       </c>
       <c r="L28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>118.70000000000002</v>
       </c>
       <c r="M28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>119.89999999999999</v>
       </c>
       <c r="N28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>125.44899999999996</v>
       </c>
       <c r="O28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>127.4</v>
       </c>
       <c r="P28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>134</v>
       </c>
       <c r="Q28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>135.29999999999998</v>
       </c>
       <c r="R28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>138.50699999999998</v>
       </c>
       <c r="S28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>151.10000000000002</v>
       </c>
       <c r="T28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>166.9</v>
       </c>
       <c r="U28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>177.7</v>
       </c>
       <c r="V28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>186.92000000000002</v>
       </c>
       <c r="W28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>181.2</v>
       </c>
       <c r="X28" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>162.79999999999998</v>
       </c>
       <c r="Y28" s="46">
@@ -7401,12 +8740,12 @@
         <v>200.3</v>
       </c>
       <c r="Z28" s="46">
-        <f t="shared" ref="Z28" si="68">Z26-Z27</f>
+        <f t="shared" ref="Z28" si="75">Z26-Z27</f>
         <v>210.7</v>
       </c>
       <c r="AV28" s="46">
-        <f>SUM(C28:F28)</f>
-        <v>325.16600000000011</v>
+        <f t="shared" si="69"/>
+        <v>372.40300000000013</v>
       </c>
       <c r="AW28" s="46">
         <f t="shared" si="50"/>
@@ -7443,8 +8782,8 @@
         <v>12.946</v>
       </c>
       <c r="F29" s="46">
-        <f>222.237-SUM(C29:E29)</f>
-        <v>184.16200000000001</v>
+        <f>50-SUM(C29:E29)</f>
+        <v>11.925000000000004</v>
       </c>
       <c r="G29" s="46">
         <v>12.946</v>
@@ -7512,8 +8851,8 @@
         <v>20.099999999999994</v>
       </c>
       <c r="AV29" s="46">
-        <f>SUM(C29:F29)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>50</v>
       </c>
       <c r="AW29" s="46">
         <f t="shared" si="50"/>
@@ -7550,8 +8889,8 @@
         <v>74.453000000000003</v>
       </c>
       <c r="F30" s="46">
-        <f>222.237-SUM(C30:E30)</f>
-        <v>19.027999999999992</v>
+        <f>280-SUM(C30:E30)</f>
+        <v>76.790999999999997</v>
       </c>
       <c r="G30" s="46">
         <v>74.453000000000003</v>
@@ -7619,8 +8958,8 @@
         <v>148</v>
       </c>
       <c r="AV30" s="46">
-        <f>SUM(C30:F30)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>280</v>
       </c>
       <c r="AW30" s="46">
         <f t="shared" si="50"/>
@@ -7657,8 +8996,8 @@
         <v>0</v>
       </c>
       <c r="F31" s="46">
-        <f>222.237-SUM(C31:E31)</f>
-        <v>222.23699999999999</v>
+        <f>0-SUM(C31:E31)</f>
+        <v>0</v>
       </c>
       <c r="G31" s="46">
         <v>0</v>
@@ -7726,8 +9065,8 @@
         <v>0</v>
       </c>
       <c r="AV31" s="46">
-        <f>SUM(C31:F31)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>0</v>
       </c>
       <c r="AW31" s="46">
         <f t="shared" si="50"/>
@@ -7764,8 +9103,8 @@
         <v>0</v>
       </c>
       <c r="F32" s="46">
-        <f>222.237-SUM(C32:E32)</f>
-        <v>222.23699999999999</v>
+        <f>0-SUM(C32:E32)</f>
+        <v>0</v>
       </c>
       <c r="G32" s="46">
         <v>0</v>
@@ -7833,8 +9172,8 @@
         <v>3.9999999999992042E-2</v>
       </c>
       <c r="AV32" s="46">
-        <f>SUM(C32:F32)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>0</v>
       </c>
       <c r="AW32" s="46">
         <f t="shared" si="50"/>
@@ -7862,31 +9201,31 @@
         <v>331</v>
       </c>
       <c r="C33" s="46">
-        <f t="shared" ref="C33" si="69">C28-SUM(C29:C32)</f>
+        <f t="shared" ref="C33" si="76">C28-SUM(C29:C32)</f>
         <v>11.152000000000001</v>
       </c>
       <c r="D33" s="46">
-        <f t="shared" ref="D33" si="70">D28-SUM(D29:D32)</f>
+        <f t="shared" ref="D33" si="77">D28-SUM(D29:D32)</f>
         <v>12.800999999999988</v>
       </c>
       <c r="E33" s="46">
-        <f t="shared" ref="E33" si="71">E28-SUM(E29:E32)</f>
+        <f t="shared" ref="E33" si="78">E28-SUM(E29:E32)</f>
         <v>2.8030000000000115</v>
       </c>
       <c r="F33" s="46">
-        <f t="shared" ref="F33" si="72">F28-SUM(F29:F32)</f>
-        <v>-590.5379999999999</v>
+        <f t="shared" ref="F33" si="79">F28-SUM(F29:F32)</f>
+        <v>15.647000000000077</v>
       </c>
       <c r="G33" s="46">
-        <f t="shared" ref="G33:X33" si="73">G28-SUM(G29:G32)</f>
+        <f t="shared" ref="G33:X33" si="80">G28-SUM(G29:G32)</f>
         <v>0.6010000000000133</v>
       </c>
       <c r="H33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-17.625000000000014</v>
       </c>
       <c r="I33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-20.176000000000002</v>
       </c>
       <c r="J33" s="46">
@@ -7894,15 +9233,15 @@
         <v>-1.7419999999999902</v>
       </c>
       <c r="K33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>13.459000000000003</v>
       </c>
       <c r="L33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>10.332000000000022</v>
       </c>
       <c r="M33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>8.7729999999999819</v>
       </c>
       <c r="N33" s="46">
@@ -7910,43 +9249,43 @@
         <v>-40.065000000000083</v>
       </c>
       <c r="O33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-4.0600000000000023</v>
       </c>
       <c r="P33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-0.17400000000000659</v>
       </c>
       <c r="Q33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>5.4099999999999966</v>
       </c>
       <c r="R33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>4.9059999999999491</v>
       </c>
       <c r="S33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>8.0500000000000398</v>
       </c>
       <c r="T33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>18</v>
       </c>
       <c r="U33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>12.599999999999994</v>
       </c>
       <c r="V33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>34.970000000000027</v>
       </c>
       <c r="W33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>12.199999999999989</v>
       </c>
       <c r="X33" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-80.900000000000034</v>
       </c>
       <c r="Y33" s="46">
@@ -7954,12 +9293,12 @@
         <v>35.400000000000034</v>
       </c>
       <c r="Z33" s="46">
-        <f t="shared" ref="Z33" si="74">Z28-SUM(Z29:Z32)</f>
+        <f t="shared" ref="Z33" si="81">Z28-SUM(Z29:Z32)</f>
         <v>42.56</v>
       </c>
       <c r="AV33" s="46">
-        <f>SUM(C33:F33)</f>
-        <v>-563.78199999999993</v>
+        <f t="shared" si="69"/>
+        <v>42.403000000000077</v>
       </c>
       <c r="AW33" s="46">
         <f t="shared" si="50"/>
@@ -7999,8 +9338,8 @@
         <v>-1.256</v>
       </c>
       <c r="F34" s="46">
-        <f>222.237-SUM(C34:E34)</f>
-        <v>222.023</v>
+        <f>4-SUM(C34:E34)</f>
+        <v>3.7859999999999996</v>
       </c>
       <c r="G34" s="46">
         <f>0.299-1.555</f>
@@ -8077,8 +9416,8 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="AV34" s="46">
-        <f>SUM(C34:F34)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="AW34" s="46">
         <f t="shared" si="50"/>
@@ -8106,75 +9445,75 @@
         <v>333</v>
       </c>
       <c r="C35" s="46">
-        <f t="shared" ref="C35" si="75">C33+C34</f>
+        <f t="shared" ref="C35" si="82">C33+C34</f>
         <v>11.909000000000001</v>
       </c>
       <c r="D35" s="46">
-        <f t="shared" ref="D35" si="76">D33+D34</f>
+        <f t="shared" ref="D35" si="83">D33+D34</f>
         <v>13.513999999999989</v>
       </c>
       <c r="E35" s="46">
-        <f t="shared" ref="E35" si="77">E33+E34</f>
+        <f t="shared" ref="E35" si="84">E33+E34</f>
         <v>1.5470000000000115</v>
       </c>
       <c r="F35" s="46">
-        <f t="shared" ref="F35" si="78">F33+F34</f>
-        <v>-368.51499999999987</v>
+        <f t="shared" ref="F35" si="85">F33+F34</f>
+        <v>19.433000000000078</v>
       </c>
       <c r="G35" s="46">
-        <f t="shared" ref="G35:T35" si="79">G33+G34</f>
+        <f t="shared" ref="G35:T35" si="86">G33+G34</f>
         <v>-0.6549999999999867</v>
       </c>
       <c r="H35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-17.009000000000015</v>
       </c>
       <c r="I35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-19.749000000000002</v>
       </c>
       <c r="J35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-0.50499999999999012</v>
       </c>
       <c r="K35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>12.463000000000003</v>
       </c>
       <c r="L35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>10.223000000000022</v>
       </c>
       <c r="M35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>7.7739999999999823</v>
       </c>
       <c r="N35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-40.962000000000081</v>
       </c>
       <c r="O35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-5.1110000000000024</v>
       </c>
       <c r="P35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>-1.1440000000000066</v>
       </c>
       <c r="Q35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>3.0199999999999965</v>
       </c>
       <c r="R35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>7.1269999999999492</v>
       </c>
       <c r="S35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>8.6940000000000399</v>
       </c>
       <c r="T35" s="46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>19.600000000000001</v>
       </c>
       <c r="U35" s="46">
@@ -8182,28 +9521,28 @@
         <v>13.299999999999994</v>
       </c>
       <c r="V35" s="46">
-        <f t="shared" ref="V35:Z35" si="80">V33+V34</f>
+        <f t="shared" ref="V35:Z35" si="87">V33+V34</f>
         <v>38.116000000000028</v>
       </c>
       <c r="W35" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>14.699999999999989</v>
       </c>
       <c r="X35" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-77.80000000000004</v>
       </c>
       <c r="Y35" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>39.800000000000033</v>
       </c>
       <c r="Z35" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>44.150000000000006</v>
       </c>
       <c r="AV35" s="46">
-        <f>SUM(C35:F35)</f>
-        <v>-341.54499999999985</v>
+        <f t="shared" si="69"/>
+        <v>46.403000000000077</v>
       </c>
       <c r="AW35" s="46">
         <f t="shared" si="50"/>
@@ -8240,8 +9579,8 @@
         <v>-1.6339999999999999</v>
       </c>
       <c r="F36" s="46">
-        <f>222.237-SUM(C36:E36)</f>
-        <v>224.04999999999998</v>
+        <f>-4-SUM(C36:E36)</f>
+        <v>-2.1870000000000003</v>
       </c>
       <c r="G36" s="46">
         <v>-1.6339999999999999</v>
@@ -8309,8 +9648,8 @@
         <v>10.560000000000002</v>
       </c>
       <c r="AV36" s="46">
-        <f>SUM(C36:F36)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>-4</v>
       </c>
       <c r="AW36" s="46">
         <f t="shared" si="50"/>
@@ -8335,94 +9674,94 @@
     </row>
     <row r="37" spans="2:55">
       <c r="B37" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C37" s="46">
-        <f t="shared" ref="C37" si="81">C35-C36</f>
+        <f t="shared" ref="C37" si="88">C35-C36</f>
         <v>10.454000000000001</v>
       </c>
       <c r="D37" s="46">
-        <f t="shared" ref="D37" si="82">D35-D36</f>
+        <f t="shared" ref="D37" si="89">D35-D36</f>
         <v>15.147999999999989</v>
       </c>
       <c r="E37" s="46">
-        <f t="shared" ref="E37" si="83">E35-E36</f>
+        <f t="shared" ref="E37" si="90">E35-E36</f>
         <v>3.1810000000000116</v>
       </c>
       <c r="F37" s="46">
-        <f t="shared" ref="F37" si="84">F35-F36</f>
-        <v>-592.56499999999983</v>
+        <f t="shared" ref="F37" si="91">F35-F36</f>
+        <v>21.620000000000079</v>
       </c>
       <c r="G37" s="46">
-        <f t="shared" ref="G37:N37" si="85">G35-G36</f>
+        <f t="shared" ref="G37:N37" si="92">G35-G36</f>
         <v>0.97900000000001319</v>
       </c>
       <c r="H37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>-12.880000000000015</v>
       </c>
       <c r="I37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>-9.8940000000000019</v>
       </c>
       <c r="J37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>2.6380000000000088</v>
       </c>
       <c r="K37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>10.922000000000002</v>
       </c>
       <c r="L37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>8.3230000000000217</v>
       </c>
       <c r="M37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>8.0229999999999819</v>
       </c>
       <c r="N37" s="46">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>-24.645000000000081</v>
       </c>
       <c r="O37" s="46">
-        <f t="shared" ref="O37:X37" si="86">O35-O36</f>
+        <f t="shared" ref="O37:X37" si="93">O35-O36</f>
         <v>7.1999999999997399E-2</v>
       </c>
       <c r="P37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>-3.6640000000000068</v>
       </c>
       <c r="Q37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>-2.2800000000000034</v>
       </c>
       <c r="R37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>3.869999999999949</v>
       </c>
       <c r="S37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>8.6040000000000401</v>
       </c>
       <c r="T37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>19.100000000000001</v>
       </c>
       <c r="U37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>9.2099999999999937</v>
       </c>
       <c r="V37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>54.096000000000032</v>
       </c>
       <c r="W37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>11.099999999999989</v>
       </c>
       <c r="X37" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>-60.200000000000038</v>
       </c>
       <c r="Y37" s="46">
@@ -8430,12 +9769,12 @@
         <v>29.500000000000032</v>
       </c>
       <c r="Z37" s="46">
-        <f t="shared" ref="Z37" si="87">Z35-Z36</f>
+        <f t="shared" ref="Z37" si="94">Z35-Z36</f>
         <v>33.590000000000003</v>
       </c>
       <c r="AV37" s="46">
-        <f>SUM(C37:F37)</f>
-        <v>-563.78199999999981</v>
+        <f t="shared" si="69"/>
+        <v>50.403000000000077</v>
       </c>
       <c r="AW37" s="46">
         <f t="shared" si="50"/>
@@ -8460,7 +9799,7 @@
     </row>
     <row r="38" spans="2:55">
       <c r="B38" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C38" s="46">
         <v>-0.24399999999999999</v>
@@ -8472,8 +9811,8 @@
         <v>-0.53700000000000003</v>
       </c>
       <c r="F38" s="46">
-        <f>222.237-SUM(C38:E38)</f>
-        <v>223.55500000000001</v>
+        <f>-0.2-SUM(C38:E38)</f>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G38" s="46">
         <v>-0.53700000000000003</v>
@@ -8538,8 +9877,8 @@
         <v>0</v>
       </c>
       <c r="AV38" s="2">
-        <f>SUM(C38:F38)</f>
-        <v>222.23699999999999</v>
+        <f t="shared" si="69"/>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="AW38" s="2">
         <v>-3.5550000000000002</v>
@@ -8559,7 +9898,7 @@
     </row>
     <row r="39" spans="2:55">
       <c r="B39" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C39" s="53">
         <f>C37-C38</f>
@@ -8575,110 +9914,110 @@
       </c>
       <c r="F39" s="53">
         <f>F37-F38</f>
-        <v>-816.11999999999989</v>
+        <v>20.502000000000081</v>
       </c>
       <c r="G39" s="53">
         <f>G37-G38</f>
         <v>1.5160000000000133</v>
       </c>
       <c r="H39" s="53">
-        <f t="shared" ref="H39:Z39" si="88">H37-H38</f>
+        <f t="shared" ref="H39:Z39" si="95">H37-H38</f>
         <v>-11.940000000000015</v>
       </c>
       <c r="I39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>-8.833000000000002</v>
       </c>
       <c r="J39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>3.6550000000000091</v>
       </c>
       <c r="K39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>11.832000000000003</v>
       </c>
       <c r="L39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>9.2550000000000221</v>
       </c>
       <c r="M39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>8.841999999999981</v>
       </c>
       <c r="N39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>-24.665000000000081</v>
       </c>
       <c r="O39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>7.1999999999997399E-2</v>
       </c>
       <c r="P39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>-3.6640000000000068</v>
       </c>
       <c r="Q39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>-2.2800000000000034</v>
       </c>
       <c r="R39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>3.869999999999949</v>
       </c>
       <c r="S39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>8.6040000000000401</v>
       </c>
       <c r="T39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>19.100000000000001</v>
       </c>
       <c r="U39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>9.2099999999999937</v>
       </c>
       <c r="V39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>54.096000000000032</v>
       </c>
       <c r="W39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>11.099999999999989</v>
       </c>
       <c r="X39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>-60.200000000000038</v>
       </c>
       <c r="Y39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>29.500000000000032</v>
       </c>
       <c r="Z39" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>33.590000000000003</v>
       </c>
       <c r="AV39" s="53">
-        <f>SUM(C39:F39)</f>
-        <v>-786.01899999999989</v>
+        <f t="shared" si="69"/>
+        <v>50.60300000000008</v>
       </c>
       <c r="AW39" s="53">
-        <f t="shared" ref="AV39:AW39" si="89">AW37-AW38</f>
+        <f t="shared" ref="AW39" si="96">AW37-AW38</f>
         <v>-15.601999999999993</v>
       </c>
       <c r="AX39" s="53">
-        <f t="shared" ref="AX39" si="90">AX37-AX38</f>
+        <f t="shared" ref="AX39" si="97">AX37-AX38</f>
         <v>5.2839999999999261</v>
       </c>
       <c r="AY39" s="53">
-        <f t="shared" ref="AY39" si="91">AY37-AY38</f>
+        <f t="shared" ref="AY39" si="98">AY37-AY38</f>
         <v>-2.0020000000000633</v>
       </c>
       <c r="AZ39" s="53">
-        <f t="shared" ref="AZ39" si="92">AZ37-AZ38</f>
+        <f t="shared" ref="AZ39" si="99">AZ37-AZ38</f>
         <v>91.010000000000076</v>
       </c>
       <c r="BA39" s="53">
-        <f t="shared" ref="BA39" si="93">BA37-BA38</f>
+        <f t="shared" ref="BA39" si="100">BA37-BA38</f>
         <v>13.989999999999984</v>
       </c>
     </row>
@@ -8759,7 +10098,7 @@
         <v>38.630000000000003</v>
       </c>
       <c r="AV40" s="46">
-        <f>SUM(C40:F40)</f>
+        <f t="shared" si="69"/>
         <v>139.50700000000001</v>
       </c>
       <c r="AW40" s="46">
@@ -8801,82 +10140,82 @@
       </c>
       <c r="F41" s="49">
         <f>F39/F40</f>
-        <v>-23.317714285714281</v>
+        <v>0.58577142857143083</v>
       </c>
       <c r="G41" s="49">
         <f>G39/G40</f>
         <v>4.3314285714286097E-2</v>
       </c>
       <c r="H41" s="49">
-        <f t="shared" ref="H41:Z41" si="94">H39/H40</f>
+        <f t="shared" ref="H41:Y41" si="101">H39/H40</f>
         <v>-0.33728813559322079</v>
       </c>
       <c r="I41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-0.24395835059518883</v>
       </c>
       <c r="J41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>9.70757748798175E-2</v>
       </c>
       <c r="K41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.32456453161431909</v>
       </c>
       <c r="L41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.25340196588451169</v>
       </c>
       <c r="M41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.24147254007701291</v>
       </c>
       <c r="N41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-0.67207084468665068</v>
       </c>
       <c r="O41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>1.9125537905752908E-3</v>
       </c>
       <c r="P41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-9.7015913363518586E-2</v>
       </c>
       <c r="Q41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-6.01297536789916E-2</v>
       </c>
       <c r="R41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.10227002457651618</v>
       </c>
       <c r="S41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.22022011773739544</v>
       </c>
       <c r="T41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.50065530799475755</v>
       </c>
       <c r="U41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.23642057706129974</v>
       </c>
       <c r="V41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>1.4087500000000008</v>
       </c>
       <c r="W41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.2824427480916028</v>
       </c>
       <c r="X41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-1.5515463917525785</v>
       </c>
       <c r="Y41" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>0.76424870466321326</v>
       </c>
       <c r="Z41" s="49">
@@ -8911,8 +10250,8 @@
         <v>1.24</v>
       </c>
       <c r="AV41" s="49">
-        <f>SUM(C41:F41)</f>
-        <v>-22.453318804052174</v>
+        <f t="shared" si="69"/>
+        <v>1.4501669102335368</v>
       </c>
       <c r="AW41" s="49">
         <f t="shared" si="50"/>
@@ -8938,7 +10277,7 @@
     <row r="42" spans="2:55">
       <c r="F42" s="49">
         <f>SUM(C41:F41)</f>
-        <v>-22.453318804052174</v>
+        <v>1.4501669102335368</v>
       </c>
       <c r="I42" s="46"/>
       <c r="J42" s="49">
@@ -8972,98 +10311,98 @@
     </row>
     <row r="44" spans="2:55">
       <c r="B44" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C44" s="48">
-        <f t="shared" ref="C44" si="95">C28/C26</f>
+        <f t="shared" ref="C44" si="102">C28/C26</f>
         <v>0.65330623875925542</v>
       </c>
       <c r="D44" s="48">
-        <f t="shared" ref="D44" si="96">D28/D26</f>
+        <f t="shared" ref="D44" si="103">D28/D26</f>
         <v>0.69990536583184926</v>
       </c>
       <c r="E44" s="48">
-        <f t="shared" ref="E44" si="97">E28/E26</f>
+        <f t="shared" ref="E44" si="104">E28/E26</f>
         <v>0.64660004874482091</v>
       </c>
       <c r="F44" s="48">
-        <f t="shared" ref="F44" si="98">F28/F26</f>
-        <v>0.39326453762537816</v>
+        <f t="shared" ref="F44" si="105">F28/F26</f>
+        <v>0.71845161467978347</v>
       </c>
       <c r="G44" s="48">
-        <f t="shared" ref="G44:Y44" si="99">G28/G26</f>
+        <f t="shared" ref="G44:Y44" si="106">G28/G26</f>
         <v>0.64093226511289147</v>
       </c>
       <c r="H44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.61750713606089436</v>
       </c>
       <c r="I44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.60189940436796829</v>
       </c>
       <c r="J44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.56513611963190191</v>
       </c>
       <c r="K44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.65799645390070927</v>
       </c>
       <c r="L44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.64405860010851879</v>
       </c>
       <c r="M44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.6307206733298264</v>
       </c>
       <c r="N44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.61497622432472154</v>
       </c>
       <c r="O44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.62481608631682195</v>
       </c>
       <c r="P44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.64330292846855497</v>
       </c>
       <c r="Q44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.63313055685540476</v>
       </c>
       <c r="R44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.6260684436770283</v>
       </c>
       <c r="S44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.62593206296603154</v>
       </c>
       <c r="T44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.63824091778202674</v>
       </c>
       <c r="U44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.65596160944998161</v>
       </c>
       <c r="V44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.65650463613374543</v>
       </c>
       <c r="W44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.65016146393972007</v>
       </c>
       <c r="X44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.54375417501670009</v>
       </c>
       <c r="Y44" s="48">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.6654485049833887</v>
       </c>
       <c r="Z44" s="48">
@@ -9071,124 +10410,124 @@
         <v>0.66782884310618063</v>
       </c>
       <c r="AV44" s="48">
-        <f>AV28/AV26</f>
-        <v>0.59401574342851626</v>
+        <f t="shared" ref="AV44:BA44" si="107">AV28/AV26</f>
+        <v>0.68030865742423796</v>
       </c>
       <c r="AW44" s="48">
-        <f>AW28/AW26</f>
+        <f t="shared" si="107"/>
         <v>0.60343996916554254</v>
       </c>
       <c r="AX44" s="48">
-        <f>AX28/AX26</f>
+        <f t="shared" si="107"/>
         <v>0.63588598028331023</v>
       </c>
       <c r="AY44" s="48">
-        <f>AY28/AY26</f>
+        <f t="shared" si="107"/>
         <v>0.6317862720493711</v>
       </c>
       <c r="AZ44" s="48">
-        <f>AZ28/AZ26</f>
+        <f t="shared" si="107"/>
         <v>0.64488153270604243</v>
       </c>
       <c r="BA44" s="48">
-        <f>BA28/BA26</f>
+        <f t="shared" si="107"/>
         <v>0.63201071488364313</v>
       </c>
     </row>
     <row r="45" spans="2:55">
       <c r="B45" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C45" s="48">
-        <f t="shared" ref="C45" si="100">C33/C26</f>
+        <f t="shared" ref="C45" si="108">C33/C26</f>
         <v>8.6827209803875788E-2</v>
       </c>
       <c r="D45" s="48">
-        <f t="shared" ref="D45" si="101">D33/D26</f>
+        <f t="shared" ref="D45" si="109">D33/D26</f>
         <v>9.5386770590383002E-2</v>
       </c>
       <c r="E45" s="48">
-        <f t="shared" ref="E45" si="102">E33/E26</f>
+        <f t="shared" ref="E45" si="110">E33/E26</f>
         <v>2.0092901893879737E-2</v>
       </c>
       <c r="F45" s="48">
-        <f t="shared" ref="F45" si="103">F33/F26</f>
-        <v>-4.0653582172778622</v>
+        <f t="shared" ref="F45" si="111">F33/F26</f>
+        <v>0.10771645520821189</v>
       </c>
       <c r="G45" s="48">
-        <f t="shared" ref="G45:Y45" si="104">G33/G26</f>
+        <f t="shared" ref="G45:Y45" si="112">G33/G26</f>
         <v>4.377276037873367E-3</v>
       </c>
       <c r="H45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-0.16769743101807816</v>
       </c>
       <c r="I45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-0.13352746525479817</v>
       </c>
       <c r="J45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-1.0436637269938589E-2</v>
       </c>
       <c r="K45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>7.9544917257683243E-2</v>
       </c>
       <c r="L45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>5.6060770482908417E-2</v>
       </c>
       <c r="M45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>4.6149395055233994E-2</v>
       </c>
       <c r="N45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-0.19640668660228483</v>
       </c>
       <c r="O45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-1.9911721432074557E-2</v>
       </c>
       <c r="P45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-8.3533365338457318E-4</v>
       </c>
       <c r="Q45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>2.5315863359850244E-2</v>
       </c>
       <c r="R45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>2.2175715196195642E-2</v>
       </c>
       <c r="S45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>3.3347141673571001E-2</v>
       </c>
       <c r="T45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>6.8833652007648183E-2</v>
       </c>
       <c r="U45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>4.651162790697673E-2</v>
       </c>
       <c r="V45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>0.12282242202865983</v>
       </c>
       <c r="W45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>4.377466810190165E-2</v>
       </c>
       <c r="X45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>-0.27020708082832345</v>
       </c>
       <c r="Y45" s="48">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>0.11760797342192703</v>
       </c>
       <c r="Z45" s="48">
@@ -9196,124 +10535,124 @@
         <v>0.13489698890649762</v>
       </c>
       <c r="AV45" s="48">
-        <f>AV33/AV26</f>
-        <v>-1.0299212828574194</v>
+        <f t="shared" ref="AV45:BA45" si="113">AV33/AV26</f>
+        <v>7.7462125709943264E-2</v>
       </c>
       <c r="AW45" s="48">
-        <f>AW33/AW26</f>
+        <f t="shared" si="113"/>
         <v>-6.9488162280607821E-2</v>
       </c>
       <c r="AX45" s="48">
-        <f>AX33/AX26</f>
+        <f t="shared" si="113"/>
         <v>-1.0033574552896742E-2</v>
       </c>
       <c r="AY45" s="48">
-        <f>AY33/AY26</f>
+        <f t="shared" si="113"/>
         <v>7.1795101831706905E-3</v>
       </c>
       <c r="AZ45" s="48">
-        <f>AZ33/AZ26</f>
+        <f t="shared" si="113"/>
         <v>6.9549937648792706E-2</v>
       </c>
       <c r="BA45" s="48">
-        <f>BA33/BA26</f>
+        <f t="shared" si="113"/>
         <v>7.7515486355265294E-3</v>
       </c>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C46" s="48">
-        <f t="shared" ref="C46" si="105">C39/C26</f>
+        <f t="shared" ref="C46" si="114">C39/C26</f>
         <v>8.3292457898301919E-2</v>
       </c>
       <c r="D46" s="48">
-        <f t="shared" ref="D46" si="106">D39/D26</f>
+        <f t="shared" ref="D46" si="115">D39/D26</f>
         <v>0.11687692342083882</v>
       </c>
       <c r="E46" s="48">
-        <f t="shared" ref="E46" si="107">E39/E26</f>
+        <f t="shared" ref="E46" si="116">E39/E26</f>
         <v>2.665194764232779E-2</v>
       </c>
       <c r="F46" s="48">
-        <f t="shared" ref="F46" si="108">F39/F26</f>
-        <v>-5.6183008515706172</v>
+        <f t="shared" ref="F46" si="117">F39/F26</f>
+        <v>0.14113905315260167</v>
       </c>
       <c r="G46" s="48">
-        <f t="shared" ref="G46:Y46" si="109">G39/G26</f>
+        <f t="shared" ref="G46:Y46" si="118">G39/G26</f>
         <v>1.1041514930808545E-2</v>
       </c>
       <c r="H46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-0.11360608943863003</v>
       </c>
       <c r="I46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-5.8457974851092005E-2</v>
       </c>
       <c r="J46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>2.1897766487730112E-2</v>
       </c>
       <c r="K46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>6.9929078014184423E-2</v>
       </c>
       <c r="L46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>5.0217037438958334E-2</v>
       </c>
       <c r="M46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>4.6512361914781593E-2</v>
       </c>
       <c r="N46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-0.12091278984263974</v>
       </c>
       <c r="O46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>3.5311427170180187E-4</v>
       </c>
       <c r="P46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-1.7590014402304399E-2</v>
       </c>
       <c r="Q46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-1.0669162377164264E-2</v>
       </c>
       <c r="R46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>1.7492869508617385E-2</v>
       </c>
       <c r="S46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>3.5642087821044076E-2</v>
       </c>
       <c r="T46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>7.304015296367114E-2</v>
       </c>
       <c r="U46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>3.399778516057584E-2</v>
       </c>
       <c r="V46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>0.18999719022197256</v>
       </c>
       <c r="W46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>3.9827771797631827E-2</v>
       </c>
       <c r="X46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>-0.20106880427521726</v>
       </c>
       <c r="Y46" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>9.8006644518272526E-2</v>
       </c>
       <c r="Z46" s="48">
@@ -9321,124 +10660,124 @@
         <v>0.10646592709984153</v>
       </c>
       <c r="AV46" s="48">
-        <f>AV39/AV26</f>
-        <v>-1.4359055394289031</v>
+        <f t="shared" ref="AV46:BA46" si="119">AV39/AV26</f>
+        <v>9.244194861920757E-2</v>
       </c>
       <c r="AW46" s="48">
-        <f>AW39/AW26</f>
+        <f t="shared" si="119"/>
         <v>-2.7840231829439756E-2</v>
       </c>
       <c r="AX46" s="48">
-        <f>AX39/AX26</f>
+        <f t="shared" si="119"/>
         <v>7.0680453189581535E-3</v>
       </c>
       <c r="AY46" s="48">
-        <f>AY39/AY26</f>
+        <f t="shared" si="119"/>
         <v>-2.3632652723953184E-3</v>
       </c>
       <c r="AZ46" s="48">
-        <f>AZ39/AZ26</f>
+        <f t="shared" si="119"/>
         <v>8.5978536069228811E-2</v>
       </c>
       <c r="BA46" s="48">
-        <f>BA39/BA26</f>
+        <f t="shared" si="119"/>
         <v>1.1711032981751201E-2</v>
       </c>
     </row>
     <row r="47" spans="2:55">
       <c r="B47" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C47" s="48">
-        <f t="shared" ref="C47" si="110">C29/C26</f>
+        <f t="shared" ref="C47" si="120">C29/C26</f>
         <v>9.0836895335528925E-2</v>
       </c>
       <c r="D47" s="48">
-        <f t="shared" ref="D47" si="111">D29/D26</f>
+        <f t="shared" ref="D47" si="121">D29/D26</f>
         <v>0.10031221823980448</v>
       </c>
       <c r="E47" s="48">
-        <f t="shared" ref="E47" si="112">E29/E26</f>
+        <f t="shared" ref="E47" si="122">E29/E26</f>
         <v>9.2801536895528378E-2</v>
       </c>
       <c r="F47" s="48">
-        <f t="shared" ref="F47" si="113">F29/F26</f>
-        <v>1.2678007173294958</v>
+        <f t="shared" ref="F47" si="123">F29/F26</f>
+        <v>8.2093610810885217E-2</v>
       </c>
       <c r="G47" s="48">
-        <f t="shared" ref="G47:Y47" si="114">G29/G26</f>
+        <f t="shared" ref="G47:Y47" si="124">G29/G26</f>
         <v>9.4289876183539678E-2</v>
       </c>
       <c r="H47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.21622264509990488</v>
       </c>
       <c r="I47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.23112508272667109</v>
       </c>
       <c r="J47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.11655842599693257</v>
       </c>
       <c r="K47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.10683215130023642</v>
       </c>
       <c r="L47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>9.624525230602278E-2</v>
       </c>
       <c r="M47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.8006312467122566E-2</v>
       </c>
       <c r="N47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.25495367419971571</v>
       </c>
       <c r="O47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.10083374203040706</v>
       </c>
       <c r="P47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>9.3898223715794524E-2</v>
       </c>
       <c r="Q47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>9.9766027140851671E-2</v>
       </c>
       <c r="R47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.1217539878770353E-2</v>
       </c>
       <c r="S47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.2767191383595687E-2</v>
       </c>
       <c r="T47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.2217973231357558E-2</v>
       </c>
       <c r="U47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>7.7519379844961253E-2</v>
       </c>
       <c r="V47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>7.6987917954481594E-2</v>
       </c>
       <c r="W47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.8266953713670618E-2</v>
       </c>
       <c r="X47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.3166332665330661E-2</v>
       </c>
       <c r="Y47" s="48">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.3720930232558138E-2</v>
       </c>
       <c r="Z47" s="48">
@@ -9446,124 +10785,124 @@
         <v>6.3708399366085564E-2</v>
       </c>
       <c r="AV47" s="48">
-        <f>AV29/AV26</f>
-        <v>0.40598425657148385</v>
+        <f t="shared" ref="AV47:BA47" si="125">AV29/AV26</f>
+        <v>9.1340383593074934E-2</v>
       </c>
       <c r="AW47" s="48">
-        <f>AW29/AW26</f>
+        <f t="shared" si="125"/>
         <v>0.16068356851744789</v>
       </c>
       <c r="AX47" s="48">
-        <f>AX29/AX26</f>
+        <f t="shared" si="125"/>
         <v>0.13985205794620045</v>
       </c>
       <c r="AY47" s="48">
-        <f>AY29/AY26</f>
+        <f t="shared" si="125"/>
         <v>9.3736166575968588E-2</v>
       </c>
       <c r="AZ47" s="48">
-        <f>AZ29/AZ26</f>
+        <f t="shared" si="125"/>
         <v>7.9733968181989953E-2</v>
       </c>
       <c r="BA47" s="48">
-        <f>BA29/BA26</f>
+        <f t="shared" si="125"/>
         <v>7.9357106981416375E-2</v>
       </c>
     </row>
     <row r="48" spans="2:55">
       <c r="B48" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C48" s="48">
-        <f t="shared" ref="C48" si="115">C30/C26</f>
+        <f t="shared" ref="C48" si="126">C30/C26</f>
         <v>0.47564213361985069</v>
       </c>
       <c r="D48" s="48">
-        <f t="shared" ref="D48" si="116">D30/D26</f>
+        <f t="shared" ref="D48" si="127">D30/D26</f>
         <v>0.50420637700166171</v>
       </c>
       <c r="E48" s="48">
-        <f t="shared" ref="E48" si="117">E30/E26</f>
+        <f t="shared" ref="E48" si="128">E30/E26</f>
         <v>0.53370560995541283</v>
       </c>
       <c r="F48" s="48">
-        <f t="shared" ref="F48" si="118">F30/F26</f>
-        <v>0.13099180096515914</v>
+        <f t="shared" ref="F48" si="129">F30/F26</f>
+        <v>0.52864154866068636</v>
       </c>
       <c r="G48" s="48">
-        <f t="shared" ref="G48:Y48" si="119">G30/G26</f>
+        <f t="shared" ref="G48:Y48" si="130">G30/G26</f>
         <v>0.5422651128914785</v>
       </c>
       <c r="H48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.56898192197906761</v>
       </c>
       <c r="I48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.50430178689609539</v>
       </c>
       <c r="J48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.45901433090490795</v>
       </c>
       <c r="K48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.47161938534278963</v>
       </c>
       <c r="L48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.49175257731958755</v>
       </c>
       <c r="M48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.49656496580746978</v>
       </c>
       <c r="N48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.55642923672729072</v>
       </c>
       <c r="O48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.54389406571848942</v>
       </c>
       <c r="P48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.55024003840614488</v>
       </c>
       <c r="Q48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.5080486663547028</v>
       </c>
       <c r="R48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.52267518860206241</v>
       </c>
       <c r="S48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.50981772990886487</v>
       </c>
       <c r="T48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.48718929254302107</v>
       </c>
       <c r="U48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.46474713916574389</v>
       </c>
       <c r="V48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.45669429615060397</v>
       </c>
       <c r="W48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.51811984212414786</v>
       </c>
       <c r="X48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.4739478957915832</v>
       </c>
       <c r="Y48" s="48">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.46411960132890362</v>
       </c>
       <c r="Z48" s="48">
@@ -9571,27 +10910,27 @@
         <v>0.46909667194928684</v>
       </c>
       <c r="AV48" s="48">
-        <f>AV30/AV26</f>
-        <v>0.40598425657148385</v>
+        <f t="shared" ref="AV48:BA48" si="131">AV30/AV26</f>
+        <v>0.51150614812121964</v>
       </c>
       <c r="AW48" s="48">
-        <f>AW30/AW26</f>
+        <f t="shared" si="131"/>
         <v>0.51224456292870235</v>
       </c>
       <c r="AX48" s="48">
-        <f>AX30/AX26</f>
+        <f t="shared" si="131"/>
         <v>0.50606749689000652</v>
       </c>
       <c r="AY48" s="48">
-        <f>AY30/AY26</f>
+        <f t="shared" si="131"/>
         <v>0.53087059529023184</v>
       </c>
       <c r="AZ48" s="48">
-        <f>AZ30/AZ26</f>
+        <f t="shared" si="131"/>
         <v>0.47840380909193969</v>
       </c>
       <c r="BA48" s="48">
-        <f>BA30/BA26</f>
+        <f t="shared" si="131"/>
         <v>0.48049556336849158</v>
       </c>
     </row>
@@ -9610,9 +10949,15 @@
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
+      <c r="N50" s="46">
+        <v>59.378999999999998</v>
+      </c>
+      <c r="O50" s="46">
+        <v>68.162999999999997</v>
+      </c>
+      <c r="P50" s="46">
+        <v>58.234000000000002</v>
+      </c>
       <c r="Q50" s="46">
         <v>54.844000000000001</v>
       </c>
@@ -9653,11 +10998,11 @@
       </c>
       <c r="AX50" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>59.378999999999998</v>
       </c>
       <c r="AY50" s="46">
         <f t="shared" si="59"/>
-        <v>124.702</v>
+        <v>251.09899999999999</v>
       </c>
       <c r="AZ50" s="46">
         <f>V50</f>
@@ -9683,9 +11028,15 @@
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
+      <c r="N51" s="46">
+        <v>195.49600000000001</v>
+      </c>
+      <c r="O51" s="46">
+        <v>172.178</v>
+      </c>
+      <c r="P51" s="46">
+        <v>146.13499999999999</v>
+      </c>
       <c r="Q51" s="46">
         <v>129.583</v>
       </c>
@@ -9726,18 +11077,18 @@
       </c>
       <c r="AX51" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>195.49600000000001</v>
       </c>
       <c r="AY51" s="46">
         <f t="shared" si="59"/>
-        <v>247.755</v>
+        <v>566.06799999999998</v>
       </c>
       <c r="AZ51" s="46">
-        <f t="shared" ref="AZ51:AZ61" si="120">V51</f>
+        <f t="shared" ref="AZ51:AZ61" si="132">V51</f>
         <v>121.70099999999999</v>
       </c>
       <c r="BA51" s="46">
-        <f t="shared" ref="BA51:BA61" si="121">Z51</f>
+        <f t="shared" ref="BA51:BA61" si="133">Z51</f>
         <v>15.727</v>
       </c>
     </row>
@@ -9756,9 +11107,15 @@
       <c r="K52" s="46"/>
       <c r="L52" s="46"/>
       <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
+      <c r="N52" s="46">
+        <v>133.94</v>
+      </c>
+      <c r="O52" s="46">
+        <v>143.417</v>
+      </c>
+      <c r="P52" s="46">
+        <v>187.38900000000001</v>
+      </c>
       <c r="Q52" s="46">
         <v>189.006</v>
       </c>
@@ -9798,19 +11155,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="46">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>SUM(K52:N52)</f>
+        <v>133.94</v>
       </c>
       <c r="AY52" s="46">
         <f t="shared" si="59"/>
-        <v>392.39</v>
+        <v>723.19600000000003</v>
       </c>
       <c r="AZ52" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>201.768</v>
       </c>
       <c r="BA52" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>167.667</v>
       </c>
     </row>
@@ -9829,9 +11186,15 @@
       <c r="K53" s="46"/>
       <c r="L53" s="46"/>
       <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
+      <c r="N53" s="46">
+        <v>263.50400000000002</v>
+      </c>
+      <c r="O53" s="46">
+        <v>274.34899999999999</v>
+      </c>
+      <c r="P53" s="46">
+        <v>295.88299999999998</v>
+      </c>
       <c r="Q53" s="46">
         <v>320.30399999999997</v>
       </c>
@@ -9863,7 +11226,7 @@
         <v>406.73700000000002</v>
       </c>
       <c r="AV53" s="49">
-        <f t="shared" ref="AV53:AV62" si="122">SUM(C53:F53)</f>
+        <f t="shared" ref="AV53:AV61" si="134">SUM(C53:F53)</f>
         <v>0</v>
       </c>
       <c r="AW53" s="46">
@@ -9872,18 +11235,18 @@
       </c>
       <c r="AX53" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>263.50400000000002</v>
       </c>
       <c r="AY53" s="46">
         <f t="shared" si="59"/>
-        <v>654.30999999999995</v>
+        <v>1224.5419999999999</v>
       </c>
       <c r="AZ53" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>388.02300000000002</v>
       </c>
       <c r="BA53" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>406.73700000000002</v>
       </c>
     </row>
@@ -9902,10 +11265,18 @@
       <c r="K54" s="46"/>
       <c r="L54" s="46"/>
       <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
+      <c r="N54" s="46">
+        <v>29.155000000000001</v>
+      </c>
+      <c r="O54" s="46">
+        <v>32.219000000000001</v>
+      </c>
+      <c r="P54" s="46">
+        <v>30.32</v>
+      </c>
+      <c r="Q54" s="46">
+        <v>29.888000000000002</v>
+      </c>
       <c r="R54" s="46">
         <v>30.279</v>
       </c>
@@ -9934,7 +11305,7 @@
         <v>36.588999999999999</v>
       </c>
       <c r="AV54" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW54" s="46">
@@ -9943,18 +11314,18 @@
       </c>
       <c r="AX54" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="AY54" s="46">
         <f t="shared" si="59"/>
-        <v>30.279</v>
+        <v>122.706</v>
       </c>
       <c r="AZ54" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>36.423999999999999</v>
       </c>
       <c r="BA54" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>36.588999999999999</v>
       </c>
     </row>
@@ -9973,10 +11344,18 @@
       <c r="K55" s="46"/>
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
+      <c r="N55" s="46">
+        <v>58.856000000000002</v>
+      </c>
+      <c r="O55" s="46">
+        <v>60.326999999999998</v>
+      </c>
+      <c r="P55" s="46">
+        <v>63.457999999999998</v>
+      </c>
+      <c r="Q55" s="46">
+        <v>64.081999999999994</v>
+      </c>
       <c r="R55" s="46">
         <v>65.015000000000001</v>
       </c>
@@ -10005,7 +11384,7 @@
         <v>62.640999999999998</v>
       </c>
       <c r="AV55" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW55" s="46">
@@ -10014,18 +11393,18 @@
       </c>
       <c r="AX55" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>58.856000000000002</v>
       </c>
       <c r="AY55" s="46">
         <f t="shared" si="59"/>
-        <v>65.015000000000001</v>
+        <v>252.88200000000001</v>
       </c>
       <c r="AZ55" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>72.691000000000003</v>
       </c>
       <c r="BA55" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>62.640999999999998</v>
       </c>
     </row>
@@ -10044,10 +11423,18 @@
       <c r="K56" s="46"/>
       <c r="L56" s="46"/>
       <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
+      <c r="N56" s="46">
+        <v>131.95500000000001</v>
+      </c>
+      <c r="O56" s="46">
+        <v>176.892</v>
+      </c>
+      <c r="P56" s="46">
+        <v>177.423</v>
+      </c>
+      <c r="Q56" s="46">
+        <v>174.684</v>
+      </c>
       <c r="R56" s="46">
         <v>192.636</v>
       </c>
@@ -10076,7 +11463,7 @@
         <v>177.78700000000001</v>
       </c>
       <c r="AV56" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW56" s="46">
@@ -10085,18 +11472,18 @@
       </c>
       <c r="AX56" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>131.95500000000001</v>
       </c>
       <c r="AY56" s="46">
         <f t="shared" si="59"/>
-        <v>192.636</v>
+        <v>721.63499999999999</v>
       </c>
       <c r="AZ56" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>188.756</v>
       </c>
       <c r="BA56" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>177.78700000000001</v>
       </c>
     </row>
@@ -10115,10 +11502,18 @@
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
+      <c r="N57" s="46">
+        <v>36.276000000000003</v>
+      </c>
+      <c r="O57" s="46">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="P57" s="46">
+        <v>34.743000000000002</v>
+      </c>
+      <c r="Q57" s="46">
+        <v>34.113999999999997</v>
+      </c>
       <c r="R57" s="46">
         <v>33.323</v>
       </c>
@@ -10147,7 +11542,7 @@
         <v>28.018000000000001</v>
       </c>
       <c r="AV57" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW57" s="46">
@@ -10156,18 +11551,18 @@
       </c>
       <c r="AX57" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>36.276000000000003</v>
       </c>
       <c r="AY57" s="46">
         <f t="shared" si="59"/>
-        <v>33.323</v>
+        <v>137.73000000000002</v>
       </c>
       <c r="AZ57" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>31.091999999999999</v>
       </c>
       <c r="BA57" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>28.018000000000001</v>
       </c>
     </row>
@@ -10186,10 +11581,18 @@
       <c r="K58" s="46"/>
       <c r="L58" s="46"/>
       <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
+      <c r="N58" s="46">
+        <v>90.617999999999995</v>
+      </c>
+      <c r="O58" s="46">
+        <v>88.471999999999994</v>
+      </c>
+      <c r="P58" s="46">
+        <v>86.162000000000006</v>
+      </c>
+      <c r="Q58" s="46">
+        <v>83.36</v>
+      </c>
       <c r="R58" s="46">
         <v>81.161000000000001</v>
       </c>
@@ -10218,7 +11621,7 @@
         <v>6.5129999999999999</v>
       </c>
       <c r="AV58" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW58" s="46">
@@ -10227,18 +11630,18 @@
       </c>
       <c r="AX58" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>90.617999999999995</v>
       </c>
       <c r="AY58" s="46">
         <f t="shared" si="59"/>
-        <v>81.161000000000001</v>
+        <v>339.15500000000003</v>
       </c>
       <c r="AZ58" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>71.055999999999997</v>
       </c>
       <c r="BA58" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>6.5129999999999999</v>
       </c>
     </row>
@@ -10257,10 +11660,18 @@
       <c r="K59" s="46"/>
       <c r="L59" s="46"/>
       <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
+      <c r="N59" s="46">
+        <v>166.38800000000001</v>
+      </c>
+      <c r="O59" s="46">
+        <v>166.232</v>
+      </c>
+      <c r="P59" s="46">
+        <v>165.779</v>
+      </c>
+      <c r="Q59" s="46">
+        <v>165.42599999999999</v>
+      </c>
       <c r="R59" s="46">
         <v>166.04599999999999</v>
       </c>
@@ -10289,7 +11700,7 @@
         <v>165.82599999999999</v>
       </c>
       <c r="AV59" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW59" s="46">
@@ -10298,18 +11709,18 @@
       </c>
       <c r="AX59" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>166.38800000000001</v>
       </c>
       <c r="AY59" s="46">
         <f t="shared" si="59"/>
-        <v>166.04599999999999</v>
+        <v>663.48299999999995</v>
       </c>
       <c r="AZ59" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>166.27</v>
       </c>
       <c r="BA59" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>165.82599999999999</v>
       </c>
     </row>
@@ -10328,10 +11739,18 @@
       <c r="K60" s="46"/>
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
+      <c r="N60" s="46">
+        <v>65.697999999999993</v>
+      </c>
+      <c r="O60" s="46">
+        <v>70.08</v>
+      </c>
+      <c r="P60" s="46">
+        <v>68.403999999999996</v>
+      </c>
+      <c r="Q60" s="46">
+        <v>62.826999999999998</v>
+      </c>
       <c r="R60" s="46">
         <v>64.212999999999994</v>
       </c>
@@ -10360,7 +11779,7 @@
         <v>100.33199999999999</v>
       </c>
       <c r="AV60" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW60" s="46">
@@ -10369,18 +11788,18 @@
       </c>
       <c r="AX60" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>65.697999999999993</v>
       </c>
       <c r="AY60" s="46">
         <f t="shared" si="59"/>
-        <v>64.212999999999994</v>
+        <v>265.524</v>
       </c>
       <c r="AZ60" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>85.158000000000001</v>
       </c>
       <c r="BA60" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>100.33199999999999</v>
       </c>
     </row>
@@ -10399,10 +11818,18 @@
       <c r="K61" s="46"/>
       <c r="L61" s="46"/>
       <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
+      <c r="N61" s="46">
+        <v>12.984999999999999</v>
+      </c>
+      <c r="O61" s="46">
+        <v>13.694000000000001</v>
+      </c>
+      <c r="P61" s="46">
+        <v>13.97</v>
+      </c>
+      <c r="Q61" s="46">
+        <v>13.483000000000001</v>
+      </c>
       <c r="R61" s="46">
         <v>12.792999999999999</v>
       </c>
@@ -10431,7 +11858,7 @@
         <v>40.939</v>
       </c>
       <c r="AV61" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AW61" s="46">
@@ -10440,18 +11867,18 @@
       </c>
       <c r="AX61" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="AY61" s="46">
         <f t="shared" si="59"/>
-        <v>12.792999999999999</v>
+        <v>53.940000000000005</v>
       </c>
       <c r="AZ61" s="46">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>25.88</v>
       </c>
       <c r="BA61" s="46">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>40.939</v>
       </c>
     </row>
@@ -10460,123 +11887,123 @@
         <v>349</v>
       </c>
       <c r="C62" s="46">
-        <f t="shared" ref="C62" si="123">SUM(C50:C61)</f>
+        <f t="shared" ref="C62:Z62" si="135">SUM(C50:C61)</f>
         <v>0</v>
       </c>
       <c r="D62" s="46">
-        <f t="shared" ref="D62" si="124">SUM(D50:D61)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="E62" s="46">
-        <f t="shared" ref="E62" si="125">SUM(E50:E61)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="F62" s="46">
-        <f t="shared" ref="F62" si="126">SUM(F50:F61)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="G62" s="46">
-        <f t="shared" ref="G62:X62" si="127">SUM(G50:G61)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="H62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="I62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="J62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="K62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="M62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="N62" s="46">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
+        <v>1244.2499999999998</v>
+      </c>
+      <c r="O62" s="46">
+        <f t="shared" si="135"/>
+        <v>1301.5729999999999</v>
+      </c>
+      <c r="P62" s="46">
+        <f t="shared" si="135"/>
+        <v>1327.9</v>
+      </c>
+      <c r="Q62" s="46">
+        <f t="shared" si="135"/>
+        <v>1321.6009999999999</v>
+      </c>
+      <c r="R62" s="46">
+        <f t="shared" si="135"/>
+        <v>1370.886</v>
+      </c>
+      <c r="S62" s="46">
+        <f t="shared" si="135"/>
+        <v>1395.298</v>
+      </c>
+      <c r="T62" s="46">
+        <f t="shared" si="135"/>
+        <v>1432.5319999999999</v>
+      </c>
+      <c r="U62" s="46">
+        <f t="shared" si="135"/>
+        <v>1468.377</v>
+      </c>
+      <c r="V62" s="46">
+        <f t="shared" si="135"/>
+        <v>1556.3050000000003</v>
+      </c>
+      <c r="W62" s="46">
+        <f t="shared" si="135"/>
+        <v>1579.845</v>
+      </c>
+      <c r="X62" s="46">
+        <f t="shared" si="135"/>
+        <v>1534.5609999999999</v>
+      </c>
+      <c r="Y62" s="46">
+        <f t="shared" si="135"/>
+        <v>1479.1229999999998</v>
+      </c>
+      <c r="Z62" s="46">
+        <f t="shared" si="135"/>
+        <v>1533.1759999999997</v>
+      </c>
+      <c r="AV62" s="46">
+        <f t="shared" ref="AV62:BA62" si="136">SUM(AV50:AV61)</f>
         <v>0</v>
       </c>
-      <c r="O62" s="46">
-        <f t="shared" si="127"/>
+      <c r="AW62" s="46">
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
-      <c r="P62" s="46">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="46">
-        <f t="shared" si="127"/>
-        <v>693.73699999999997</v>
-      </c>
-      <c r="R62" s="46">
-        <f t="shared" si="127"/>
-        <v>1370.886</v>
-      </c>
-      <c r="S62" s="46">
-        <f t="shared" si="127"/>
-        <v>1395.298</v>
-      </c>
-      <c r="T62" s="46">
-        <f t="shared" si="127"/>
-        <v>1432.5319999999999</v>
-      </c>
-      <c r="U62" s="46">
-        <f>SUM(U50:U61)</f>
-        <v>1468.377</v>
-      </c>
-      <c r="V62" s="46">
-        <f t="shared" si="127"/>
+      <c r="AX62" s="46">
+        <f t="shared" si="136"/>
+        <v>1244.2499999999998</v>
+      </c>
+      <c r="AY62" s="46">
+        <f t="shared" si="136"/>
+        <v>5321.96</v>
+      </c>
+      <c r="AZ62" s="46">
+        <f t="shared" si="136"/>
         <v>1556.3050000000003</v>
       </c>
-      <c r="W62" s="46">
-        <f>SUM(W50:W61)</f>
-        <v>1579.845</v>
-      </c>
-      <c r="X62" s="46">
-        <f t="shared" si="127"/>
-        <v>1534.5609999999999</v>
-      </c>
-      <c r="Y62" s="46">
-        <f>SUM(Y50:Y61)</f>
-        <v>1479.1229999999998</v>
-      </c>
-      <c r="Z62" s="46">
-        <f>SUM(Z50:Z61)</f>
-        <v>1533.1759999999997</v>
-      </c>
-      <c r="AV62" s="46">
-        <f>SUM(AV50:AV61)</f>
-        <v>0</v>
-      </c>
-      <c r="AW62" s="46">
-        <f>SUM(AW50:AW61)</f>
-        <v>0</v>
-      </c>
-      <c r="AX62" s="46">
-        <f>SUM(AX50:AX61)</f>
-        <v>0</v>
-      </c>
-      <c r="AY62" s="46">
-        <f>SUM(AY50:AY61)</f>
-        <v>2064.6230000000005</v>
-      </c>
-      <c r="AZ62" s="46">
-        <f>SUM(AZ50:AZ61)</f>
-        <v>1556.3050000000003</v>
-      </c>
       <c r="BA62" s="46">
-        <f>SUM(BA50:BA61)</f>
+        <f t="shared" si="136"/>
         <v>1533.1759999999997</v>
       </c>
     </row>
@@ -10602,10 +12029,18 @@
       <c r="K64" s="46"/>
       <c r="L64" s="46"/>
       <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
+      <c r="N64" s="46">
+        <v>13.420999999999999</v>
+      </c>
+      <c r="O64" s="46">
+        <v>14.137</v>
+      </c>
+      <c r="P64" s="46">
+        <v>23.096</v>
+      </c>
+      <c r="Q64" s="46">
+        <v>25.364999999999998</v>
+      </c>
       <c r="R64" s="46">
         <v>26.678999999999998</v>
       </c>
@@ -10634,7 +12069,7 @@
         <v>31.326000000000001</v>
       </c>
       <c r="AV64" s="49">
-        <f t="shared" ref="AV64:AV72" si="128">SUM(C64:F64)</f>
+        <f t="shared" ref="AV64:AV71" si="137">SUM(C64:F64)</f>
         <v>0</v>
       </c>
       <c r="AW64" s="46">
@@ -10643,18 +12078,18 @@
       </c>
       <c r="AX64" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>13.420999999999999</v>
       </c>
       <c r="AY64" s="46">
         <f t="shared" si="59"/>
-        <v>26.678999999999998</v>
+        <v>89.277000000000001</v>
       </c>
       <c r="AZ64" s="46">
         <f t="shared" si="42"/>
         <v>109.169</v>
       </c>
       <c r="BA64" s="46">
-        <f t="shared" ref="BA64:BA71" si="129">Z64</f>
+        <f t="shared" ref="BA64:BA71" si="138">Z64</f>
         <v>31.326000000000001</v>
       </c>
     </row>
@@ -10673,10 +12108,18 @@
       <c r="K65" s="46"/>
       <c r="L65" s="46"/>
       <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
+      <c r="N65" s="46">
+        <v>99.796000000000006</v>
+      </c>
+      <c r="O65" s="46">
+        <v>105.533</v>
+      </c>
+      <c r="P65" s="46">
+        <v>111.405</v>
+      </c>
+      <c r="Q65" s="46">
+        <v>101.672</v>
+      </c>
       <c r="R65" s="46">
         <v>106.3</v>
       </c>
@@ -10705,7 +12148,7 @@
         <v>112.429</v>
       </c>
       <c r="AV65" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW65" s="46">
@@ -10714,18 +12157,18 @@
       </c>
       <c r="AX65" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>99.796000000000006</v>
       </c>
       <c r="AY65" s="46">
         <f t="shared" si="59"/>
-        <v>106.3</v>
+        <v>424.91</v>
       </c>
       <c r="AZ65" s="46">
         <f t="shared" si="42"/>
         <v>426.214</v>
       </c>
       <c r="BA65" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>112.429</v>
       </c>
     </row>
@@ -10744,10 +12187,18 @@
       <c r="K66" s="46"/>
       <c r="L66" s="46"/>
       <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
+      <c r="N66" s="46">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="O66" s="46">
+        <v>8.66</v>
+      </c>
+      <c r="P66" s="46">
+        <v>9.2970000000000006</v>
+      </c>
+      <c r="Q66" s="46">
+        <v>9.4169999999999998</v>
+      </c>
       <c r="R66" s="46">
         <v>10.032999999999999</v>
       </c>
@@ -10776,7 +12227,7 @@
         <v>12.221</v>
       </c>
       <c r="AV66" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW66" s="46">
@@ -10785,18 +12236,18 @@
       </c>
       <c r="AX66" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>8.2669999999999995</v>
       </c>
       <c r="AY66" s="46">
         <f t="shared" si="59"/>
-        <v>10.032999999999999</v>
+        <v>37.407000000000004</v>
       </c>
       <c r="AZ66" s="46">
         <f t="shared" si="42"/>
         <v>43.048000000000002</v>
       </c>
       <c r="BA66" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>12.221</v>
       </c>
     </row>
@@ -10815,10 +12266,18 @@
       <c r="K67" s="46"/>
       <c r="L67" s="46"/>
       <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
+      <c r="N67" s="46">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="O67" s="46">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="P67" s="46">
+        <v>1.806</v>
+      </c>
+      <c r="Q67" s="46">
+        <v>1.8779999999999999</v>
+      </c>
       <c r="R67" s="46">
         <v>1.92</v>
       </c>
@@ -10847,7 +12306,7 @@
         <v>2.3690000000000002</v>
       </c>
       <c r="AV67" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW67" s="46">
@@ -10856,18 +12315,18 @@
       </c>
       <c r="AX67" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="AY67" s="46">
         <f t="shared" si="59"/>
-        <v>1.92</v>
+        <v>7.3730000000000002</v>
       </c>
       <c r="AZ67" s="46">
         <f t="shared" si="42"/>
         <v>8.2430000000000003</v>
       </c>
       <c r="BA67" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>2.3690000000000002</v>
       </c>
     </row>
@@ -10886,10 +12345,18 @@
       <c r="K68" s="46"/>
       <c r="L68" s="46"/>
       <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
+      <c r="N68" s="46">
+        <v>137.04499999999999</v>
+      </c>
+      <c r="O68" s="46">
+        <v>182.43799999999999</v>
+      </c>
+      <c r="P68" s="46">
+        <v>183.155</v>
+      </c>
+      <c r="Q68" s="46">
+        <v>180.89699999999999</v>
+      </c>
       <c r="R68" s="46">
         <v>198.95500000000001</v>
       </c>
@@ -10918,7 +12385,7 @@
         <v>187.06800000000001</v>
       </c>
       <c r="AV68" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW68" s="46">
@@ -10927,18 +12394,18 @@
       </c>
       <c r="AX68" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>137.04499999999999</v>
       </c>
       <c r="AY68" s="46">
         <f t="shared" si="59"/>
-        <v>198.95500000000001</v>
+        <v>745.44500000000005</v>
       </c>
       <c r="AZ68" s="46">
         <f t="shared" si="42"/>
         <v>780.83799999999997</v>
       </c>
       <c r="BA68" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>187.06800000000001</v>
       </c>
     </row>
@@ -10957,10 +12424,18 @@
       <c r="K69" s="46"/>
       <c r="L69" s="46"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
+      <c r="N69" s="46">
+        <v>26.523</v>
+      </c>
+      <c r="O69" s="46">
+        <v>26.122</v>
+      </c>
+      <c r="P69" s="46">
+        <v>25.654</v>
+      </c>
+      <c r="Q69" s="46">
+        <v>25.324999999999999</v>
+      </c>
       <c r="R69" s="46">
         <v>24.864999999999998</v>
       </c>
@@ -10989,7 +12464,7 @@
         <v>21.731000000000002</v>
       </c>
       <c r="AV69" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW69" s="46">
@@ -10998,18 +12473,18 @@
       </c>
       <c r="AX69" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>26.523</v>
       </c>
       <c r="AY69" s="46">
         <f t="shared" si="59"/>
-        <v>24.864999999999998</v>
+        <v>101.96599999999999</v>
       </c>
       <c r="AZ69" s="46">
         <f t="shared" si="42"/>
         <v>95.804000000000002</v>
       </c>
       <c r="BA69" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>21.731000000000002</v>
       </c>
     </row>
@@ -11028,10 +12503,18 @@
       <c r="K70" s="46"/>
       <c r="L70" s="46"/>
       <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
+      <c r="N70" s="46">
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="O70" s="46">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="P70" s="46">
+        <v>3.472</v>
+      </c>
+      <c r="Q70" s="46">
+        <v>3.2949999999999999</v>
+      </c>
       <c r="R70" s="46">
         <v>3.2759999999999998</v>
       </c>
@@ -11060,7 +12543,7 @@
         <v>15.103</v>
       </c>
       <c r="AV70" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW70" s="46">
@@ -11069,18 +12552,18 @@
       </c>
       <c r="AX70" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>3.5579999999999998</v>
       </c>
       <c r="AY70" s="46">
         <f t="shared" si="59"/>
-        <v>3.2759999999999998</v>
+        <v>13.654999999999999</v>
       </c>
       <c r="AZ70" s="46">
         <f t="shared" si="42"/>
         <v>15.102</v>
       </c>
       <c r="BA70" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>15.103</v>
       </c>
     </row>
@@ -11099,10 +12582,18 @@
       <c r="K71" s="46"/>
       <c r="L71" s="46"/>
       <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
+      <c r="N71" s="46">
+        <v>953.92700000000002</v>
+      </c>
+      <c r="O71" s="46">
+        <v>959.30200000000002</v>
+      </c>
+      <c r="P71" s="46">
+        <v>970.01499999999999</v>
+      </c>
+      <c r="Q71" s="46">
+        <v>973.75199999999995</v>
+      </c>
       <c r="R71" s="46">
         <v>998.85799999999995</v>
       </c>
@@ -11131,7 +12622,7 @@
         <v>1150.931</v>
       </c>
       <c r="AV71" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AW71" s="46">
@@ -11140,18 +12631,18 @@
       </c>
       <c r="AX71" s="46">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>953.92700000000002</v>
       </c>
       <c r="AY71" s="46">
         <f t="shared" si="59"/>
-        <v>998.85799999999995</v>
+        <v>3901.9269999999997</v>
       </c>
       <c r="AZ71" s="46">
         <f t="shared" si="42"/>
         <v>4374.09</v>
       </c>
       <c r="BA71" s="46">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>1150.931</v>
       </c>
     </row>
@@ -11160,91 +12651,91 @@
         <v>358</v>
       </c>
       <c r="C72" s="46">
-        <f t="shared" ref="C72" si="130">SUM(C64:C71)</f>
+        <f t="shared" ref="C72" si="139">SUM(C64:C71)</f>
         <v>0</v>
       </c>
       <c r="D72" s="46">
-        <f t="shared" ref="D72" si="131">SUM(D64:D71)</f>
+        <f t="shared" ref="D72" si="140">SUM(D64:D71)</f>
         <v>0</v>
       </c>
       <c r="E72" s="46">
-        <f t="shared" ref="E72" si="132">SUM(E64:E71)</f>
+        <f t="shared" ref="E72" si="141">SUM(E64:E71)</f>
         <v>0</v>
       </c>
       <c r="F72" s="46">
-        <f t="shared" ref="F72" si="133">SUM(F64:F71)</f>
+        <f t="shared" ref="F72" si="142">SUM(F64:F71)</f>
         <v>0</v>
       </c>
       <c r="G72" s="46">
-        <f t="shared" ref="G72:X72" si="134">SUM(G64:G71)</f>
+        <f t="shared" ref="G72:X72" si="143">SUM(G64:G71)</f>
         <v>0</v>
       </c>
       <c r="H72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="I72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="J72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="M72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="N72" s="46">
-        <f t="shared" si="134"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>1244.25</v>
       </c>
       <c r="O72" s="46">
-        <f t="shared" si="134"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>1301.5730000000001</v>
       </c>
       <c r="P72" s="46">
-        <f t="shared" si="134"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>1327.9</v>
       </c>
       <c r="Q72" s="46">
-        <f t="shared" si="134"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>1321.6009999999999</v>
       </c>
       <c r="R72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1370.886</v>
       </c>
       <c r="S72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1395.298</v>
       </c>
       <c r="T72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1432.5319999999999</v>
       </c>
       <c r="U72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1468.377</v>
       </c>
       <c r="V72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1556.3010000000002</v>
       </c>
       <c r="W72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1579.8454999999999</v>
       </c>
       <c r="X72" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1534.5610000000001</v>
       </c>
       <c r="Y72" s="46">
@@ -11256,27 +12747,27 @@
         <v>1533.1780000000001</v>
       </c>
       <c r="AV72" s="46">
-        <f>SUM(AV60:AV71)</f>
+        <f t="shared" ref="AV72:BA72" si="144">SUM(AV60:AV71)</f>
         <v>0</v>
       </c>
       <c r="AW72" s="46">
-        <f>SUM(AW60:AW71)</f>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="AX72" s="46">
-        <f>SUM(AX60:AX71)</f>
-        <v>0</v>
+        <f t="shared" si="144"/>
+        <v>2567.183</v>
       </c>
       <c r="AY72" s="46">
-        <f>SUM(AY60:AY71)</f>
-        <v>3512.5150000000003</v>
+        <f t="shared" si="144"/>
+        <v>10963.383999999998</v>
       </c>
       <c r="AZ72" s="46">
-        <f>SUM(AZ60:AZ71)</f>
+        <f t="shared" si="144"/>
         <v>7519.8510000000006</v>
       </c>
       <c r="BA72" s="46">
-        <f>SUM(BA60:BA71)</f>
+        <f t="shared" si="144"/>
         <v>3207.6249999999995</v>
       </c>
     </row>
@@ -11288,615 +12779,636 @@
       <c r="BA73" s="46"/>
     </row>
     <row r="74" spans="2:53">
-      <c r="B74" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C74" s="46">
-        <v>-5.92</v>
-      </c>
-      <c r="D74" s="46">
-        <f>-27.609-C74</f>
-        <v>-21.689</v>
-      </c>
-      <c r="E74" s="46">
-        <f>-31.159-SUM(C74:D74)</f>
-        <v>-3.5499999999999972</v>
-      </c>
-      <c r="F74" s="46">
-        <f>-33.242-SUM(C74:E74)</f>
-        <v>-2.0829999999999984</v>
-      </c>
-      <c r="G74" s="46">
-        <v>-5.92</v>
-      </c>
-      <c r="H74" s="46">
-        <f>-27.609-G74</f>
-        <v>-21.689</v>
-      </c>
-      <c r="I74" s="46">
-        <f>-31.159-SUM(G74:H74)</f>
-        <v>-3.5499999999999972</v>
-      </c>
-      <c r="J74" s="46">
-        <f>-33.242-SUM(G74:I74)</f>
-        <v>-2.0829999999999984</v>
-      </c>
-      <c r="K74" s="46">
-        <v>-14.368</v>
-      </c>
-      <c r="L74" s="46">
-        <f>-17.678-K74</f>
-        <v>-3.3100000000000005</v>
-      </c>
-      <c r="M74" s="46">
-        <f>18.772-SUM(K74:L74)</f>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="N74" s="46">
-        <f>9.502-SUM(K74:M74)</f>
-        <v>-9.2700000000000014</v>
-      </c>
-      <c r="O74" s="46">
-        <v>-4.5140000000000002</v>
-      </c>
-      <c r="P74" s="46">
-        <f>-44.089-O74</f>
-        <v>-39.574999999999996</v>
-      </c>
-      <c r="Q74" s="46">
-        <f>-56.998-SUM(O74:P74)</f>
-        <v>-12.908999999999999</v>
-      </c>
-      <c r="R74" s="46">
-        <f>-55.661-SUM(O74:Q74)</f>
-        <v>1.3369999999999962</v>
-      </c>
-      <c r="S74" s="46">
-        <v>13.129</v>
-      </c>
-      <c r="T74" s="46">
-        <f>30.228-S74</f>
-        <v>17.099000000000004</v>
-      </c>
-      <c r="U74" s="46">
-        <f>61.072-SUM(S74:T74)</f>
-        <v>30.844000000000001</v>
-      </c>
-      <c r="V74" s="46">
-        <f>97.333-SUM(S74:U74)</f>
-        <v>36.260999999999996</v>
-      </c>
-      <c r="W74" s="46">
-        <v>38.295000000000002</v>
-      </c>
-      <c r="X74" s="46">
-        <f>60.906-W74</f>
-        <v>22.610999999999997</v>
-      </c>
-      <c r="Y74" s="46">
-        <f>117.373-SUM(W74:X74)</f>
-        <v>56.467000000000006</v>
-      </c>
-      <c r="Z74" s="46">
-        <f>168.481-SUM(W74:Y74)</f>
-        <v>51.10799999999999</v>
-      </c>
-      <c r="AV74" s="49">
-        <f t="shared" ref="AV74:AV78" si="135">SUM(C74:F74)</f>
-        <v>-33.241999999999997</v>
-      </c>
-      <c r="AW74" s="46">
-        <f t="shared" ref="AV74:AW76" si="136">SUM(G74:J74)</f>
-        <v>-33.241999999999997</v>
-      </c>
-      <c r="AX74" s="46">
-        <f t="shared" ref="AX74:AX76" si="137">SUM(K74:N74)</f>
-        <v>9.5020000000000007</v>
-      </c>
-      <c r="AY74" s="46">
-        <f t="shared" ref="AY74:AY76" si="138">SUM(O74:R74)</f>
-        <v>-55.661000000000001</v>
-      </c>
-      <c r="AZ74" s="46">
-        <f t="shared" ref="AZ74:AZ78" si="139">SUM(S74:V74)</f>
-        <v>97.332999999999998</v>
-      </c>
-      <c r="BA74" s="46">
-        <f t="shared" ref="BA74:BA78" si="140">SUM(W74:Z74)</f>
-        <v>168.48099999999999</v>
-      </c>
+      <c r="AW74" s="46"/>
+      <c r="AX74" s="46"/>
+      <c r="AY74" s="46"/>
+      <c r="AZ74" s="46"/>
+      <c r="BA74" s="46"/>
     </row>
     <row r="75" spans="2:53">
-      <c r="B75" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C75" s="46">
-        <v>-10.131</v>
-      </c>
-      <c r="D75" s="46">
-        <f>-16.85-C75</f>
-        <v>-6.7190000000000012</v>
-      </c>
-      <c r="E75" s="46">
-        <f>-21.003-SUM(C75:D75)</f>
-        <v>-4.1529999999999987</v>
-      </c>
-      <c r="F75" s="46">
-        <f>-24.756-SUM(C75:E75)</f>
-        <v>-3.7530000000000001</v>
-      </c>
-      <c r="G75" s="46">
-        <v>-10.131</v>
-      </c>
-      <c r="H75" s="46">
-        <f>-16.85-G75</f>
-        <v>-6.7190000000000012</v>
-      </c>
-      <c r="I75" s="46">
-        <f>-21.003-SUM(G75:H75)</f>
-        <v>-4.1529999999999987</v>
-      </c>
-      <c r="J75" s="46">
-        <f>-24.756-SUM(G75:I75)</f>
-        <v>-3.7530000000000001</v>
-      </c>
-      <c r="K75" s="46">
-        <v>-3.9910000000000001</v>
-      </c>
-      <c r="L75" s="46">
-        <f>-7.286-K75</f>
-        <v>-3.2949999999999995</v>
-      </c>
-      <c r="M75" s="46">
-        <f>-13.088-SUM(K75:L75)</f>
-        <v>-5.8019999999999996</v>
-      </c>
-      <c r="N75" s="46">
-        <f>-21.18-SUM(K75:M75)</f>
-        <v>-8.0920000000000005</v>
-      </c>
-      <c r="O75" s="46">
-        <v>-4.9569999999999999</v>
-      </c>
-      <c r="P75" s="46">
-        <f>-9.388-O75</f>
-        <v>-4.431</v>
-      </c>
-      <c r="Q75" s="46">
-        <f>-15.736-SUM(O75:P75)</f>
-        <v>-6.3480000000000008</v>
-      </c>
-      <c r="R75" s="46">
-        <f>-19.298-SUM(O75:Q75)</f>
-        <v>-3.5619999999999976</v>
-      </c>
-      <c r="S75" s="46">
-        <v>-3.8940000000000001</v>
-      </c>
-      <c r="T75" s="46">
-        <f>-8.236-S75</f>
-        <v>-4.3420000000000005</v>
-      </c>
-      <c r="U75" s="46">
-        <f>-12.568-SUM(S75:T75)</f>
-        <v>-4.331999999999999</v>
-      </c>
-      <c r="V75" s="46">
-        <f>-16.213-SUM(S75:U75)</f>
-        <v>-3.6450000000000014</v>
-      </c>
-      <c r="W75" s="46">
-        <v>-5.8239999999999998</v>
-      </c>
-      <c r="X75" s="46">
-        <f>-10.36-W75</f>
-        <v>-4.5359999999999996</v>
-      </c>
-      <c r="Y75" s="46">
-        <f>-15.811-SUM(W75:X75)</f>
-        <v>-5.4510000000000005</v>
-      </c>
-      <c r="Z75" s="46">
-        <f>-21.182-SUM(W75:Y75)</f>
-        <v>-5.3709999999999987</v>
-      </c>
-      <c r="AV75" s="49">
-        <f t="shared" si="135"/>
-        <v>-24.756</v>
-      </c>
-      <c r="AW75" s="46">
-        <f t="shared" si="136"/>
-        <v>-24.756</v>
-      </c>
-      <c r="AX75" s="46">
-        <f t="shared" si="137"/>
-        <v>-21.18</v>
-      </c>
-      <c r="AY75" s="46">
-        <f t="shared" si="138"/>
-        <v>-19.297999999999998</v>
-      </c>
-      <c r="AZ75" s="46">
-        <f t="shared" si="139"/>
-        <v>-16.213000000000001</v>
-      </c>
-      <c r="BA75" s="46">
-        <f t="shared" si="140"/>
-        <v>-21.181999999999999</v>
-      </c>
+      <c r="AW75" s="46"/>
+      <c r="AX75" s="46"/>
+      <c r="AY75" s="46"/>
+      <c r="AZ75" s="46"/>
+      <c r="BA75" s="46"/>
     </row>
     <row r="76" spans="2:53">
-      <c r="B76" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C76" s="46">
-        <f t="shared" ref="C76" si="141">C74+C75</f>
-        <v>-16.051000000000002</v>
-      </c>
-      <c r="D76" s="46">
-        <f t="shared" ref="D76" si="142">D74+D75</f>
-        <v>-28.408000000000001</v>
-      </c>
-      <c r="E76" s="46">
-        <f t="shared" ref="E76" si="143">E74+E75</f>
-        <v>-7.7029999999999959</v>
-      </c>
-      <c r="F76" s="46">
-        <f t="shared" ref="F76" si="144">F74+F75</f>
-        <v>-5.8359999999999985</v>
-      </c>
-      <c r="G76" s="46">
-        <f t="shared" ref="G76:Y76" si="145">G74+G75</f>
-        <v>-16.051000000000002</v>
-      </c>
-      <c r="H76" s="46">
-        <f t="shared" si="145"/>
-        <v>-28.408000000000001</v>
-      </c>
-      <c r="I76" s="46">
-        <f t="shared" si="145"/>
-        <v>-7.7029999999999959</v>
-      </c>
-      <c r="J76" s="46">
-        <f t="shared" si="145"/>
-        <v>-5.8359999999999985</v>
-      </c>
-      <c r="K76" s="46">
-        <f t="shared" si="145"/>
-        <v>-18.359000000000002</v>
-      </c>
-      <c r="L76" s="46">
-        <f t="shared" si="145"/>
-        <v>-6.6050000000000004</v>
-      </c>
-      <c r="M76" s="46">
-        <f t="shared" si="145"/>
-        <v>30.648000000000003</v>
-      </c>
-      <c r="N76" s="46">
-        <f t="shared" si="145"/>
-        <v>-17.362000000000002</v>
-      </c>
-      <c r="O76" s="46">
-        <f t="shared" si="145"/>
-        <v>-9.4710000000000001</v>
-      </c>
-      <c r="P76" s="46">
-        <f t="shared" si="145"/>
-        <v>-44.005999999999993</v>
-      </c>
-      <c r="Q76" s="46">
-        <f t="shared" si="145"/>
-        <v>-19.256999999999998</v>
-      </c>
-      <c r="R76" s="46">
-        <f t="shared" si="145"/>
-        <v>-2.2250000000000014</v>
-      </c>
-      <c r="S76" s="46">
-        <f t="shared" si="145"/>
-        <v>9.2349999999999994</v>
-      </c>
-      <c r="T76" s="46">
-        <f t="shared" si="145"/>
-        <v>12.757000000000003</v>
-      </c>
-      <c r="U76" s="46">
-        <f t="shared" si="145"/>
-        <v>26.512</v>
-      </c>
-      <c r="V76" s="46">
-        <f t="shared" si="145"/>
-        <v>32.615999999999993</v>
-      </c>
-      <c r="W76" s="46">
-        <f t="shared" si="145"/>
-        <v>32.471000000000004</v>
-      </c>
-      <c r="X76" s="46">
-        <f t="shared" si="145"/>
-        <v>18.074999999999996</v>
-      </c>
-      <c r="Y76" s="46">
-        <f t="shared" si="145"/>
-        <v>51.016000000000005</v>
-      </c>
-      <c r="Z76" s="46">
-        <f>Z74+Z75</f>
-        <v>45.736999999999995</v>
-      </c>
-      <c r="AV76" s="49">
-        <f t="shared" si="135"/>
-        <v>-57.997999999999998</v>
-      </c>
-      <c r="AW76" s="46">
-        <f t="shared" si="136"/>
-        <v>-57.997999999999998</v>
-      </c>
-      <c r="AX76" s="46">
-        <f t="shared" si="137"/>
-        <v>-11.678000000000001</v>
-      </c>
-      <c r="AY76" s="46">
-        <f t="shared" si="138"/>
-        <v>-74.958999999999975</v>
-      </c>
-      <c r="AZ76" s="46">
-        <f t="shared" si="139"/>
-        <v>81.12</v>
-      </c>
-      <c r="BA76" s="46">
-        <f t="shared" si="140"/>
-        <v>147.29900000000001</v>
-      </c>
+      <c r="AW76" s="46"/>
+      <c r="AX76" s="46"/>
+      <c r="AY76" s="46"/>
+      <c r="AZ76" s="46"/>
+      <c r="BA76" s="46"/>
     </row>
     <row r="77" spans="2:53">
       <c r="B77" s="2" t="s">
-        <v>335</v>
+        <v>642</v>
       </c>
       <c r="C77" s="46">
-        <f t="shared" ref="C77:F77" si="146">C40</f>
-        <v>34.506999999999998</v>
+        <v>-5.92</v>
       </c>
       <c r="D77" s="46">
-        <f t="shared" si="146"/>
-        <v>35</v>
+        <f>-27.609-C77</f>
+        <v>-21.689</v>
       </c>
       <c r="E77" s="46">
-        <f t="shared" si="146"/>
-        <v>35</v>
+        <f>-31.159-SUM(C77:D77)</f>
+        <v>-3.5499999999999972</v>
       </c>
       <c r="F77" s="46">
-        <f t="shared" si="146"/>
-        <v>35</v>
+        <f>-33.242-SUM(C77:E77)</f>
+        <v>-2.0829999999999984</v>
       </c>
       <c r="G77" s="46">
-        <f t="shared" ref="G77:Y77" si="147">G40</f>
-        <v>35</v>
+        <v>-5.92</v>
       </c>
       <c r="H77" s="46">
-        <f t="shared" si="147"/>
-        <v>35.4</v>
+        <f>-27.609-G77</f>
+        <v>-21.689</v>
       </c>
       <c r="I77" s="46">
-        <f t="shared" si="147"/>
-        <v>36.207000000000001</v>
+        <f>-31.159-SUM(G77:H77)</f>
+        <v>-3.5499999999999972</v>
       </c>
       <c r="J77" s="46">
-        <f t="shared" si="147"/>
-        <v>37.651000000000003</v>
+        <f>-33.242-SUM(G77:I77)</f>
+        <v>-2.0829999999999984</v>
       </c>
       <c r="K77" s="46">
-        <f t="shared" si="147"/>
-        <v>36.454999999999998</v>
+        <v>-14.368</v>
       </c>
       <c r="L77" s="46">
-        <f t="shared" si="147"/>
-        <v>36.523000000000003</v>
+        <f>-17.678-K77</f>
+        <v>-3.3100000000000005</v>
       </c>
       <c r="M77" s="46">
-        <f t="shared" si="147"/>
-        <v>36.616999999999997</v>
+        <f>18.772-SUM(K77:L77)</f>
+        <v>36.450000000000003</v>
       </c>
       <c r="N77" s="46">
-        <f t="shared" si="147"/>
-        <v>36.700000000000003</v>
+        <f>9.502-SUM(K77:M77)</f>
+        <v>-9.2700000000000014</v>
       </c>
       <c r="O77" s="46">
-        <f t="shared" si="147"/>
-        <v>37.646000000000001</v>
+        <v>-4.5140000000000002</v>
       </c>
       <c r="P77" s="46">
-        <f t="shared" si="147"/>
-        <v>37.767000000000003</v>
+        <f>-44.089-O77</f>
+        <v>-39.574999999999996</v>
       </c>
       <c r="Q77" s="46">
-        <f t="shared" si="147"/>
-        <v>37.917999999999999</v>
+        <f>-56.998-SUM(O77:P77)</f>
+        <v>-12.908999999999999</v>
       </c>
       <c r="R77" s="46">
-        <f t="shared" si="147"/>
-        <v>37.841000000000001</v>
+        <f>-55.661-SUM(O77:Q77)</f>
+        <v>1.3369999999999962</v>
       </c>
       <c r="S77" s="46">
-        <f t="shared" si="147"/>
-        <v>39.07</v>
+        <v>13.129</v>
       </c>
       <c r="T77" s="46">
-        <f t="shared" si="147"/>
-        <v>38.15</v>
+        <f>30.228-S77</f>
+        <v>17.099000000000004</v>
       </c>
       <c r="U77" s="46">
-        <f>U40</f>
-        <v>38.956000000000003</v>
+        <f>61.072-SUM(S77:T77)</f>
+        <v>30.844000000000001</v>
       </c>
       <c r="V77" s="46">
-        <f t="shared" si="147"/>
-        <v>38.4</v>
+        <f>97.333-SUM(S77:U77)</f>
+        <v>36.260999999999996</v>
       </c>
       <c r="W77" s="46">
-        <f t="shared" si="147"/>
-        <v>39.299999999999997</v>
+        <v>38.295000000000002</v>
       </c>
       <c r="X77" s="46">
-        <f t="shared" si="147"/>
-        <v>38.799999999999997</v>
+        <f>60.906-W77</f>
+        <v>22.610999999999997</v>
       </c>
       <c r="Y77" s="46">
-        <f t="shared" si="147"/>
-        <v>38.6</v>
+        <f>117.373-SUM(W77:X77)</f>
+        <v>56.467000000000006</v>
       </c>
       <c r="Z77" s="46">
-        <f>Z40</f>
-        <v>38.630000000000003</v>
+        <f>168.481-SUM(W77:Y77)</f>
+        <v>51.10799999999999</v>
       </c>
       <c r="AV77" s="49">
-        <f t="shared" si="135"/>
-        <v>139.50700000000001</v>
+        <f t="shared" ref="AV77:AV81" si="145">SUM(C77:F77)</f>
+        <v>-33.241999999999997</v>
       </c>
       <c r="AW77" s="46">
-        <f>J77</f>
-        <v>37.651000000000003</v>
+        <f t="shared" ref="AW77:AW79" si="146">SUM(G77:J77)</f>
+        <v>-33.241999999999997</v>
       </c>
       <c r="AX77" s="46">
-        <f>N77</f>
-        <v>36.700000000000003</v>
+        <f t="shared" ref="AX77:AX79" si="147">SUM(K77:N77)</f>
+        <v>9.5020000000000007</v>
       </c>
       <c r="AY77" s="46">
-        <f>R77</f>
-        <v>37.841000000000001</v>
+        <f t="shared" ref="AY77:AY79" si="148">SUM(O77:R77)</f>
+        <v>-55.661000000000001</v>
       </c>
       <c r="AZ77" s="46">
-        <f>V77</f>
-        <v>38.4</v>
+        <f t="shared" ref="AZ77:AZ81" si="149">SUM(S77:V77)</f>
+        <v>97.332999999999998</v>
       </c>
       <c r="BA77" s="46">
-        <f>Z77</f>
-        <v>38.630000000000003</v>
+        <f t="shared" ref="BA77:BA81" si="150">SUM(W77:Z77)</f>
+        <v>168.48099999999999</v>
       </c>
     </row>
     <row r="78" spans="2:53">
       <c r="B78" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C78" s="49">
-        <f t="shared" ref="C78:F78" si="148">C76/C77</f>
+        <v>643</v>
+      </c>
+      <c r="C78" s="46">
+        <v>-10.131</v>
+      </c>
+      <c r="D78" s="46">
+        <f>-16.85-C78</f>
+        <v>-6.7190000000000012</v>
+      </c>
+      <c r="E78" s="46">
+        <f>-21.003-SUM(C78:D78)</f>
+        <v>-4.1529999999999987</v>
+      </c>
+      <c r="F78" s="46">
+        <f>-24.756-SUM(C78:E78)</f>
+        <v>-3.7530000000000001</v>
+      </c>
+      <c r="G78" s="46">
+        <v>-10.131</v>
+      </c>
+      <c r="H78" s="46">
+        <f>-16.85-G78</f>
+        <v>-6.7190000000000012</v>
+      </c>
+      <c r="I78" s="46">
+        <f>-21.003-SUM(G78:H78)</f>
+        <v>-4.1529999999999987</v>
+      </c>
+      <c r="J78" s="46">
+        <f>-24.756-SUM(G78:I78)</f>
+        <v>-3.7530000000000001</v>
+      </c>
+      <c r="K78" s="46">
+        <v>-3.9910000000000001</v>
+      </c>
+      <c r="L78" s="46">
+        <f>-7.286-K78</f>
+        <v>-3.2949999999999995</v>
+      </c>
+      <c r="M78" s="46">
+        <f>-13.088-SUM(K78:L78)</f>
+        <v>-5.8019999999999996</v>
+      </c>
+      <c r="N78" s="46">
+        <f>-21.18-SUM(K78:M78)</f>
+        <v>-8.0920000000000005</v>
+      </c>
+      <c r="O78" s="46">
+        <v>-4.9569999999999999</v>
+      </c>
+      <c r="P78" s="46">
+        <f>-9.388-O78</f>
+        <v>-4.431</v>
+      </c>
+      <c r="Q78" s="46">
+        <f>-15.736-SUM(O78:P78)</f>
+        <v>-6.3480000000000008</v>
+      </c>
+      <c r="R78" s="46">
+        <f>-19.298-SUM(O78:Q78)</f>
+        <v>-3.5619999999999976</v>
+      </c>
+      <c r="S78" s="46">
+        <v>-3.8940000000000001</v>
+      </c>
+      <c r="T78" s="46">
+        <f>-8.236-S78</f>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="U78" s="46">
+        <f>-12.568-SUM(S78:T78)</f>
+        <v>-4.331999999999999</v>
+      </c>
+      <c r="V78" s="46">
+        <f>-16.213-SUM(S78:U78)</f>
+        <v>-3.6450000000000014</v>
+      </c>
+      <c r="W78" s="46">
+        <v>-5.8239999999999998</v>
+      </c>
+      <c r="X78" s="46">
+        <f>-10.36-W78</f>
+        <v>-4.5359999999999996</v>
+      </c>
+      <c r="Y78" s="46">
+        <f>-15.811-SUM(W78:X78)</f>
+        <v>-5.4510000000000005</v>
+      </c>
+      <c r="Z78" s="46">
+        <f>-21.182-SUM(W78:Y78)</f>
+        <v>-5.3709999999999987</v>
+      </c>
+      <c r="AV78" s="49">
+        <f t="shared" si="145"/>
+        <v>-24.756</v>
+      </c>
+      <c r="AW78" s="46">
+        <f t="shared" si="146"/>
+        <v>-24.756</v>
+      </c>
+      <c r="AX78" s="46">
+        <f t="shared" si="147"/>
+        <v>-21.18</v>
+      </c>
+      <c r="AY78" s="46">
+        <f t="shared" si="148"/>
+        <v>-19.297999999999998</v>
+      </c>
+      <c r="AZ78" s="46">
+        <f t="shared" si="149"/>
+        <v>-16.213000000000001</v>
+      </c>
+      <c r="BA78" s="46">
+        <f t="shared" si="150"/>
+        <v>-21.181999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:53">
+      <c r="B79" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C79" s="46">
+        <f t="shared" ref="C79" si="151">C77+C78</f>
+        <v>-16.051000000000002</v>
+      </c>
+      <c r="D79" s="46">
+        <f t="shared" ref="D79" si="152">D77+D78</f>
+        <v>-28.408000000000001</v>
+      </c>
+      <c r="E79" s="46">
+        <f t="shared" ref="E79" si="153">E77+E78</f>
+        <v>-7.7029999999999959</v>
+      </c>
+      <c r="F79" s="46">
+        <f t="shared" ref="F79" si="154">F77+F78</f>
+        <v>-5.8359999999999985</v>
+      </c>
+      <c r="G79" s="46">
+        <f t="shared" ref="G79:Y79" si="155">G77+G78</f>
+        <v>-16.051000000000002</v>
+      </c>
+      <c r="H79" s="46">
+        <f t="shared" si="155"/>
+        <v>-28.408000000000001</v>
+      </c>
+      <c r="I79" s="46">
+        <f t="shared" si="155"/>
+        <v>-7.7029999999999959</v>
+      </c>
+      <c r="J79" s="46">
+        <f t="shared" si="155"/>
+        <v>-5.8359999999999985</v>
+      </c>
+      <c r="K79" s="46">
+        <f t="shared" si="155"/>
+        <v>-18.359000000000002</v>
+      </c>
+      <c r="L79" s="46">
+        <f t="shared" si="155"/>
+        <v>-6.6050000000000004</v>
+      </c>
+      <c r="M79" s="46">
+        <f t="shared" si="155"/>
+        <v>30.648000000000003</v>
+      </c>
+      <c r="N79" s="46">
+        <f t="shared" si="155"/>
+        <v>-17.362000000000002</v>
+      </c>
+      <c r="O79" s="46">
+        <f t="shared" si="155"/>
+        <v>-9.4710000000000001</v>
+      </c>
+      <c r="P79" s="46">
+        <f t="shared" si="155"/>
+        <v>-44.005999999999993</v>
+      </c>
+      <c r="Q79" s="46">
+        <f t="shared" si="155"/>
+        <v>-19.256999999999998</v>
+      </c>
+      <c r="R79" s="46">
+        <f t="shared" si="155"/>
+        <v>-2.2250000000000014</v>
+      </c>
+      <c r="S79" s="46">
+        <f t="shared" si="155"/>
+        <v>9.2349999999999994</v>
+      </c>
+      <c r="T79" s="46">
+        <f t="shared" si="155"/>
+        <v>12.757000000000003</v>
+      </c>
+      <c r="U79" s="46">
+        <f t="shared" si="155"/>
+        <v>26.512</v>
+      </c>
+      <c r="V79" s="46">
+        <f t="shared" si="155"/>
+        <v>32.615999999999993</v>
+      </c>
+      <c r="W79" s="46">
+        <f t="shared" si="155"/>
+        <v>32.471000000000004</v>
+      </c>
+      <c r="X79" s="46">
+        <f t="shared" si="155"/>
+        <v>18.074999999999996</v>
+      </c>
+      <c r="Y79" s="46">
+        <f t="shared" si="155"/>
+        <v>51.016000000000005</v>
+      </c>
+      <c r="Z79" s="46">
+        <f>Z77+Z78</f>
+        <v>45.736999999999995</v>
+      </c>
+      <c r="AV79" s="49">
+        <f t="shared" si="145"/>
+        <v>-57.997999999999998</v>
+      </c>
+      <c r="AW79" s="46">
+        <f t="shared" si="146"/>
+        <v>-57.997999999999998</v>
+      </c>
+      <c r="AX79" s="46">
+        <f t="shared" si="147"/>
+        <v>-11.678000000000001</v>
+      </c>
+      <c r="AY79" s="46">
+        <f t="shared" si="148"/>
+        <v>-74.958999999999975</v>
+      </c>
+      <c r="AZ79" s="46">
+        <f t="shared" si="149"/>
+        <v>81.12</v>
+      </c>
+      <c r="BA79" s="46">
+        <f t="shared" si="150"/>
+        <v>147.29900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:53">
+      <c r="B80" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="46">
+        <f t="shared" ref="C80:Z80" si="156">C40</f>
+        <v>34.506999999999998</v>
+      </c>
+      <c r="D80" s="46">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="E80" s="46">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="F80" s="46">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="G80" s="46">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="H80" s="46">
+        <f t="shared" si="156"/>
+        <v>35.4</v>
+      </c>
+      <c r="I80" s="46">
+        <f t="shared" si="156"/>
+        <v>36.207000000000001</v>
+      </c>
+      <c r="J80" s="46">
+        <f t="shared" si="156"/>
+        <v>37.651000000000003</v>
+      </c>
+      <c r="K80" s="46">
+        <f t="shared" si="156"/>
+        <v>36.454999999999998</v>
+      </c>
+      <c r="L80" s="46">
+        <f t="shared" si="156"/>
+        <v>36.523000000000003</v>
+      </c>
+      <c r="M80" s="46">
+        <f t="shared" si="156"/>
+        <v>36.616999999999997</v>
+      </c>
+      <c r="N80" s="46">
+        <f t="shared" si="156"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O80" s="46">
+        <f t="shared" si="156"/>
+        <v>37.646000000000001</v>
+      </c>
+      <c r="P80" s="46">
+        <f t="shared" si="156"/>
+        <v>37.767000000000003</v>
+      </c>
+      <c r="Q80" s="46">
+        <f t="shared" si="156"/>
+        <v>37.917999999999999</v>
+      </c>
+      <c r="R80" s="46">
+        <f t="shared" si="156"/>
+        <v>37.841000000000001</v>
+      </c>
+      <c r="S80" s="46">
+        <f t="shared" si="156"/>
+        <v>39.07</v>
+      </c>
+      <c r="T80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.15</v>
+      </c>
+      <c r="U80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.956000000000003</v>
+      </c>
+      <c r="V80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.4</v>
+      </c>
+      <c r="W80" s="46">
+        <f t="shared" si="156"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="X80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Y80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.6</v>
+      </c>
+      <c r="Z80" s="46">
+        <f t="shared" si="156"/>
+        <v>38.630000000000003</v>
+      </c>
+      <c r="AV80" s="49">
+        <f t="shared" si="145"/>
+        <v>139.50700000000001</v>
+      </c>
+      <c r="AW80" s="46">
+        <f>J80</f>
+        <v>37.651000000000003</v>
+      </c>
+      <c r="AX80" s="46">
+        <f>N80</f>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AY80" s="46">
+        <f>R80</f>
+        <v>37.841000000000001</v>
+      </c>
+      <c r="AZ80" s="46">
+        <f>V80</f>
+        <v>38.4</v>
+      </c>
+      <c r="BA80" s="46">
+        <f>Z80</f>
+        <v>38.630000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:53">
+      <c r="B81" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C81" s="49">
+        <f t="shared" ref="C81:F81" si="157">C79/C80</f>
         <v>-0.46515199814530395</v>
       </c>
-      <c r="D78" s="49">
-        <f t="shared" si="148"/>
+      <c r="D81" s="49">
+        <f t="shared" si="157"/>
         <v>-0.81165714285714285</v>
       </c>
-      <c r="E78" s="49">
-        <f t="shared" si="148"/>
+      <c r="E81" s="49">
+        <f t="shared" si="157"/>
         <v>-0.22008571428571416</v>
       </c>
-      <c r="F78" s="49">
-        <f t="shared" si="148"/>
+      <c r="F81" s="49">
+        <f t="shared" si="157"/>
         <v>-0.16674285714285711</v>
       </c>
-      <c r="G78" s="49">
-        <f t="shared" ref="G78:Y78" si="149">G76/G77</f>
+      <c r="G81" s="49">
+        <f t="shared" ref="G81:Y81" si="158">G79/G80</f>
         <v>-0.45860000000000006</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.80248587570621477</v>
+      </c>
+      <c r="I81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.2127489159554781</v>
+      </c>
+      <c r="J81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.15500252317335525</v>
+      </c>
+      <c r="K81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.50360718694280626</v>
+      </c>
+      <c r="L81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.18084494701968623</v>
+      </c>
+      <c r="M81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.83698828413032211</v>
+      </c>
+      <c r="N81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.47307901907356947</v>
+      </c>
+      <c r="O81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.25158051320193381</v>
+      </c>
+      <c r="P81" s="49">
+        <f t="shared" si="158"/>
+        <v>-1.1651971297693751</v>
+      </c>
+      <c r="Q81" s="49">
+        <f t="shared" si="158"/>
+        <v>-0.50785906429664007</v>
+      </c>
+      <c r="R81" s="49">
+        <f t="shared" si="158"/>
+        <v>-5.8798657540762703E-2</v>
+      </c>
+      <c r="S81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.23637061684156641</v>
+      </c>
+      <c r="T81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.33439056356487556</v>
+      </c>
+      <c r="U81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.68056268610740323</v>
+      </c>
+      <c r="V81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.84937499999999988</v>
+      </c>
+      <c r="W81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.82623409669211212</v>
+      </c>
+      <c r="X81" s="49">
+        <f t="shared" si="158"/>
+        <v>0.46585051546391743</v>
+      </c>
+      <c r="Y81" s="49">
+        <f t="shared" si="158"/>
+        <v>1.321658031088083</v>
+      </c>
+      <c r="Z81" s="49">
+        <f>Z79/Z80</f>
+        <v>1.1839761843127101</v>
+      </c>
+      <c r="AV81" s="49">
+        <f t="shared" si="145"/>
+        <v>-1.663637712431018</v>
+      </c>
+      <c r="AW81" s="49">
+        <f>SUM(G81:J81)</f>
+        <v>-1.6288373148350481</v>
+      </c>
+      <c r="AX81" s="49">
+        <f>SUM(K81:N81)</f>
+        <v>-0.32054286890573985</v>
+      </c>
+      <c r="AY81" s="49">
+        <f>SUM(O81:R81)</f>
+        <v>-1.9834353648087115</v>
+      </c>
+      <c r="AZ81" s="49">
         <f t="shared" si="149"/>
-        <v>-0.80248587570621477</v>
-      </c>
-      <c r="I78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.2127489159554781</v>
-      </c>
-      <c r="J78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.15500252317335525</v>
-      </c>
-      <c r="K78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.50360718694280626</v>
-      </c>
-      <c r="L78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.18084494701968623</v>
-      </c>
-      <c r="M78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.83698828413032211</v>
-      </c>
-      <c r="N78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.47307901907356947</v>
-      </c>
-      <c r="O78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.25158051320193381</v>
-      </c>
-      <c r="P78" s="49">
-        <f t="shared" si="149"/>
-        <v>-1.1651971297693751</v>
-      </c>
-      <c r="Q78" s="49">
-        <f t="shared" si="149"/>
-        <v>-0.50785906429664007</v>
-      </c>
-      <c r="R78" s="49">
-        <f t="shared" si="149"/>
-        <v>-5.8798657540762703E-2</v>
-      </c>
-      <c r="S78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.23637061684156641</v>
-      </c>
-      <c r="T78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.33439056356487556</v>
-      </c>
-      <c r="U78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.68056268610740323</v>
-      </c>
-      <c r="V78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.84937499999999988</v>
-      </c>
-      <c r="W78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.82623409669211212</v>
-      </c>
-      <c r="X78" s="49">
-        <f t="shared" si="149"/>
-        <v>0.46585051546391743</v>
-      </c>
-      <c r="Y78" s="49">
-        <f t="shared" si="149"/>
-        <v>1.321658031088083</v>
-      </c>
-      <c r="Z78" s="49">
-        <f>Z76/Z77</f>
-        <v>1.1839761843127101</v>
-      </c>
-      <c r="AV78" s="49">
-        <f t="shared" si="135"/>
-        <v>-1.663637712431018</v>
-      </c>
-      <c r="AW78" s="49">
-        <f>SUM(G78:J78)</f>
-        <v>-1.6288373148350481</v>
-      </c>
-      <c r="AX78" s="49">
-        <f>SUM(K78:N78)</f>
-        <v>-0.32054286890573985</v>
-      </c>
-      <c r="AY78" s="49">
-        <f>SUM(O78:R78)</f>
-        <v>-1.9834353648087115</v>
-      </c>
-      <c r="AZ78" s="49">
-        <f t="shared" si="139"/>
         <v>2.1006988665138451</v>
       </c>
-      <c r="BA78" s="49">
-        <f t="shared" si="140"/>
+      <c r="BA81" s="49">
+        <f t="shared" si="150"/>
         <v>3.7977188275568228</v>
       </c>
     </row>
@@ -11916,8 +13428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1327F89-7369-4878-B50B-80E6AE0FDF66}">
   <dimension ref="B1:CK257"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
@@ -11930,7 +13442,7 @@
     <col min="40" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:89">
+    <row r="1" spans="16:89">
       <c r="BQ1" s="2">
         <v>0</v>
       </c>
@@ -11938,10 +13450,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="2:89" ht="13.9">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="16:89" ht="13.9">
       <c r="P2" s="1" t="s">
         <v>276</v>
       </c>
@@ -11953,10 +13462,7 @@
         <v>0.10256286732825903</v>
       </c>
     </row>
-    <row r="3" spans="2:89">
-      <c r="B3" s="2" t="s">
-        <v>669</v>
-      </c>
+    <row r="3" spans="16:89">
       <c r="BI3" s="8" t="s">
         <v>269</v>
       </c>
@@ -11965,12 +13471,9 @@
         <v>-6.2064121218202817E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:89">
-      <c r="B4" s="2" t="s">
-        <v>670</v>
-      </c>
+    <row r="4" spans="16:89">
       <c r="P4" s="2" t="s">
-        <v>374</v>
+        <v>671</v>
       </c>
       <c r="BI4" s="8" t="s">
         <v>270</v>
@@ -11990,7 +13493,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="2:89" ht="13.9">
+    <row r="5" spans="16:89" ht="13.9">
       <c r="BD5" s="1" t="s">
         <v>272</v>
       </c>
@@ -12002,9 +13505,9 @@
         <v>7.6048643097733661E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:89">
+    <row r="6" spans="16:89">
       <c r="P6" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BD6" s="6" t="s">
         <v>267</v>
@@ -12028,9 +13531,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="2:89">
+    <row r="7" spans="16:89">
       <c r="Q7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BD7" s="5">
         <v>267.56</v>
@@ -12055,9 +13558,9 @@
         <v>-5.6030779574900436E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:89">
+    <row r="8" spans="16:89">
       <c r="Q8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BD8" s="5">
         <v>269.62</v>
@@ -12082,9 +13585,9 @@
         <v>-1.7563037458096509E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:89">
+    <row r="9" spans="16:89">
       <c r="Q9" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BD9" s="5">
         <v>275.14999999999998</v>
@@ -12109,9 +13612,9 @@
         <v>-2.5465750513565144E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:89">
+    <row r="10" spans="16:89">
       <c r="R10" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
@@ -12121,7 +13624,7 @@
       <c r="BI10" s="5"/>
       <c r="BJ10" s="7"/>
     </row>
-    <row r="11" spans="2:89">
+    <row r="11" spans="16:89">
       <c r="BD11" s="5">
         <v>283.42</v>
       </c>
@@ -12145,9 +13648,9 @@
         <v>-1.2060791968767304E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:89">
+    <row r="12" spans="16:89">
       <c r="P12" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BD12" s="5">
         <v>286.23</v>
@@ -12172,9 +13675,9 @@
         <v>4.2453161181672527E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:89">
+    <row r="13" spans="16:89">
       <c r="Q13" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BD13" s="5">
         <v>280.38</v>
@@ -12199,9 +13702,9 @@
         <v>8.6337146557304845E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:89">
+    <row r="14" spans="16:89">
       <c r="Q14" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BD14" s="5">
         <v>281.33</v>
@@ -12226,9 +13729,9 @@
         <v>1.8167999710470006E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:89">
+    <row r="15" spans="16:89">
       <c r="R15" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BD15" s="5">
         <v>279.48</v>
@@ -12253,7 +13756,7 @@
         <v>1.2351939725432137E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:89">
+    <row r="16" spans="16:89">
       <c r="BD16" s="5">
         <v>275.29000000000002</v>
       </c>
@@ -12279,7 +13782,7 @@
     </row>
     <row r="17" spans="2:62">
       <c r="P17" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BD17" s="5">
         <v>276.07</v>
@@ -12306,7 +13809,7 @@
     </row>
     <row r="18" spans="2:62">
       <c r="Q18" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BD18" s="5">
         <v>272.62</v>
@@ -12357,7 +13860,7 @@
     </row>
     <row r="20" spans="2:62">
       <c r="P20" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BD20" s="5">
         <v>267.13</v>
@@ -12384,7 +13887,7 @@
     </row>
     <row r="21" spans="2:62">
       <c r="Q21" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BD21" s="5">
         <v>262.33999999999997</v>
@@ -12411,7 +13914,7 @@
     </row>
     <row r="22" spans="2:62">
       <c r="Q22" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BD22" s="5">
         <v>257.24</v>
@@ -12461,6 +13964,9 @@
       </c>
     </row>
     <row r="24" spans="2:62">
+      <c r="P24" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="BD24" s="5">
         <v>277.69</v>
       </c>
@@ -12485,6 +13991,9 @@
       </c>
     </row>
     <row r="25" spans="2:62">
+      <c r="Q25" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="BD25" s="5">
         <v>286.38</v>
       </c>
@@ -12509,6 +14018,9 @@
       </c>
     </row>
     <row r="26" spans="2:62">
+      <c r="Q26" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="BD26" s="5">
         <v>283.62</v>
       </c>
@@ -12533,6 +14045,9 @@
       </c>
     </row>
     <row r="27" spans="2:62">
+      <c r="R27" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="BD27" s="5">
         <v>285.88</v>
       </c>
@@ -12557,8 +14072,8 @@
       </c>
     </row>
     <row r="28" spans="2:62">
-      <c r="B28" s="2" t="s">
-        <v>648</v>
+      <c r="R28" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="BD28" s="5">
         <v>285.44</v>
@@ -12584,6 +14099,9 @@
       </c>
     </row>
     <row r="29" spans="2:62">
+      <c r="Q29" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="BD29" s="5">
         <v>281.45999999999998</v>
       </c>
@@ -12608,6 +14126,9 @@
       </c>
     </row>
     <row r="30" spans="2:62">
+      <c r="B30" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="BD30" s="5">
         <v>291.83999999999997</v>
       </c>
@@ -12679,7 +14200,7 @@
         <v>-1.2290579511123223E-2</v>
       </c>
     </row>
-    <row r="33" spans="56:62">
+    <row r="33" spans="16:62">
       <c r="BD33" s="5">
         <v>291.68</v>
       </c>
@@ -12703,7 +14224,10 @@
         <v>-3.7359735973597319E-2</v>
       </c>
     </row>
-    <row r="34" spans="56:62">
+    <row r="34" spans="16:62" ht="13.9">
+      <c r="P34" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="BD34" s="5">
         <v>303.12</v>
       </c>
@@ -12727,7 +14251,10 @@
         <v>-3.2979354923823312E-4</v>
       </c>
     </row>
-    <row r="35" spans="56:62">
+    <row r="35" spans="16:62">
+      <c r="P35" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="BD35" s="5">
         <v>303.76</v>
       </c>
@@ -12751,7 +14278,10 @@
         <v>2.5869638635595882E-2</v>
       </c>
     </row>
-    <row r="36" spans="56:62">
+    <row r="36" spans="16:62">
+      <c r="P36" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="BD36" s="5">
         <v>271.14</v>
       </c>
@@ -12775,7 +14305,10 @@
         <v>1.7410881801125599E-2</v>
       </c>
     </row>
-    <row r="37" spans="56:62">
+    <row r="37" spans="16:62">
+      <c r="P37" s="2" t="s">
+        <v>669</v>
+      </c>
       <c r="BD37" s="5">
         <v>268.67</v>
       </c>
@@ -12799,7 +14332,10 @@
         <v>-1.5319772768920714E-2</v>
       </c>
     </row>
-    <row r="38" spans="56:62">
+    <row r="38" spans="16:62">
+      <c r="P38" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="BD38" s="5">
         <v>272.89</v>
       </c>
@@ -12823,7 +14359,7 @@
         <v>1.8360264208679977E-2</v>
       </c>
     </row>
-    <row r="39" spans="56:62">
+    <row r="39" spans="16:62">
       <c r="BD39" s="5">
         <v>267.06</v>
       </c>
@@ -12847,7 +14383,7 @@
         <v>1.1590909090909207E-2</v>
       </c>
     </row>
-    <row r="40" spans="56:62">
+    <row r="40" spans="16:62">
       <c r="BD40" s="5">
         <v>268.3</v>
       </c>
@@ -12871,7 +14407,7 @@
         <v>3.5307736831950765E-2</v>
       </c>
     </row>
-    <row r="41" spans="56:62">
+    <row r="41" spans="16:62">
       <c r="BD41" s="5">
         <v>261.05</v>
       </c>
@@ -12895,7 +14431,7 @@
         <v>2.8427643962967153E-3</v>
       </c>
     </row>
-    <row r="42" spans="56:62">
+    <row r="42" spans="16:62">
       <c r="BD42" s="5">
         <v>260.67</v>
       </c>
@@ -12919,7 +14455,7 @@
         <v>-1.6086406986095536E-3</v>
       </c>
     </row>
-    <row r="43" spans="56:62">
+    <row r="43" spans="16:62">
       <c r="BD43" s="5">
         <v>261.5</v>
       </c>
@@ -12943,7 +14479,7 @@
         <v>-1.528844705527943E-2</v>
       </c>
     </row>
-    <row r="44" spans="56:62">
+    <row r="44" spans="16:62">
       <c r="BD44" s="5">
         <v>265.94</v>
       </c>
@@ -12967,7 +14503,7 @@
         <v>-1.8765951058399288E-3</v>
       </c>
     </row>
-    <row r="45" spans="56:62">
+    <row r="45" spans="16:62">
       <c r="BD45" s="5">
         <v>262.11</v>
       </c>
@@ -12991,7 +14527,7 @@
         <v>-9.5975817116945583E-3</v>
       </c>
     </row>
-    <row r="46" spans="56:62">
+    <row r="46" spans="16:62">
       <c r="BD46" s="5">
         <v>265</v>
       </c>
@@ -13015,7 +14551,7 @@
         <v>3.7750094375255117E-4</v>
       </c>
     </row>
-    <row r="47" spans="56:62">
+    <row r="47" spans="16:62">
       <c r="BD47" s="5">
         <v>266.97000000000003</v>
       </c>
@@ -13039,7 +14575,7 @@
         <v>-1.1478505572629194E-2</v>
       </c>
     </row>
-    <row r="48" spans="56:62">
+    <row r="48" spans="16:62">
       <c r="BD48" s="5">
         <v>269</v>
       </c>
@@ -18115,7 +19651,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/PEN_Model.xlsx
+++ b/PEN_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6B015-5F1A-4C5D-BCE0-40EC89D1686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F25745-647D-4B4F-AA98-CAC47C2C9A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -5359,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB260"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
@@ -7084,11 +7084,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3344BAB9-DE4D-4C7A-9063-1F5A1C1DB289}">
   <dimension ref="B1:CS85"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="AZ72" sqref="AZ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12744,21 +12744,21 @@
       <c r="Z49" s="46">
         <v>324.39999999999998</v>
       </c>
-      <c r="AV49" s="49">
-        <f>SUM(C49:F49)</f>
-        <v>357.22699999999998</v>
+      <c r="AV49" s="46">
+        <f>F49</f>
+        <v>72.778999999999996</v>
       </c>
       <c r="AW49" s="46">
-        <f t="shared" si="57"/>
-        <v>356.62200000000001</v>
+        <f>J49</f>
+        <v>69.67</v>
       </c>
       <c r="AX49" s="46">
-        <f t="shared" ref="AX49:AX60" si="132">SUM(K49:N49)</f>
-        <v>263.57800000000003</v>
+        <f>N49</f>
+        <v>59.378999999999998</v>
       </c>
       <c r="AY49" s="46">
-        <f t="shared" si="66"/>
-        <v>251.09899999999999</v>
+        <f>R49</f>
+        <v>69.858000000000004</v>
       </c>
       <c r="AZ49" s="46">
         <f>V49</f>
@@ -12769,27 +12769,27 @@
         <v>324.39999999999998</v>
       </c>
       <c r="BB49" s="59">
-        <f t="shared" ref="BB49:BG49" si="133">BA49+BB39</f>
+        <f t="shared" ref="BB49:BG49" si="132">BA49+BB39</f>
         <v>479.98937425000008</v>
       </c>
       <c r="BC49" s="59">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>716.68188337258755</v>
       </c>
       <c r="BD49" s="59">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1026.5001145678355</v>
       </c>
       <c r="BE49" s="59">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1410.8095814319618</v>
       </c>
       <c r="BF49" s="59">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1874.0344089897915</v>
       </c>
       <c r="BG49" s="59">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>2405.2766749510984</v>
       </c>
     </row>
@@ -12869,28 +12869,28 @@
       <c r="Z50" s="46">
         <v>15.727</v>
       </c>
-      <c r="AV50" s="49">
-        <f>SUM(C50:F50)</f>
-        <v>408.71100000000001</v>
+      <c r="AV50" s="46">
+        <f t="shared" ref="AV50:AV60" si="133">F50</f>
+        <v>116.61</v>
       </c>
       <c r="AW50" s="46">
-        <f t="shared" si="57"/>
-        <v>623.45299999999997</v>
+        <f t="shared" ref="AW50:AW60" si="134">J50</f>
+        <v>195.16200000000001</v>
       </c>
       <c r="AX50" s="46">
-        <f t="shared" si="132"/>
-        <v>739.83199999999999</v>
+        <f t="shared" ref="AX50:AX60" si="135">N50</f>
+        <v>195.49600000000001</v>
       </c>
       <c r="AY50" s="46">
-        <f t="shared" si="66"/>
-        <v>566.06799999999998</v>
+        <f t="shared" ref="AY50:AY60" si="136">R50</f>
+        <v>118.172</v>
       </c>
       <c r="AZ50" s="46">
-        <f t="shared" ref="AZ50:AZ60" si="134">V50</f>
+        <f t="shared" ref="AZ50:AZ60" si="137">V50</f>
         <v>121.70099999999999</v>
       </c>
       <c r="BA50" s="46">
-        <f t="shared" ref="BA50:BA60" si="135">Z50</f>
+        <f t="shared" ref="BA50:BA60" si="138">Z50</f>
         <v>15.727</v>
       </c>
     </row>
@@ -12970,28 +12970,28 @@
       <c r="Z51" s="46">
         <v>167.667</v>
       </c>
-      <c r="AV51" s="49">
-        <f>SUM(C51:F51)</f>
-        <v>401.41900000000004</v>
+      <c r="AV51" s="46">
+        <f t="shared" si="133"/>
+        <v>105.901</v>
       </c>
       <c r="AW51" s="46">
-        <f t="shared" si="57"/>
-        <v>429.00099999999998</v>
+        <f t="shared" si="134"/>
+        <v>114.608</v>
       </c>
       <c r="AX51" s="46">
-        <f t="shared" si="132"/>
-        <v>517.03899999999999</v>
+        <f t="shared" si="135"/>
+        <v>133.94</v>
       </c>
       <c r="AY51" s="46">
-        <f t="shared" si="66"/>
-        <v>723.19600000000003</v>
+        <f t="shared" si="136"/>
+        <v>203.38399999999999</v>
       </c>
       <c r="AZ51" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>201.768</v>
       </c>
       <c r="BA51" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>167.667</v>
       </c>
       <c r="BC51" s="55" t="s">
@@ -13077,28 +13077,28 @@
       <c r="Z52" s="46">
         <v>406.73700000000002</v>
       </c>
-      <c r="AV52" s="49">
-        <f t="shared" ref="AV52:AV60" si="136">SUM(C52:F52)</f>
-        <v>547.77700000000004</v>
+      <c r="AV52" s="46">
+        <f t="shared" si="133"/>
+        <v>152.99199999999999</v>
       </c>
       <c r="AW52" s="46">
-        <f t="shared" si="57"/>
-        <v>760.66799999999989</v>
+        <f t="shared" si="134"/>
+        <v>219.52699999999999</v>
       </c>
       <c r="AX52" s="46">
-        <f t="shared" si="132"/>
-        <v>1022.1180000000001</v>
+        <f t="shared" si="135"/>
+        <v>263.50400000000002</v>
       </c>
       <c r="AY52" s="46">
-        <f t="shared" si="66"/>
-        <v>1224.5419999999999</v>
+        <f t="shared" si="136"/>
+        <v>334.00599999999997</v>
       </c>
       <c r="AZ52" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>388.02300000000002</v>
       </c>
       <c r="BA52" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>406.73700000000002</v>
       </c>
       <c r="BC52" s="55" t="s">
@@ -13184,28 +13184,28 @@
       <c r="Z53" s="46">
         <v>36.588999999999999</v>
       </c>
-      <c r="AV53" s="49">
+      <c r="AV53" s="46">
+        <f t="shared" si="133"/>
+        <v>14.852</v>
+      </c>
+      <c r="AW53" s="46">
+        <f t="shared" si="134"/>
+        <v>18.734999999999999</v>
+      </c>
+      <c r="AX53" s="46">
+        <f t="shared" si="135"/>
+        <v>29.155000000000001</v>
+      </c>
+      <c r="AY53" s="46">
         <f t="shared" si="136"/>
-        <v>57.024000000000001</v>
-      </c>
-      <c r="AW53" s="46">
-        <f t="shared" si="57"/>
-        <v>67.792000000000002</v>
-      </c>
-      <c r="AX53" s="46">
-        <f t="shared" si="132"/>
-        <v>95.13300000000001</v>
-      </c>
-      <c r="AY53" s="46">
-        <f t="shared" si="66"/>
-        <v>122.706</v>
+        <v>30.279</v>
       </c>
       <c r="AZ53" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>36.423999999999999</v>
       </c>
       <c r="BA53" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>36.588999999999999</v>
       </c>
       <c r="BC53" s="55" t="s">
@@ -13291,28 +13291,28 @@
       <c r="Z54" s="46">
         <v>62.640999999999998</v>
       </c>
-      <c r="AV54" s="49">
+      <c r="AV54" s="46">
+        <f t="shared" si="133"/>
+        <v>51.811999999999998</v>
+      </c>
+      <c r="AW54" s="46">
+        <f t="shared" si="134"/>
+        <v>48.168999999999997</v>
+      </c>
+      <c r="AX54" s="46">
+        <f t="shared" si="135"/>
+        <v>58.856000000000002</v>
+      </c>
+      <c r="AY54" s="46">
         <f t="shared" si="136"/>
-        <v>170.75700000000001</v>
-      </c>
-      <c r="AW54" s="46">
-        <f t="shared" si="57"/>
-        <v>233.96100000000001</v>
-      </c>
-      <c r="AX54" s="46">
-        <f t="shared" si="132"/>
-        <v>216.65600000000001</v>
-      </c>
-      <c r="AY54" s="46">
-        <f t="shared" si="66"/>
-        <v>252.88200000000001</v>
+        <v>65.015000000000001</v>
       </c>
       <c r="AZ54" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>72.691000000000003</v>
       </c>
       <c r="BA54" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>62.640999999999998</v>
       </c>
       <c r="BC54" s="55" t="s">
@@ -13398,28 +13398,28 @@
       <c r="Z55" s="46">
         <v>177.78700000000001</v>
       </c>
-      <c r="AV55" s="49">
+      <c r="AV55" s="46">
+        <f t="shared" si="133"/>
+        <v>43.716999999999999</v>
+      </c>
+      <c r="AW55" s="46">
+        <f t="shared" si="134"/>
+        <v>41.192</v>
+      </c>
+      <c r="AX55" s="46">
+        <f t="shared" si="135"/>
+        <v>131.95500000000001</v>
+      </c>
+      <c r="AY55" s="46">
         <f t="shared" si="136"/>
-        <v>170.38600000000002</v>
-      </c>
-      <c r="AW55" s="46">
-        <f t="shared" si="57"/>
-        <v>168.80699999999999</v>
-      </c>
-      <c r="AX55" s="46">
-        <f t="shared" si="132"/>
-        <v>398.98900000000003</v>
-      </c>
-      <c r="AY55" s="46">
-        <f t="shared" si="66"/>
-        <v>721.63499999999999</v>
+        <v>192.636</v>
       </c>
       <c r="AZ55" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>188.756</v>
       </c>
       <c r="BA55" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>177.78700000000001</v>
       </c>
       <c r="BC55" s="55" t="s">
@@ -13502,28 +13502,28 @@
       <c r="Z56" s="46">
         <v>28.018000000000001</v>
       </c>
-      <c r="AV56" s="49">
+      <c r="AV56" s="46">
+        <f t="shared" si="133"/>
+        <v>39.923999999999999</v>
+      </c>
+      <c r="AW56" s="46">
+        <f t="shared" si="134"/>
+        <v>38.064999999999998</v>
+      </c>
+      <c r="AX56" s="46">
+        <f t="shared" si="135"/>
+        <v>36.276000000000003</v>
+      </c>
+      <c r="AY56" s="46">
         <f t="shared" si="136"/>
-        <v>39.923999999999999</v>
-      </c>
-      <c r="AW56" s="46">
-        <f t="shared" si="57"/>
-        <v>154.077</v>
-      </c>
-      <c r="AX56" s="46">
-        <f t="shared" si="132"/>
-        <v>147.84900000000002</v>
-      </c>
-      <c r="AY56" s="46">
-        <f t="shared" si="66"/>
-        <v>137.73000000000002</v>
+        <v>33.323</v>
       </c>
       <c r="AZ56" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>31.091999999999999</v>
       </c>
       <c r="BA56" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>28.018000000000001</v>
       </c>
       <c r="BC56" s="55" t="s">
@@ -13610,28 +13610,28 @@
       <c r="Z57" s="46">
         <v>6.5129999999999999</v>
       </c>
-      <c r="AV57" s="49">
+      <c r="AV57" s="46">
+        <f t="shared" si="133"/>
+        <v>25.407</v>
+      </c>
+      <c r="AW57" s="46">
+        <f t="shared" si="134"/>
+        <v>10.638999999999999</v>
+      </c>
+      <c r="AX57" s="46">
+        <f t="shared" si="135"/>
+        <v>90.617999999999995</v>
+      </c>
+      <c r="AY57" s="46">
         <f t="shared" si="136"/>
-        <v>103.74499999999999</v>
-      </c>
-      <c r="AW57" s="46">
-        <f t="shared" si="57"/>
-        <v>56.947999999999993</v>
-      </c>
-      <c r="AX57" s="46">
-        <f t="shared" si="132"/>
-        <v>120.1</v>
-      </c>
-      <c r="AY57" s="46">
-        <f t="shared" si="66"/>
-        <v>339.15500000000003</v>
+        <v>81.161000000000001</v>
       </c>
       <c r="AZ57" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>71.055999999999997</v>
       </c>
       <c r="BA57" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>6.5129999999999999</v>
       </c>
     </row>
@@ -13711,28 +13711,28 @@
       <c r="Z58" s="46">
         <v>165.82599999999999</v>
       </c>
-      <c r="AV58" s="49">
+      <c r="AV58" s="46">
+        <f t="shared" si="133"/>
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="AW58" s="46">
+        <f t="shared" si="134"/>
+        <v>8.3719999999999999</v>
+      </c>
+      <c r="AX58" s="46">
+        <f t="shared" si="135"/>
+        <v>166.38800000000001</v>
+      </c>
+      <c r="AY58" s="46">
         <f t="shared" si="136"/>
-        <v>30.531999999999996</v>
-      </c>
-      <c r="AW58" s="46">
-        <f t="shared" si="57"/>
-        <v>31.549999999999997</v>
-      </c>
-      <c r="AX58" s="46">
-        <f t="shared" si="132"/>
-        <v>190.41400000000002</v>
-      </c>
-      <c r="AY58" s="46">
-        <f t="shared" si="66"/>
-        <v>663.48299999999995</v>
+        <v>166.04599999999999</v>
       </c>
       <c r="AZ58" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>166.27</v>
       </c>
       <c r="BA58" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>165.82599999999999</v>
       </c>
       <c r="BC58" s="55" t="s">
@@ -13819,28 +13819,28 @@
       <c r="Z59" s="46">
         <v>100.33199999999999</v>
       </c>
-      <c r="AV59" s="49">
-        <f>SUM(C59:F59)</f>
-        <v>130.64599999999999</v>
+      <c r="AV59" s="46">
+        <f t="shared" si="133"/>
+        <v>31.305</v>
       </c>
       <c r="AW59" s="46">
-        <f t="shared" si="57"/>
-        <v>167.46799999999999</v>
+        <f t="shared" si="134"/>
+        <v>50.139000000000003</v>
       </c>
       <c r="AX59" s="46">
-        <f t="shared" si="132"/>
-        <v>211.8</v>
+        <f t="shared" si="135"/>
+        <v>65.697999999999993</v>
       </c>
       <c r="AY59" s="46">
-        <f t="shared" si="66"/>
-        <v>265.524</v>
+        <f t="shared" si="136"/>
+        <v>64.212999999999994</v>
       </c>
       <c r="AZ59" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>85.158000000000001</v>
       </c>
       <c r="BA59" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>100.33199999999999</v>
       </c>
       <c r="BC59" s="55" t="s">
@@ -13927,28 +13927,28 @@
       <c r="Z60" s="46">
         <v>40.939</v>
       </c>
-      <c r="AV60" s="49">
+      <c r="AV60" s="46">
+        <f t="shared" si="133"/>
+        <v>2.9460000000000002</v>
+      </c>
+      <c r="AW60" s="46">
+        <f t="shared" si="134"/>
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="AX60" s="46">
+        <f t="shared" si="135"/>
+        <v>12.984999999999999</v>
+      </c>
+      <c r="AY60" s="46">
         <f t="shared" si="136"/>
-        <v>15.821</v>
-      </c>
-      <c r="AW60" s="46">
-        <f t="shared" si="57"/>
-        <v>27.380000000000003</v>
-      </c>
-      <c r="AX60" s="46">
-        <f t="shared" si="132"/>
-        <v>45.024999999999999</v>
-      </c>
-      <c r="AY60" s="46">
-        <f t="shared" si="66"/>
-        <v>53.940000000000005</v>
+        <v>12.792999999999999</v>
       </c>
       <c r="AZ60" s="46">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>25.88</v>
       </c>
       <c r="BA60" s="46">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>40.939</v>
       </c>
       <c r="BC60" s="55" t="s">
@@ -13964,7 +13964,7 @@
         <v>346</v>
       </c>
       <c r="C61" s="46">
-        <f t="shared" ref="C61:Z61" si="137">SUM(C49:C60)</f>
+        <f t="shared" ref="C61:Z61" si="139">SUM(C49:C60)</f>
         <v>568.78899999999999</v>
       </c>
       <c r="D61" s="46">
@@ -13972,115 +13972,115 @@
         <v>585.10899999999981</v>
       </c>
       <c r="E61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>614.17000000000007</v>
       </c>
       <c r="F61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>665.90099999999995</v>
       </c>
       <c r="G61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>664.24000000000012</v>
       </c>
       <c r="H61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>780.19999999999982</v>
       </c>
       <c r="I61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>810.30399999999997</v>
       </c>
       <c r="J61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>822.98299999999995</v>
       </c>
       <c r="K61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>840.82399999999996</v>
       </c>
       <c r="L61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>910.21799999999996</v>
       </c>
       <c r="M61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>973.24099999999987</v>
       </c>
       <c r="N61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1244.2499999999998</v>
       </c>
       <c r="O61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1301.5729999999999</v>
       </c>
       <c r="P61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1327.9</v>
       </c>
       <c r="Q61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1321.6009999999999</v>
       </c>
       <c r="R61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1370.886</v>
       </c>
       <c r="S61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1395.298</v>
       </c>
       <c r="T61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1432.5319999999999</v>
       </c>
       <c r="U61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1468.377</v>
       </c>
       <c r="V61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1556.3050000000003</v>
       </c>
       <c r="W61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1579.845</v>
       </c>
       <c r="X61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1534.5609999999999</v>
       </c>
       <c r="Y61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1479.1229999999998</v>
       </c>
       <c r="Z61" s="46">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1533.1759999999997</v>
       </c>
       <c r="AV61" s="46">
-        <f t="shared" ref="AV61:BA61" si="138">SUM(AV49:AV60)</f>
-        <v>2433.9690000000001</v>
+        <f t="shared" ref="AV61" si="140">SUM(AV49:AV60)</f>
+        <v>665.90099999999995</v>
       </c>
       <c r="AW61" s="46">
-        <f t="shared" si="138"/>
-        <v>3077.7269999999994</v>
+        <f t="shared" ref="AW61" si="141">SUM(AW49:AW60)</f>
+        <v>822.98299999999995</v>
       </c>
       <c r="AX61" s="46">
-        <f t="shared" si="138"/>
-        <v>3968.5330000000004</v>
+        <f t="shared" ref="AX61" si="142">SUM(AX49:AX60)</f>
+        <v>1244.2499999999998</v>
       </c>
       <c r="AY61" s="46">
-        <f t="shared" si="138"/>
-        <v>5321.96</v>
+        <f t="shared" ref="AY61" si="143">SUM(AY49:AY60)</f>
+        <v>1370.886</v>
       </c>
       <c r="AZ61" s="46">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="AZ61" si="144">SUM(AZ49:AZ60)</f>
         <v>1556.3050000000003</v>
       </c>
       <c r="BA61" s="46">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="AV61:BA61" si="145">SUM(BA49:BA60)</f>
         <v>1533.1759999999997</v>
       </c>
       <c r="BC61" s="55" t="s">
@@ -14185,27 +14185,27 @@
         <v>31.326000000000001</v>
       </c>
       <c r="AV63" s="49">
-        <f t="shared" ref="AV63:AV70" si="139">SUM(C63:F63)</f>
-        <v>43.508000000000003</v>
+        <f>F63</f>
+        <v>15.111000000000001</v>
       </c>
       <c r="AW63" s="46">
-        <f t="shared" si="57"/>
-        <v>58.928000000000004</v>
+        <f>J63</f>
+        <v>14.109</v>
       </c>
       <c r="AX63" s="46">
-        <f t="shared" ref="AX63:AX70" si="140">SUM(K63:N63)</f>
-        <v>56.201000000000001</v>
+        <f>N63</f>
+        <v>13.420999999999999</v>
       </c>
       <c r="AY63" s="46">
-        <f t="shared" si="66"/>
-        <v>89.277000000000001</v>
+        <f>R63</f>
+        <v>26.678999999999998</v>
       </c>
       <c r="AZ63" s="46">
-        <f t="shared" si="43"/>
-        <v>109.169</v>
+        <f>V63</f>
+        <v>27.155000000000001</v>
       </c>
       <c r="BA63" s="46">
-        <f t="shared" ref="BA63:BA70" si="141">Z63</f>
+        <f t="shared" ref="BA63:BA70" si="146">Z63</f>
         <v>31.326000000000001</v>
       </c>
       <c r="BB63" s="59"/>
@@ -14292,27 +14292,27 @@
         <v>112.429</v>
       </c>
       <c r="AV64" s="49">
-        <f t="shared" si="139"/>
-        <v>253.101</v>
+        <f t="shared" ref="AV64:AV70" si="147">F64</f>
+        <v>67.63</v>
       </c>
       <c r="AW64" s="46">
-        <f t="shared" si="57"/>
-        <v>296.53899999999999</v>
+        <f t="shared" ref="AW64:AW70" si="148">J64</f>
+        <v>85.795000000000002</v>
       </c>
       <c r="AX64" s="46">
-        <f t="shared" si="140"/>
-        <v>369.733</v>
+        <f t="shared" ref="AX64:AX70" si="149">N64</f>
+        <v>99.796000000000006</v>
       </c>
       <c r="AY64" s="46">
-        <f t="shared" si="66"/>
-        <v>424.91</v>
+        <f t="shared" ref="AY64:AY70" si="150">R64</f>
+        <v>106.3</v>
       </c>
       <c r="AZ64" s="46">
-        <f t="shared" si="43"/>
-        <v>426.214</v>
+        <f t="shared" ref="AZ64:AZ70" si="151">V64</f>
+        <v>110.55500000000001</v>
       </c>
       <c r="BA64" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="BA64:BA70" si="152">Z64</f>
         <v>112.429</v>
       </c>
     </row>
@@ -14393,27 +14393,27 @@
         <v>12.221</v>
       </c>
       <c r="AV65" s="49">
-        <f t="shared" si="139"/>
-        <v>15.614000000000001</v>
+        <f t="shared" si="147"/>
+        <v>4.1420000000000003</v>
       </c>
       <c r="AW65" s="46">
-        <f t="shared" si="57"/>
-        <v>18.062000000000001</v>
+        <f t="shared" si="148"/>
+        <v>4.6970000000000001</v>
       </c>
       <c r="AX65" s="46">
-        <f t="shared" si="140"/>
-        <v>26.966999999999999</v>
+        <f t="shared" si="149"/>
+        <v>8.2669999999999995</v>
       </c>
       <c r="AY65" s="46">
-        <f t="shared" si="66"/>
-        <v>37.407000000000004</v>
+        <f t="shared" si="150"/>
+        <v>10.032999999999999</v>
       </c>
       <c r="AZ65" s="46">
-        <f t="shared" si="43"/>
-        <v>43.048000000000002</v>
+        <f t="shared" si="151"/>
+        <v>11.202999999999999</v>
       </c>
       <c r="BA65" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" si="152"/>
         <v>12.221</v>
       </c>
     </row>
@@ -14494,27 +14494,27 @@
         <v>2.3690000000000002</v>
       </c>
       <c r="AV66" s="49">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>4.165</v>
       </c>
       <c r="AW66" s="46">
-        <f t="shared" si="57"/>
-        <v>6.1440000000000001</v>
+        <f t="shared" si="148"/>
+        <v>1.331</v>
       </c>
       <c r="AX66" s="46">
-        <f t="shared" si="140"/>
-        <v>6.2610000000000001</v>
+        <f t="shared" si="149"/>
+        <v>1.7130000000000001</v>
       </c>
       <c r="AY66" s="46">
-        <f t="shared" si="66"/>
-        <v>7.3730000000000002</v>
+        <f t="shared" si="150"/>
+        <v>1.92</v>
       </c>
       <c r="AZ66" s="46">
-        <f t="shared" si="43"/>
-        <v>8.2430000000000003</v>
+        <f t="shared" si="151"/>
+        <v>2.2309999999999999</v>
       </c>
       <c r="BA66" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" si="152"/>
         <v>2.3690000000000002</v>
       </c>
     </row>
@@ -14595,27 +14595,27 @@
         <v>187.06800000000001</v>
       </c>
       <c r="AV67" s="49">
-        <f>SUM(C67:F67)</f>
-        <v>184.858</v>
+        <f t="shared" si="147"/>
+        <v>47.241999999999997</v>
       </c>
       <c r="AW67" s="46">
-        <f t="shared" si="57"/>
-        <v>181.52199999999999</v>
+        <f t="shared" si="148"/>
+        <v>44.183</v>
       </c>
       <c r="AX67" s="46">
-        <f t="shared" si="140"/>
-        <v>413.18299999999999</v>
+        <f t="shared" si="149"/>
+        <v>137.04499999999999</v>
       </c>
       <c r="AY67" s="46">
-        <f t="shared" si="66"/>
-        <v>745.44500000000005</v>
+        <f t="shared" si="150"/>
+        <v>198.95500000000001</v>
       </c>
       <c r="AZ67" s="46">
-        <f t="shared" si="43"/>
-        <v>780.83799999999997</v>
+        <f t="shared" si="151"/>
+        <v>197.22900000000001</v>
       </c>
       <c r="BA67" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" si="152"/>
         <v>187.06800000000001</v>
       </c>
     </row>
@@ -14696,27 +14696,27 @@
         <v>21.731000000000002</v>
       </c>
       <c r="AV68" s="49">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>26.748000000000001</v>
       </c>
       <c r="AW68" s="46">
-        <f t="shared" si="57"/>
-        <v>107.142</v>
+        <f t="shared" si="148"/>
+        <v>27.065999999999999</v>
       </c>
       <c r="AX68" s="46">
-        <f t="shared" si="140"/>
-        <v>106.989</v>
+        <f t="shared" si="149"/>
+        <v>26.523</v>
       </c>
       <c r="AY68" s="46">
-        <f t="shared" si="66"/>
-        <v>101.96599999999999</v>
+        <f t="shared" si="150"/>
+        <v>24.864999999999998</v>
       </c>
       <c r="AZ68" s="46">
-        <f t="shared" si="43"/>
-        <v>95.804000000000002</v>
+        <f t="shared" si="151"/>
+        <v>23.68</v>
       </c>
       <c r="BA68" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" si="152"/>
         <v>21.731000000000002</v>
       </c>
     </row>
@@ -14797,27 +14797,27 @@
         <v>15.103</v>
       </c>
       <c r="AV69" s="49">
-        <f>SUM(C69:F69)</f>
-        <v>62.574999999999996</v>
+        <f t="shared" si="147"/>
+        <v>15.25</v>
       </c>
       <c r="AW69" s="46">
-        <f t="shared" si="57"/>
-        <v>40.611000000000004</v>
+        <f t="shared" si="148"/>
+        <v>8.0139999999999993</v>
       </c>
       <c r="AX69" s="46">
-        <f t="shared" si="140"/>
-        <v>26.82</v>
+        <f t="shared" si="149"/>
+        <v>3.5579999999999998</v>
       </c>
       <c r="AY69" s="46">
-        <f t="shared" si="66"/>
-        <v>13.654999999999999</v>
+        <f t="shared" si="150"/>
+        <v>3.2759999999999998</v>
       </c>
       <c r="AZ69" s="46">
-        <f t="shared" si="43"/>
-        <v>15.102</v>
+        <f t="shared" si="151"/>
+        <v>5.3079999999999998</v>
       </c>
       <c r="BA69" s="46">
-        <f t="shared" si="141"/>
+        <f t="shared" si="152"/>
         <v>15.103</v>
       </c>
     </row>
@@ -14898,27 +14898,27 @@
         <v>1150.931</v>
       </c>
       <c r="AV70" s="49">
-        <f t="shared" si="139"/>
-        <v>1843.4</v>
+        <f t="shared" si="147"/>
+        <v>485.613</v>
       </c>
       <c r="AW70" s="46">
-        <f t="shared" si="57"/>
-        <v>2368.7780000000002</v>
+        <f t="shared" si="148"/>
+        <v>637.78800000000001</v>
       </c>
       <c r="AX70" s="46">
-        <f t="shared" si="140"/>
-        <v>2962.377</v>
+        <f t="shared" si="149"/>
+        <v>953.92700000000002</v>
       </c>
       <c r="AY70" s="46">
-        <f t="shared" si="66"/>
-        <v>3901.9269999999997</v>
+        <f t="shared" si="150"/>
+        <v>998.85799999999995</v>
       </c>
       <c r="AZ70" s="46">
-        <f t="shared" si="43"/>
-        <v>4374.09</v>
+        <f>V70</f>
+        <v>1178.94</v>
       </c>
       <c r="BA70" s="46">
-        <f t="shared" si="141"/>
+        <f>Z70</f>
         <v>1150.931</v>
       </c>
     </row>
@@ -14927,91 +14927,91 @@
         <v>355</v>
       </c>
       <c r="C71" s="46">
-        <f t="shared" ref="C71" si="142">SUM(C63:C70)</f>
+        <f t="shared" ref="C71" si="153">SUM(C63:C70)</f>
         <v>568.78899999999999</v>
       </c>
       <c r="D71" s="46">
-        <f t="shared" ref="D71" si="143">SUM(D63:D70)</f>
+        <f t="shared" ref="D71" si="154">SUM(D63:D70)</f>
         <v>585.10900000000004</v>
       </c>
       <c r="E71" s="46">
-        <f t="shared" ref="E71" si="144">SUM(E63:E70)</f>
+        <f t="shared" ref="E71" si="155">SUM(E63:E70)</f>
         <v>614.16999999999996</v>
       </c>
       <c r="F71" s="46">
-        <f t="shared" ref="F71" si="145">SUM(F63:F70)</f>
+        <f t="shared" ref="F71" si="156">SUM(F63:F70)</f>
         <v>665.90099999999995</v>
       </c>
       <c r="G71" s="46">
-        <f t="shared" ref="G71:X71" si="146">SUM(G63:G70)</f>
+        <f t="shared" ref="G71:X71" si="157">SUM(G63:G70)</f>
         <v>664.24</v>
       </c>
       <c r="H71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>780.19999999999993</v>
       </c>
       <c r="I71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>810.303</v>
       </c>
       <c r="J71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>822.98300000000006</v>
       </c>
       <c r="K71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>840.82400000000007</v>
       </c>
       <c r="L71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>910.21799999999996</v>
       </c>
       <c r="M71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>973.23899999999992</v>
       </c>
       <c r="N71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1244.25</v>
       </c>
       <c r="O71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1301.5730000000001</v>
       </c>
       <c r="P71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1327.9</v>
       </c>
       <c r="Q71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1321.6009999999999</v>
       </c>
       <c r="R71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1370.886</v>
       </c>
       <c r="S71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1395.298</v>
       </c>
       <c r="T71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1432.5319999999999</v>
       </c>
       <c r="U71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1468.377</v>
       </c>
       <c r="V71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1556.3010000000002</v>
       </c>
       <c r="W71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1579.8454999999999</v>
       </c>
       <c r="X71" s="46">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>1534.5610000000001</v>
       </c>
       <c r="Y71" s="46">
@@ -15023,28 +15023,28 @@
         <v>1533.1780000000001</v>
       </c>
       <c r="AV71" s="46">
-        <f t="shared" ref="AV71:BA71" si="147">SUM(AV59:AV70)</f>
-        <v>5014.4050000000007</v>
+        <f t="shared" ref="AV71:AZ71" si="158">SUM(AV63:AV70)</f>
+        <v>665.90099999999995</v>
       </c>
       <c r="AW71" s="46">
-        <f t="shared" si="147"/>
-        <v>6350.3009999999995</v>
+        <f t="shared" si="158"/>
+        <v>822.98300000000006</v>
       </c>
       <c r="AX71" s="46">
-        <f t="shared" si="147"/>
-        <v>8193.8889999999992</v>
+        <f t="shared" si="158"/>
+        <v>1244.25</v>
       </c>
       <c r="AY71" s="46">
-        <f t="shared" si="147"/>
-        <v>10963.383999999998</v>
+        <f t="shared" si="158"/>
+        <v>1370.886</v>
       </c>
       <c r="AZ71" s="46">
-        <f t="shared" si="147"/>
-        <v>7519.8510000000006</v>
+        <f t="shared" si="158"/>
+        <v>1556.3010000000002</v>
       </c>
       <c r="BA71" s="46">
-        <f t="shared" si="147"/>
-        <v>3207.6249999999995</v>
+        <f>SUM(BA63:BA70)</f>
+        <v>1533.1780000000001</v>
       </c>
     </row>
     <row r="72" spans="2:53">
@@ -15059,636 +15059,750 @@
         <v>667</v>
       </c>
       <c r="C73" s="48">
-        <f t="shared" ref="C73:Y73" si="148">SUM(C49:C53)/SUM(C63:C66)</f>
+        <f t="shared" ref="C73:Y73" si="159">SUM(C49:C53)/SUM(C63:C66)</f>
         <v>6.0952861176741786</v>
       </c>
       <c r="D73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>6.2298992273619929</v>
       </c>
       <c r="E73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.2378984994255351</v>
       </c>
       <c r="F73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.0867015200773222</v>
       </c>
       <c r="G73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.1518041646797013</v>
       </c>
       <c r="H73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>7.4201798690924061</v>
       </c>
       <c r="I73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.4620239692749077</v>
       </c>
       <c r="J73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.8311180757467049</v>
       </c>
       <c r="K73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.6777726126834862</v>
       </c>
       <c r="L73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>6.0447587138811247</v>
       </c>
       <c r="M73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.7556803984249116</v>
       </c>
       <c r="N73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.5315795027476309</v>
       </c>
       <c r="O73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.3061591557198744</v>
       </c>
       <c r="P73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>4.9309153594681465</v>
       </c>
       <c r="Q73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.2310745163808825</v>
       </c>
       <c r="R73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.214162503794884</v>
       </c>
       <c r="S73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.3748428188726685</v>
       </c>
       <c r="T73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.7441925009020007</v>
       </c>
       <c r="U73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.9862694550517652</v>
       </c>
       <c r="V73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>6.0564891758852486</v>
       </c>
       <c r="W73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>6.1191203081081245</v>
       </c>
       <c r="X73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>6.2505463793263303</v>
       </c>
       <c r="Y73" s="48">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5.8214120181479911</v>
       </c>
       <c r="Z73" s="48">
         <f>SUM(Z49:Z53)/SUM(Z63:Z66)</f>
         <v>6.0066310903407114</v>
       </c>
-      <c r="AW73" s="46"/>
-      <c r="AX73" s="46"/>
-      <c r="AY73" s="46"/>
-      <c r="AZ73" s="46"/>
-      <c r="BA73" s="46"/>
+      <c r="AV73" s="48">
+        <f>SUM(AV49:AV53)/SUM(AV63:AV66)</f>
+        <v>5.0867015200773222</v>
+      </c>
+      <c r="AW73" s="48">
+        <f>SUM(AW49:AW53)/SUM(AW63:AW66)</f>
+        <v>5.8311180757467049</v>
+      </c>
+      <c r="AX73" s="48">
+        <f>SUM(AX49:AX53)/SUM(AX63:AX66)</f>
+        <v>5.5315795027476309</v>
+      </c>
+      <c r="AY73" s="48">
+        <f>SUM(AY49:AY53)/SUM(AY63:AY66)</f>
+        <v>5.214162503794884</v>
+      </c>
+      <c r="AZ73" s="48">
+        <f>SUM(AZ49:AZ53)/SUM(AZ63:AZ66)</f>
+        <v>6.0564891758852486</v>
+      </c>
+      <c r="BA73" s="48">
+        <f>SUM(BA49:BA53)/SUM(BA63:BA66)</f>
+        <v>6.0066310903407114</v>
+      </c>
     </row>
     <row r="74" spans="2:53">
       <c r="B74" s="2" t="s">
         <v>668</v>
       </c>
       <c r="C74" s="48">
-        <f t="shared" ref="C74:Y74" si="149">(SUM(C49:C53)-C52)/SUM(C63:C66)</f>
+        <f t="shared" ref="C74:Y74" si="160">(SUM(C49:C53)-C52)/SUM(C63:C66)</f>
         <v>4.3421166368927562</v>
       </c>
       <c r="D74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>4.3271885437422055</v>
       </c>
       <c r="E74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.6089802360532457</v>
       </c>
       <c r="F74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.4063570863720241</v>
       </c>
       <c r="G74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.2652996343983474</v>
       </c>
       <c r="H74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>5.0566020718445577</v>
       </c>
       <c r="I74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.689343389940309</v>
       </c>
       <c r="J74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.7587792168560963</v>
       </c>
       <c r="K74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.484704367881855</v>
       </c>
       <c r="L74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.6848657053477223</v>
       </c>
       <c r="M74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.5299120259872301</v>
       </c>
       <c r="N74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.3926962507203902</v>
       </c>
       <c r="O74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.19738814287581</v>
       </c>
       <c r="P74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>2.8988077250624991</v>
       </c>
       <c r="Q74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>2.9156015961599637</v>
       </c>
       <c r="R74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>2.9095920845637959</v>
       </c>
       <c r="S74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.0236728445683663</v>
       </c>
       <c r="T74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.2548777441647472</v>
       </c>
       <c r="U74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.406657108589862</v>
       </c>
       <c r="V74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.4892486635261739</v>
       </c>
       <c r="W74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.5120726946699512</v>
       </c>
       <c r="X74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.7749579453488216</v>
       </c>
       <c r="Y74" s="48">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3.2531905865456801</v>
       </c>
       <c r="Z74" s="48">
         <f>(SUM(Z49:Z53)-Z52)/SUM(Z63:Z66)</f>
         <v>3.4379550980454061</v>
       </c>
-      <c r="AW74" s="46"/>
-      <c r="AX74" s="46"/>
-      <c r="AY74" s="46"/>
-      <c r="AZ74" s="46"/>
-      <c r="BA74" s="46"/>
+      <c r="AV74" s="48">
+        <f>(SUM(AV49:AV53)-AV52)/SUM(AV63:AV66)</f>
+        <v>3.4063570863720241</v>
+      </c>
+      <c r="AW74" s="48">
+        <f>(SUM(AW49:AW53)-AW52)/SUM(AW63:AW66)</f>
+        <v>3.7587792168560963</v>
+      </c>
+      <c r="AX74" s="48">
+        <f>(SUM(AX49:AX53)-AX52)/SUM(AX63:AX66)</f>
+        <v>3.3926962507203902</v>
+      </c>
+      <c r="AY74" s="48">
+        <f>(SUM(AY49:AY53)-AY52)/SUM(AY63:AY66)</f>
+        <v>2.9095920845637959</v>
+      </c>
+      <c r="AZ74" s="48">
+        <f>(SUM(AZ49:AZ53)-AZ52)/SUM(AZ63:AZ66)</f>
+        <v>3.4892486635261739</v>
+      </c>
+      <c r="BA74" s="48">
+        <f>(SUM(BA49:BA53)-BA52)/SUM(BA63:BA66)</f>
+        <v>3.4379550980454061</v>
+      </c>
     </row>
     <row r="75" spans="2:53">
       <c r="B75" s="2" t="s">
         <v>669</v>
       </c>
       <c r="C75" s="48">
-        <f t="shared" ref="C75:Y75" si="150">C49/SUM(C63:C66)</f>
+        <f t="shared" ref="C75:Y75" si="161">C49/SUM(C63:C66)</f>
         <v>1.3773699072206536</v>
       </c>
       <c r="D75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.1075099267499031</v>
       </c>
       <c r="E75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.2949388977218657</v>
       </c>
       <c r="F75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.79934759687197954</v>
       </c>
       <c r="G75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.82267184413107164</v>
       </c>
       <c r="H75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.731446168118332</v>
       </c>
       <c r="I75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.74142797649345238</v>
       </c>
       <c r="J75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.65768606275724051</v>
       </c>
       <c r="K75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.49732706370349183</v>
       </c>
       <c r="L75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.76149973159580187</v>
       </c>
       <c r="M75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.57118484882428466</v>
       </c>
       <c r="N75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.48198413922416938</v>
       </c>
       <c r="O75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.52393177503285948</v>
       </c>
       <c r="P75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.39994780363176835</v>
       </c>
       <c r="Q75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.39646647196599494</v>
       </c>
       <c r="R75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.48200535423508972</v>
       </c>
       <c r="S75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.64709419933300527</v>
       </c>
       <c r="T75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.79214426466098642</v>
       </c>
       <c r="U75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.69450226774562651</v>
       </c>
       <c r="V75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.1081220557878579</v>
       </c>
       <c r="W75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.4601367115282045</v>
       </c>
       <c r="X75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.9095593202378902</v>
       </c>
       <c r="Y75" s="48">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.8309625616085126</v>
       </c>
       <c r="Z75" s="48">
         <f>Z49/SUM(Z63:Z66)</f>
         <v>2.048691149073226</v>
       </c>
-      <c r="AW75" s="46"/>
-      <c r="AX75" s="46"/>
-      <c r="AY75" s="46"/>
-      <c r="AZ75" s="46"/>
-      <c r="BA75" s="46"/>
+      <c r="AV75" s="48">
+        <f>AV49/SUM(AV63:AV66)</f>
+        <v>0.79934759687197954</v>
+      </c>
+      <c r="AW75" s="48">
+        <f>AW49/SUM(AW63:AW66)</f>
+        <v>0.65768606275724051</v>
+      </c>
+      <c r="AX75" s="48">
+        <f>AX49/SUM(AX63:AX66)</f>
+        <v>0.48198413922416938</v>
+      </c>
+      <c r="AY75" s="48">
+        <f>AY49/SUM(AY63:AY66)</f>
+        <v>0.48200535423508972</v>
+      </c>
+      <c r="AZ75" s="48">
+        <f>AZ49/SUM(AZ63:AZ66)</f>
+        <v>1.1081220557878579</v>
+      </c>
+      <c r="BA75" s="48">
+        <f>BA49/SUM(BA63:BA66)</f>
+        <v>2.048691149073226</v>
+      </c>
     </row>
     <row r="76" spans="2:53">
       <c r="B76" s="2" t="s">
         <v>664</v>
       </c>
       <c r="C76" s="48">
-        <f t="shared" ref="C76:Z76" si="151">C39/C61</f>
+        <f t="shared" ref="C76:Z76" si="162">C39/C61</f>
         <v>1.8808380612142642E-2</v>
       </c>
       <c r="D76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>2.6806971008820572E-2</v>
       </c>
       <c r="E76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>6.0536984873895026E-3</v>
       </c>
       <c r="F76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>3.0788360431956225E-2</v>
       </c>
       <c r="G76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>2.282307599662792E-3</v>
       </c>
       <c r="H76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-1.5303768264547575E-2</v>
       </c>
       <c r="I76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-1.0900847089487405E-2</v>
       </c>
       <c r="J76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>4.4411609960351662E-3</v>
       </c>
       <c r="K76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>1.4071910411691393E-2</v>
       </c>
       <c r="L76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>1.0167893845210732E-2</v>
       </c>
       <c r="M76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>9.0851084161065777E-3</v>
       </c>
       <c r="N76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-1.9823186658629765E-2</v>
       </c>
       <c r="O76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>5.5317680990614748E-5</v>
       </c>
       <c r="P76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-2.7592439189698067E-3</v>
       </c>
       <c r="Q76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-1.7251802926904591E-3</v>
       </c>
       <c r="R76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>2.8229918461490956E-3</v>
       </c>
       <c r="S76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>6.1664246634052658E-3</v>
       </c>
       <c r="T76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>1.333303549240087E-2</v>
       </c>
       <c r="U76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>6.272231177688015E-3</v>
       </c>
       <c r="V76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>3.4759253488230148E-2</v>
       </c>
       <c r="W76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>7.0260057157505891E-3</v>
       </c>
       <c r="X76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>-3.922946041245675E-2</v>
       </c>
       <c r="Y76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>1.9944250748585503E-2</v>
       </c>
       <c r="Z76" s="48">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>2.1908769769419825E-2</v>
       </c>
-      <c r="AW76" s="46"/>
-      <c r="AX76" s="46"/>
-      <c r="AY76" s="46"/>
-      <c r="AZ76" s="46"/>
-      <c r="BA76" s="46"/>
+      <c r="AV76" s="48">
+        <f t="shared" ref="AV76" si="163">AV39/AV61</f>
+        <v>7.5991776555373966E-2</v>
+      </c>
+      <c r="AW76" s="48">
+        <f t="shared" ref="AW76" si="164">AW39/AW61</f>
+        <v>-1.8957864257220371E-2</v>
+      </c>
+      <c r="AX76" s="48">
+        <f t="shared" ref="AX76" si="165">AX39/AX61</f>
+        <v>4.2467349809121374E-3</v>
+      </c>
+      <c r="AY76" s="48">
+        <f t="shared" ref="AY76" si="166">AY39/AY61</f>
+        <v>-1.4603694253206053E-3</v>
+      </c>
+      <c r="AZ76" s="48">
+        <f t="shared" ref="AZ76:BA76" si="167">AZ39/AZ61</f>
+        <v>5.8478254583773787E-2</v>
+      </c>
+      <c r="BA76" s="48">
+        <f t="shared" si="167"/>
+        <v>9.124849332366269E-3</v>
+      </c>
     </row>
     <row r="77" spans="2:53">
       <c r="B77" s="2" t="s">
         <v>665</v>
       </c>
       <c r="C77" s="48">
-        <f t="shared" ref="C77:Z77" si="152">C39/C70</f>
+        <f t="shared" ref="C77:Z77" si="168">C39/C70</f>
         <v>2.4499442361729757E-2</v>
       </c>
       <c r="D77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>3.4534537840473972E-2</v>
       </c>
       <c r="E77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>7.9624620669421012E-3</v>
       </c>
       <c r="F77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>4.2218803862334987E-2</v>
       </c>
       <c r="G77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>3.1058127457146817E-3</v>
       </c>
       <c r="H77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-1.916037749474055E-2</v>
       </c>
       <c r="I77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-1.4253395125477644E-2</v>
       </c>
       <c r="J77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>5.7307443852816437E-3</v>
       </c>
       <c r="K77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>1.8189896244413667E-2</v>
       </c>
       <c r="L77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>1.3744178586703451E-2</v>
       </c>
       <c r="M77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>1.2915514539083208E-2</v>
       </c>
       <c r="N77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-2.5856276214008073E-2</v>
       </c>
       <c r="O77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>7.5054570927609243E-5</v>
       </c>
       <c r="P77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-3.7772611763735682E-3</v>
       </c>
       <c r="Q77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-2.341458605476552E-3</v>
       </c>
       <c r="R77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>3.8744245928850241E-3</v>
       </c>
       <c r="S77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>8.3984971726816914E-3</v>
       </c>
       <c r="T77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>1.7908326246574215E-2</v>
       </c>
       <c r="U77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>8.3413486357683496E-3</v>
       </c>
       <c r="V77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>4.588528678304242E-2</v>
       </c>
       <c r="W77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>9.2228617293613462E-3</v>
       </c>
       <c r="X77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>-5.1841537127410513E-2</v>
       </c>
       <c r="Y77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>2.6714239142246562E-2</v>
       </c>
       <c r="Z77" s="48">
-        <f t="shared" si="152"/>
+        <f t="shared" si="168"/>
         <v>2.9185068435901025E-2</v>
       </c>
-      <c r="AW77" s="46"/>
-      <c r="AX77" s="46"/>
-      <c r="AY77" s="46"/>
-      <c r="AZ77" s="46"/>
-      <c r="BA77" s="46"/>
+      <c r="AV77" s="48">
+        <f t="shared" ref="AV77" si="169">AV39/AV70</f>
+        <v>0.1042043767362078</v>
+      </c>
+      <c r="AW77" s="48">
+        <f t="shared" ref="AW77" si="170">AW39/AW70</f>
+        <v>-2.4462674117418315E-2</v>
+      </c>
+      <c r="AX77" s="48">
+        <f t="shared" ref="AX77" si="171">AX39/AX70</f>
+        <v>5.5392079268119319E-3</v>
+      </c>
+      <c r="AY77" s="48">
+        <f t="shared" ref="AY77" si="172">AY39/AY70</f>
+        <v>-2.0042888979214897E-3</v>
+      </c>
+      <c r="AZ77" s="48">
+        <f t="shared" ref="AZ77:BA77" si="173">AZ39/AZ70</f>
+        <v>7.7196464620761088E-2</v>
+      </c>
+      <c r="BA77" s="48">
+        <f t="shared" si="173"/>
+        <v>1.2155376821025746E-2</v>
+      </c>
     </row>
     <row r="78" spans="2:53">
       <c r="B78" s="2" t="s">
         <v>670</v>
       </c>
       <c r="C78" s="48">
-        <f t="shared" ref="C78:Z78" si="153">C26/C61</f>
+        <f t="shared" ref="C78:Z78" si="174">C26/C61</f>
         <v>0.2258113289813973</v>
       </c>
       <c r="D78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.229360683223126</v>
       </c>
       <c r="E78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.22713906573098652</v>
       </c>
       <c r="F78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.2181420361284937</v>
       </c>
       <c r="G78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.20670239672407562</v>
       </c>
       <c r="H78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.13470904896180469</v>
       </c>
       <c r="I78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.18647322486375484</v>
       </c>
       <c r="J78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.2028134238495814</v>
       </c>
       <c r="K78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.20123117323006956</v>
       </c>
       <c r="L78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.20247896657723757</v>
       </c>
       <c r="M78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.19532674846209727</v>
       </c>
       <c r="N78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.16394615230058271</v>
       </c>
       <c r="O78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.15665659936092716</v>
       </c>
       <c r="P78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.15686422170344153</v>
       </c>
       <c r="Q78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.16169781953857482</v>
       </c>
       <c r="R78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.16137957496101057</v>
       </c>
       <c r="S78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.17300963665109534</v>
       </c>
       <c r="T78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.18254391524936267</v>
       </c>
       <c r="U78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.18448940564991143</v>
       </c>
       <c r="V78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.18294614487520119</v>
       </c>
       <c r="W78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.17640971107925144</v>
       </c>
       <c r="X78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.19510465859617179</v>
       </c>
       <c r="Y78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.20349896526522815</v>
       </c>
       <c r="Z78" s="48">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.20578198458624455</v>
       </c>
-      <c r="AW78" s="46"/>
-      <c r="AX78" s="46"/>
-      <c r="AY78" s="46"/>
-      <c r="AZ78" s="46"/>
-      <c r="BA78" s="46"/>
+      <c r="AV78" s="48">
+        <f>AV26/AV61</f>
+        <v>0.82204862284333569</v>
+      </c>
+      <c r="AW78" s="48">
+        <f>AW26/AW61</f>
+        <v>0.68095209743093121</v>
+      </c>
+      <c r="AX78" s="48">
+        <f>AX26/AX61</f>
+        <v>0.6008358448864779</v>
+      </c>
+      <c r="AY78" s="48">
+        <f>AY26/AY61</f>
+        <v>0.61794562056947122</v>
+      </c>
+      <c r="AZ78" s="48">
+        <f>AZ26/AZ61</f>
+        <v>0.68014945656539028</v>
+      </c>
+      <c r="BA78" s="48">
+        <f>BA26/BA61</f>
+        <v>0.77916690582164094</v>
+      </c>
     </row>
     <row r="79" spans="2:53">
       <c r="B79" s="2" t="s">
@@ -15696,102 +15810,121 @@
       </c>
       <c r="C79" s="48"/>
       <c r="D79" s="48">
-        <f t="shared" ref="D79:Z79" si="154">D27/AVERAGE(A52:D52)</f>
+        <f t="shared" ref="D79:Z79" si="175">D27/AVERAGE(A52:D52)</f>
         <v>0.31657928041945399</v>
       </c>
       <c r="E79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.3746342946160568</v>
       </c>
       <c r="F79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.29864707718651928</v>
       </c>
       <c r="G79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.33297424346293208</v>
       </c>
       <c r="H79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.25009915311574088</v>
       </c>
       <c r="I79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.34663673964499597</v>
       </c>
       <c r="J79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.38168557110329349</v>
       </c>
       <c r="K79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.27561062444260015</v>
       </c>
       <c r="L79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.28791755726530988</v>
       </c>
       <c r="M79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.28707517627826667</v>
       </c>
       <c r="N79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.30736568576230944</v>
       </c>
       <c r="O79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.29111084473517479</v>
       </c>
       <c r="P79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.27214821272247108</v>
       </c>
       <c r="Q79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.2717410141762851</v>
       </c>
       <c r="R79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.27022674599972879</v>
       </c>
       <c r="S79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.27908378308421578</v>
       </c>
       <c r="T79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.27882533773676943</v>
       </c>
       <c r="U79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.26419798407300027</v>
       </c>
       <c r="V79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.26701613563764443</v>
       </c>
       <c r="W79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.25667959278769831</v>
       </c>
       <c r="X79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.35609244587414374</v>
       </c>
       <c r="Y79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.25926862817415797</v>
       </c>
       <c r="Z79" s="48">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.26661324225743571</v>
       </c>
-      <c r="AW79" s="46"/>
-      <c r="AX79" s="46"/>
-      <c r="AY79" s="46"/>
-      <c r="AZ79" s="46"/>
-      <c r="BA79" s="46"/>
+      <c r="AV79" s="48">
+        <f>AV27/AVERAGE(AS52:AV52)</f>
+        <v>1.1438506588579795</v>
+      </c>
+      <c r="AW79" s="48">
+        <f>AW27/AVERAGE(AT52:AW52)</f>
+        <v>1.1931579328839603</v>
+      </c>
+      <c r="AX79" s="48">
+        <f>AX27/AVERAGE(AU52:AX52)</f>
+        <v>1.283953567716891</v>
+      </c>
+      <c r="AY79" s="48">
+        <f>AY27/AVERAGE(AV52:AY52)</f>
+        <v>1.2862543284788392</v>
+      </c>
+      <c r="AZ79" s="48">
+        <f>AZ27/AVERAGE(AW52:AZ52)</f>
+        <v>1.2477387018073789</v>
+      </c>
+      <c r="BA79" s="48">
+        <f>BA27/AVERAGE(AX52:BA52)</f>
+        <v>1.2629734175124079</v>
+      </c>
     </row>
     <row r="80" spans="2:53">
       <c r="AW80" s="46"/>
@@ -15895,27 +16028,27 @@
         <v>51.10799999999999</v>
       </c>
       <c r="AV81" s="49">
-        <f t="shared" ref="AV81:AV85" si="155">SUM(C81:F81)</f>
+        <f t="shared" ref="AV81:AV85" si="176">SUM(C81:F81)</f>
         <v>-33.241999999999997</v>
       </c>
       <c r="AW81" s="46">
-        <f t="shared" ref="AW81:AW83" si="156">SUM(G81:J81)</f>
+        <f t="shared" ref="AW81:AW83" si="177">SUM(G81:J81)</f>
         <v>-33.241999999999997</v>
       </c>
       <c r="AX81" s="46">
-        <f t="shared" ref="AX81:AX83" si="157">SUM(K81:N81)</f>
+        <f t="shared" ref="AX81:AX83" si="178">SUM(K81:N81)</f>
         <v>9.5020000000000007</v>
       </c>
       <c r="AY81" s="46">
-        <f t="shared" ref="AY81:AY83" si="158">SUM(O81:R81)</f>
+        <f t="shared" ref="AY81:AY83" si="179">SUM(O81:R81)</f>
         <v>-55.661000000000001</v>
       </c>
       <c r="AZ81" s="46">
-        <f t="shared" ref="AZ81:AZ85" si="159">SUM(S81:V81)</f>
+        <f t="shared" ref="AZ81:AZ85" si="180">SUM(S81:V81)</f>
         <v>97.332999999999998</v>
       </c>
       <c r="BA81" s="46">
-        <f t="shared" ref="BA81:BA85" si="160">SUM(W81:Z81)</f>
+        <f t="shared" ref="BA81:BA85" si="181">SUM(W81:Z81)</f>
         <v>168.48099999999999</v>
       </c>
     </row>
@@ -16014,27 +16147,27 @@
         <v>-5.3709999999999987</v>
       </c>
       <c r="AV82" s="49">
-        <f t="shared" si="155"/>
+        <f t="shared" si="176"/>
         <v>-24.756</v>
       </c>
       <c r="AW82" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-24.756</v>
       </c>
       <c r="AX82" s="46">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>-21.18</v>
       </c>
       <c r="AY82" s="46">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>-19.297999999999998</v>
       </c>
       <c r="AZ82" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-16.213000000000001</v>
       </c>
       <c r="BA82" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>-21.181999999999999</v>
       </c>
     </row>
@@ -16043,95 +16176,95 @@
         <v>637</v>
       </c>
       <c r="C83" s="46">
-        <f t="shared" ref="C83" si="161">C81+C82</f>
+        <f t="shared" ref="C83" si="182">C81+C82</f>
         <v>-16.051000000000002</v>
       </c>
       <c r="D83" s="46">
-        <f t="shared" ref="D83" si="162">D81+D82</f>
+        <f t="shared" ref="D83" si="183">D81+D82</f>
         <v>-28.408000000000001</v>
       </c>
       <c r="E83" s="46">
-        <f t="shared" ref="E83" si="163">E81+E82</f>
+        <f t="shared" ref="E83" si="184">E81+E82</f>
         <v>-7.7029999999999959</v>
       </c>
       <c r="F83" s="46">
-        <f t="shared" ref="F83" si="164">F81+F82</f>
+        <f t="shared" ref="F83" si="185">F81+F82</f>
         <v>-5.8359999999999985</v>
       </c>
       <c r="G83" s="46">
-        <f t="shared" ref="G83:Y83" si="165">G81+G82</f>
+        <f t="shared" ref="G83:Y83" si="186">G81+G82</f>
         <v>-16.051000000000002</v>
       </c>
       <c r="H83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-28.408000000000001</v>
       </c>
       <c r="I83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-7.7029999999999959</v>
       </c>
       <c r="J83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-5.8359999999999985</v>
       </c>
       <c r="K83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-18.359000000000002</v>
       </c>
       <c r="L83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-6.6050000000000004</v>
       </c>
       <c r="M83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>30.648000000000003</v>
       </c>
       <c r="N83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-17.362000000000002</v>
       </c>
       <c r="O83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-9.4710000000000001</v>
       </c>
       <c r="P83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-44.005999999999993</v>
       </c>
       <c r="Q83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-19.256999999999998</v>
       </c>
       <c r="R83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>-2.2250000000000014</v>
       </c>
       <c r="S83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>9.2349999999999994</v>
       </c>
       <c r="T83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>12.757000000000003</v>
       </c>
       <c r="U83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>26.512</v>
       </c>
       <c r="V83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>32.615999999999993</v>
       </c>
       <c r="W83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>32.471000000000004</v>
       </c>
       <c r="X83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>18.074999999999996</v>
       </c>
       <c r="Y83" s="46">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>51.016000000000005</v>
       </c>
       <c r="Z83" s="46">
@@ -16139,27 +16272,27 @@
         <v>45.736999999999995</v>
       </c>
       <c r="AV83" s="49">
-        <f t="shared" si="155"/>
+        <f t="shared" si="176"/>
         <v>-57.997999999999998</v>
       </c>
       <c r="AW83" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-57.997999999999998</v>
       </c>
       <c r="AX83" s="46">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>-11.678000000000001</v>
       </c>
       <c r="AY83" s="46">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>-74.958999999999975</v>
       </c>
       <c r="AZ83" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>81.12</v>
       </c>
       <c r="BA83" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>147.29900000000001</v>
       </c>
     </row>
@@ -16168,103 +16301,103 @@
         <v>332</v>
       </c>
       <c r="C84" s="46">
-        <f t="shared" ref="C84:Z84" si="166">C40</f>
+        <f t="shared" ref="C84:Z84" si="187">C40</f>
         <v>34.506999999999998</v>
       </c>
       <c r="D84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>35</v>
       </c>
       <c r="E84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>35</v>
       </c>
       <c r="F84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>35</v>
       </c>
       <c r="G84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>35</v>
       </c>
       <c r="H84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>35.4</v>
       </c>
       <c r="I84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>36.207000000000001</v>
       </c>
       <c r="J84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>37.651000000000003</v>
       </c>
       <c r="K84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>36.454999999999998</v>
       </c>
       <c r="L84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>36.523000000000003</v>
       </c>
       <c r="M84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>36.616999999999997</v>
       </c>
       <c r="N84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>36.700000000000003</v>
       </c>
       <c r="O84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>37.646000000000001</v>
       </c>
       <c r="P84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>37.767000000000003</v>
       </c>
       <c r="Q84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>37.917999999999999</v>
       </c>
       <c r="R84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>37.841000000000001</v>
       </c>
       <c r="S84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>39.07</v>
       </c>
       <c r="T84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.15</v>
       </c>
       <c r="U84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.956000000000003</v>
       </c>
       <c r="V84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.4</v>
       </c>
       <c r="W84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>39.299999999999997</v>
       </c>
       <c r="X84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.799999999999997</v>
       </c>
       <c r="Y84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.6</v>
       </c>
       <c r="Z84" s="46">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>38.630000000000003</v>
       </c>
       <c r="AV84" s="49">
-        <f t="shared" si="155"/>
+        <f t="shared" si="176"/>
         <v>139.50700000000001</v>
       </c>
       <c r="AW84" s="46">
@@ -16293,95 +16426,95 @@
         <v>638</v>
       </c>
       <c r="C85" s="49">
-        <f t="shared" ref="C85:F85" si="167">C83/C84</f>
+        <f t="shared" ref="C85:F85" si="188">C83/C84</f>
         <v>-0.46515199814530395</v>
       </c>
       <c r="D85" s="49">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-0.81165714285714285</v>
       </c>
       <c r="E85" s="49">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-0.22008571428571416</v>
       </c>
       <c r="F85" s="49">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-0.16674285714285711</v>
       </c>
       <c r="G85" s="49">
-        <f t="shared" ref="G85:Y85" si="168">G83/G84</f>
+        <f t="shared" ref="G85:Y85" si="189">G83/G84</f>
         <v>-0.45860000000000006</v>
       </c>
       <c r="H85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.80248587570621477</v>
       </c>
       <c r="I85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.2127489159554781</v>
       </c>
       <c r="J85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.15500252317335525</v>
       </c>
       <c r="K85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.50360718694280626</v>
       </c>
       <c r="L85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.18084494701968623</v>
       </c>
       <c r="M85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.83698828413032211</v>
       </c>
       <c r="N85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.47307901907356947</v>
       </c>
       <c r="O85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.25158051320193381</v>
       </c>
       <c r="P85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-1.1651971297693751</v>
       </c>
       <c r="Q85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-0.50785906429664007</v>
       </c>
       <c r="R85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-5.8798657540762703E-2</v>
       </c>
       <c r="S85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.23637061684156641</v>
       </c>
       <c r="T85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.33439056356487556</v>
       </c>
       <c r="U85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.68056268610740323</v>
       </c>
       <c r="V85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.84937499999999988</v>
       </c>
       <c r="W85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.82623409669211212</v>
       </c>
       <c r="X85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0.46585051546391743</v>
       </c>
       <c r="Y85" s="49">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>1.321658031088083</v>
       </c>
       <c r="Z85" s="49">
@@ -16389,7 +16522,7 @@
         <v>1.1839761843127101</v>
       </c>
       <c r="AV85" s="49">
-        <f t="shared" si="155"/>
+        <f t="shared" si="176"/>
         <v>-1.663637712431018</v>
       </c>
       <c r="AW85" s="49">
@@ -16405,11 +16538,11 @@
         <v>-1.9834353648087115</v>
       </c>
       <c r="AZ85" s="49">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>2.1006988665138451</v>
       </c>
       <c r="BA85" s="49">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>3.7977188275568228</v>
       </c>
     </row>
@@ -16430,7 +16563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1327F89-7369-4878-B50B-80E6AE0FDF66}">
   <dimension ref="B1:CL314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>

--- a/PEN_Model.xlsx
+++ b/PEN_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C745BED-5578-41BF-8796-1496ABB7FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C2D01-DAE5-4186-BBC3-780A6CDD3606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Notes | Quant Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Markets | Product Lines" sheetId="4" r:id="rId4"/>
+    <sheet name="Portfolio | Product Lines" sheetId="4" r:id="rId4"/>
     <sheet name="Management" sheetId="6" r:id="rId5"/>
     <sheet name="Clinical Trail Channel" sheetId="5" r:id="rId6"/>
     <sheet name="Peripheral Thrombectomy" sheetId="11" r:id="rId7"/>
@@ -2408,9 +2408,6 @@
     <t>Are there a variety of offerings for consumers (hospitals potentially leasing Penumbra products vs buying)? Do international sales function differently (licenses, joint-partnerships)</t>
   </si>
   <si>
-    <t>Focus up on laggard international growth. I remember announcements of slight pullbacks in EU during my 2023 internship, and the China market has been struggling out of the COVID era (already a questionable business segment though with the licensing deal... commit to further research)</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/34706845/</t>
   </si>
   <si>
@@ -3137,9 +3134,6 @@
     <t>Q1'25 thrombectomy revenues reached $226.5 million, an increase of 20.7% year-over-year, with U.S. thrombectomy contributing significantly to this growth. International thrombectomy increased 3.3%, excluding challenges in China</t>
   </si>
   <si>
-    <t>Revenue from the embolization and access business rose to $97.6 million, a 7.3% increase compared to Q1 2024, primarily driven by U.S. growth</t>
-  </si>
-  <si>
     <t>Gross margin expanded to 66.6%, driven by favorable thrombectomy product mix and productivity improvements</t>
   </si>
   <si>
@@ -3260,9 +3254,6 @@
     <t>Demonstrable innovative edge above competitors, with a pipeline of products in various stages of the FDA process</t>
   </si>
   <si>
-    <t>Premium pricing over competitors with innovative products that grant pricing power [look into measuring/quantifying brand moat]</t>
-  </si>
-  <si>
     <t>Embolization &amp; Access revenues have been plateauing/declining although have bounced in the most recent quarterly report</t>
   </si>
   <si>
@@ -3275,16 +3266,7 @@
     <t>Ttl revenues geographically continue to shift towards the US (at almost 80% of Ttl revenues as of Q1'25)</t>
   </si>
   <si>
-    <t>Reliance on thrombectomy is could be a concern in the future … how will management allocate cash flows generated?</t>
-  </si>
-  <si>
     <t>FX headwinds are a real concern as dollar volatility begins to take its toll on internationally operating businesses</t>
-  </si>
-  <si>
-    <t>Look into competitors and their product pipelines and upcoming launches… do any of the firms offering's have any competitive with Penumbras businesses (thrombectomy is most important revenue center)</t>
-  </si>
-  <si>
-    <t>Listen to earnings call for comments on sales force commentary</t>
   </si>
   <si>
     <t>I remember there was a decent growth in hiring during '23 and '24, especially in the sales teams… following human capital trends will be important</t>
@@ -6268,6 +6250,35 @@
   </si>
   <si>
     <t xml:space="preserve">Wide range of returns with many significant outliers (resulting in 3 sigma &gt;±7.5%) </t>
+  </si>
+  <si>
+    <r>
+      <t>Premium pricing over competitors with innovative products that grant pricing power</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> [look into measuring/quantifying brand moat]</t>
+    </r>
+  </si>
+  <si>
+    <t>Reliance on thrombectomy is could be a concern in the future … how will management allocate cash flows generated? (theory being allocate cash flows from current gyser into investments into other potential future geysers similar to Big Tech and their "long shot shops")</t>
+  </si>
+  <si>
+    <t>Revenue from the Embolization and Access business rose to $97.6 million, a 7.3% increase compared to Q1 2024, primarily driven by U.S. growth</t>
+  </si>
+  <si>
+    <t>Focus up on laggard international growth. I remember announcements of slight pullbacks in EU during my 2023 internship, and the China economy has been struggling out of the COVID era (already a questionable business segment though with the licensing deal... commit to further research)</t>
+  </si>
+  <si>
+    <t>Look into competitors and their product pipelines and upcoming launches… do any of the firms offering's have any competitive overlap with Penumbras businesses (thrombectomy is most important revenue center)</t>
+  </si>
+  <si>
+    <t>Listen to earnings call for commentary on sales force highering trends (if mentioned)</t>
   </si>
 </sst>
 </file>
@@ -6851,7 +6862,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7171,6 +7182,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7976,7 +7990,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12072,8 +12086,8 @@
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12288,7 +12302,7 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>122144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12466,7 +12480,7 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13040,8 +13054,8 @@
   </sheetPr>
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S230" sqref="S230"/>
+    <sheetView topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -13150,7 +13164,7 @@
         <v>275</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:80">
@@ -13205,22 +13219,22 @@
         <v>581</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>589</v>
       </c>
       <c r="N17" s="60"/>
       <c r="Q17" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -13228,10 +13242,10 @@
         <v>8</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="15">
@@ -13384,7 +13398,7 @@
     </row>
     <row r="51" spans="1:36" ht="15">
       <c r="B51" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -13404,7 +13418,7 @@
     </row>
     <row r="55" spans="1:36">
       <c r="B55" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="15">
@@ -13424,7 +13438,7 @@
         <v>370</v>
       </c>
       <c r="C58" s="173" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>360</v>
@@ -13435,7 +13449,7 @@
         <v>466</v>
       </c>
       <c r="C59" s="174" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>396</v>
@@ -13443,7 +13457,7 @@
     </row>
     <row r="60" spans="1:36" ht="15">
       <c r="B60" s="178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C60" s="175" t="s">
         <v>372</v>
@@ -13473,7 +13487,7 @@
         <v>457</v>
       </c>
       <c r="C63" s="173" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E63" s="10"/>
       <c r="J63" s="2" t="s">
@@ -13494,7 +13508,7 @@
     </row>
     <row r="65" spans="2:12" ht="15">
       <c r="B65" s="178" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C65" s="175" t="s">
         <v>456</v>
@@ -13530,7 +13544,7 @@
         <v>461</v>
       </c>
       <c r="C69" s="173" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E69" s="11"/>
       <c r="J69" s="2" t="s">
@@ -13551,7 +13565,7 @@
     </row>
     <row r="71" spans="2:12" ht="15">
       <c r="B71" s="178" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C71" s="175" t="s">
         <v>460</v>
@@ -13584,7 +13598,7 @@
         <v>462</v>
       </c>
       <c r="C74" s="173" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E74" s="11"/>
       <c r="J74" s="2" t="s">
@@ -13605,7 +13619,7 @@
     </row>
     <row r="76" spans="2:12" ht="15">
       <c r="B76" s="178" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C76" s="175" t="s">
         <v>519</v>
@@ -13647,7 +13661,7 @@
         <v>522</v>
       </c>
       <c r="C81" s="173" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E81" s="11"/>
       <c r="J81" s="2" t="s">
@@ -13668,7 +13682,7 @@
     </row>
     <row r="83" spans="1:12" ht="15">
       <c r="B83" s="80" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C83" s="175" t="s">
         <v>521</v>
@@ -13715,7 +13729,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15">
@@ -13780,7 +13794,7 @@
     </row>
     <row r="103" spans="1:11" ht="15">
       <c r="B103" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13795,7 +13809,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="D106" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13805,7 +13819,7 @@
     </row>
     <row r="109" spans="1:11" ht="15">
       <c r="B109" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15">
@@ -14250,12 +14264,12 @@
     </row>
     <row r="144" spans="1:11">
       <c r="B144" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="C145" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -14265,7 +14279,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="C147" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15">
@@ -14285,32 +14299,32 @@
     </row>
     <row r="152" spans="1:3">
       <c r="B152" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="C153" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="C154" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="C155" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="C156" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="B157" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15">
@@ -14325,7 +14339,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="C161" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15">
@@ -14356,7 +14370,7 @@
     </row>
     <row r="167" spans="1:3" ht="15">
       <c r="C167" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -14366,7 +14380,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="C169" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -14376,7 +14390,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="C171" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -14391,7 +14405,7 @@
     </row>
     <row r="174" spans="1:3" ht="15">
       <c r="B174" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15">
@@ -14406,7 +14420,7 @@
     </row>
     <row r="178" spans="2:19">
       <c r="C178" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="2:19">
@@ -14425,7 +14439,7 @@
         <v>478</v>
       </c>
       <c r="D181" s="78" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E181" s="78"/>
       <c r="F181" s="77"/>
@@ -14440,15 +14454,15 @@
       <c r="O181" s="73"/>
       <c r="P181" s="73"/>
       <c r="R181" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="2:19" ht="15">
       <c r="B182" s="52" t="s">
-        <v>749</v>
-      </c>
-      <c r="C182" s="142" t="s">
-        <v>750</v>
+        <v>747</v>
+      </c>
+      <c r="C182" s="180" t="s">
+        <v>748</v>
       </c>
       <c r="D182" s="143"/>
       <c r="E182" s="143"/>
@@ -14464,15 +14478,15 @@
       <c r="O182" s="143"/>
       <c r="P182" s="144"/>
       <c r="S182" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="2:19" ht="15">
       <c r="B183" s="55" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C183" s="145" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D183" s="109"/>
       <c r="E183" s="109"/>
@@ -14488,14 +14502,14 @@
       <c r="O183" s="109"/>
       <c r="P183" s="146"/>
       <c r="R183" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="184" spans="2:19" ht="15">
       <c r="B184" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="C184" s="147" t="s">
+      <c r="C184" s="179" t="s">
         <v>480</v>
       </c>
       <c r="D184" s="108"/>
@@ -14540,10 +14554,10 @@
     </row>
     <row r="186" spans="2:19" ht="15">
       <c r="B186" s="55" t="s">
-        <v>754</v>
-      </c>
-      <c r="C186" s="147" t="s">
-        <v>755</v>
+        <v>752</v>
+      </c>
+      <c r="C186" s="179" t="s">
+        <v>753</v>
       </c>
       <c r="D186" s="108"/>
       <c r="E186" s="108"/>
@@ -14569,7 +14583,7 @@
       <c r="B187" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="C187" s="145" t="s">
+      <c r="C187" s="181" t="s">
         <v>488</v>
       </c>
       <c r="D187" s="109"/>
@@ -14594,13 +14608,13 @@
     </row>
     <row r="188" spans="2:19" ht="15" customHeight="1">
       <c r="B188" s="55" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C188" s="147" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="D188" s="108" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E188" s="108"/>
       <c r="F188" s="108"/>
@@ -14623,10 +14637,10 @@
     </row>
     <row r="189" spans="2:19" ht="15">
       <c r="B189" s="55" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C189" s="145" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D189" s="109"/>
       <c r="E189" s="109"/>
@@ -14652,7 +14666,7 @@
       <c r="B190" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C190" s="147" t="s">
+      <c r="C190" s="179" t="s">
         <v>487</v>
       </c>
       <c r="D190" s="108"/>
@@ -14679,7 +14693,7 @@
       <c r="B191" s="55" t="s">
         <v>476</v>
       </c>
-      <c r="C191" s="145" t="s">
+      <c r="C191" s="181" t="s">
         <v>516</v>
       </c>
       <c r="D191" s="109"/>
@@ -14710,7 +14724,7 @@
         <v>481</v>
       </c>
       <c r="D192" s="132" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E192" s="132"/>
       <c r="F192" s="132"/>
@@ -14727,13 +14741,13 @@
     </row>
     <row r="193" spans="2:19" ht="15" customHeight="1">
       <c r="B193" s="55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C193" s="145" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D193" s="109" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E193" s="109"/>
       <c r="F193" s="109"/>
@@ -14748,15 +14762,15 @@
       <c r="O193" s="109"/>
       <c r="P193" s="146"/>
       <c r="R193" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="2:19" ht="15">
       <c r="B194" s="57" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C194" s="154" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D194" s="155"/>
       <c r="E194" s="155"/>
@@ -14774,7 +14788,7 @@
     </row>
     <row r="195" spans="2:19" ht="15">
       <c r="C195" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R195" s="2" t="s">
         <v>507</v>
@@ -14785,7 +14799,7 @@
         <v>486</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D196" s="22"/>
       <c r="E196" s="19"/>
@@ -14809,10 +14823,10 @@
     </row>
     <row r="197" spans="2:19" ht="15">
       <c r="B197" s="74" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C197" s="142" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D197" s="143"/>
       <c r="E197" s="143"/>
@@ -14836,7 +14850,7 @@
     </row>
     <row r="198" spans="2:19" ht="15">
       <c r="B198" s="75" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C198" s="145"/>
       <c r="D198" s="109"/>
@@ -14861,7 +14875,7 @@
     </row>
     <row r="199" spans="2:19" ht="15">
       <c r="B199" s="75" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C199" s="147"/>
       <c r="D199" s="108"/>
@@ -14961,7 +14975,7 @@
     </row>
     <row r="204" spans="2:19" ht="15">
       <c r="B204" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H204"/>
     </row>
@@ -15002,43 +15016,43 @@
     </row>
     <row r="220" spans="1:3">
       <c r="B220" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15">
       <c r="C221" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="C222" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="C223" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="B224" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="225" spans="1:30" ht="15">
       <c r="B225" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="1:30" ht="15">
       <c r="C226" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F226" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="F226" s="61" t="s">
-        <v>616</v>
-      </c>
       <c r="R226" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S226" s="19"/>
       <c r="T226" s="19"/>
@@ -15046,7 +15060,7 @@
       <c r="V226" s="19"/>
       <c r="W226" s="19"/>
       <c r="Y226" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z226" s="19"/>
       <c r="AA226" s="19"/>
@@ -15056,33 +15070,33 @@
     </row>
     <row r="227" spans="1:30" ht="15">
       <c r="C227" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F227" s="61" t="s">
         <v>559</v>
       </c>
       <c r="R227" s="52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S227" s="53"/>
       <c r="T227" s="52" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U227" s="53"/>
       <c r="V227" s="52" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W227" s="53"/>
       <c r="Y227" s="52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Z227" s="53"/>
       <c r="AA227" s="52" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AB227" s="53"/>
       <c r="AC227" s="52" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AD227" s="53"/>
     </row>
@@ -15091,52 +15105,52 @@
         <v>58</v>
       </c>
       <c r="S228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T228" s="66">
         <v>62</v>
       </c>
       <c r="U228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="V228" s="66">
         <f>SUM(R228+T228)</f>
         <v>120</v>
       </c>
       <c r="W228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Y228" s="66">
         <v>29</v>
       </c>
       <c r="Z228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA228" s="66">
         <v>26</v>
       </c>
       <c r="AB228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC228" s="66">
         <f>SUM(Y228+AA228)</f>
         <v>55</v>
       </c>
       <c r="AD228" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="229" spans="1:30" ht="15">
       <c r="B229" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="230" spans="1:30" ht="15">
       <c r="C230" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U230" s="68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V230" s="69"/>
       <c r="W230" s="69"/>
@@ -15146,7 +15160,7 @@
         <v>525</v>
       </c>
       <c r="U231" s="70" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="V231" s="71"/>
       <c r="W231" s="72"/>
@@ -15156,7 +15170,7 @@
         <v>526</v>
       </c>
       <c r="U232" s="85" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="V232" s="86"/>
       <c r="W232" s="87"/>
@@ -15166,17 +15180,17 @@
     </row>
     <row r="234" spans="1:30">
       <c r="B234" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="1:30">
       <c r="B235" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:30">
       <c r="C236" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="1:30" ht="15">
@@ -15212,7 +15226,7 @@
         <v>537</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="15">
@@ -15227,12 +15241,12 @@
     </row>
     <row r="252" spans="1:16" ht="15">
       <c r="B252" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
       <c r="E252" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
@@ -15332,77 +15346,77 @@
     </row>
     <row r="258" spans="1:4">
       <c r="B258" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15">
       <c r="B259" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15">
       <c r="A261" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="B263" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="C264" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15">
       <c r="D265" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="D266" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="C267" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="C268" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15">
       <c r="D269" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="C270" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15">
       <c r="D271" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="C272" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="273" spans="4:4">
       <c r="D273" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="274" spans="4:4">
       <c r="D274" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -15680,163 +15694,163 @@
         <v>277</v>
       </c>
       <c r="C2" s="141" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J2" s="141" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K2" s="141" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L2" s="141" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M2" s="141" t="s">
+        <v>1623</v>
+      </c>
+      <c r="N2" s="141" t="s">
+        <v>1622</v>
+      </c>
+      <c r="O2" s="141" t="s">
+        <v>1621</v>
+      </c>
+      <c r="P2" s="141" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q2" s="141" t="s">
+        <v>1619</v>
+      </c>
+      <c r="R2" s="141" t="s">
+        <v>1618</v>
+      </c>
+      <c r="S2" s="141" t="s">
+        <v>1617</v>
+      </c>
+      <c r="T2" s="141" t="s">
+        <v>1658</v>
+      </c>
+      <c r="U2" s="141" t="s">
+        <v>1657</v>
+      </c>
+      <c r="V2" s="141" t="s">
+        <v>1656</v>
+      </c>
+      <c r="W2" s="141" t="s">
+        <v>1655</v>
+      </c>
+      <c r="X2" s="141" t="s">
+        <v>1654</v>
+      </c>
+      <c r="Y2" s="141" t="s">
+        <v>1653</v>
+      </c>
+      <c r="Z2" s="141" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AA2" s="141" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AB2" s="141" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AC2" s="141" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AD2" s="141" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AE2" s="141" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AF2" s="141" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AG2" s="141" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AH2" s="141" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AI2" s="141" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AJ2" s="141" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AK2" s="141" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AL2" s="141" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AM2" s="141" t="s">
         <v>1639</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="AN2" s="141" t="s">
         <v>1638</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="AO2" s="141" t="s">
         <v>1637</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="AP2" s="141" t="s">
         <v>1636</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="AQ2" s="141" t="s">
         <v>1635</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="AR2" s="141" t="s">
         <v>1634</v>
       </c>
-      <c r="I2" s="141" t="s">
-        <v>1633</v>
-      </c>
-      <c r="J2" s="141" t="s">
-        <v>1632</v>
-      </c>
-      <c r="K2" s="141" t="s">
-        <v>1631</v>
-      </c>
-      <c r="L2" s="141" t="s">
-        <v>1630</v>
-      </c>
-      <c r="M2" s="141" t="s">
-        <v>1629</v>
-      </c>
-      <c r="N2" s="141" t="s">
-        <v>1628</v>
-      </c>
-      <c r="O2" s="141" t="s">
-        <v>1627</v>
-      </c>
-      <c r="P2" s="141" t="s">
-        <v>1626</v>
-      </c>
-      <c r="Q2" s="141" t="s">
-        <v>1625</v>
-      </c>
-      <c r="R2" s="141" t="s">
-        <v>1624</v>
-      </c>
-      <c r="S2" s="141" t="s">
-        <v>1623</v>
-      </c>
-      <c r="T2" s="141" t="s">
+      <c r="AS2" s="161" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AT2" s="161" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AU2" s="161" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AV2" s="161" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AW2" s="161" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AX2" s="161" t="s">
         <v>1664</v>
       </c>
-      <c r="U2" s="141" t="s">
-        <v>1663</v>
-      </c>
-      <c r="V2" s="141" t="s">
-        <v>1662</v>
-      </c>
-      <c r="W2" s="141" t="s">
-        <v>1661</v>
-      </c>
-      <c r="X2" s="141" t="s">
-        <v>1660</v>
-      </c>
-      <c r="Y2" s="141" t="s">
-        <v>1659</v>
-      </c>
-      <c r="Z2" s="141" t="s">
-        <v>1658</v>
-      </c>
-      <c r="AA2" s="141" t="s">
-        <v>1657</v>
-      </c>
-      <c r="AB2" s="141" t="s">
-        <v>1656</v>
-      </c>
-      <c r="AC2" s="141" t="s">
-        <v>1655</v>
-      </c>
-      <c r="AD2" s="141" t="s">
-        <v>1654</v>
-      </c>
-      <c r="AE2" s="141" t="s">
-        <v>1653</v>
-      </c>
-      <c r="AF2" s="141" t="s">
-        <v>1652</v>
-      </c>
-      <c r="AG2" s="141" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AH2" s="141" t="s">
-        <v>1650</v>
-      </c>
-      <c r="AI2" s="141" t="s">
-        <v>1649</v>
-      </c>
-      <c r="AJ2" s="141" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AK2" s="141" t="s">
-        <v>1647</v>
-      </c>
-      <c r="AL2" s="141" t="s">
-        <v>1646</v>
-      </c>
-      <c r="AM2" s="141" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AN2" s="141" t="s">
-        <v>1644</v>
-      </c>
-      <c r="AO2" s="141" t="s">
-        <v>1643</v>
-      </c>
-      <c r="AP2" s="141" t="s">
-        <v>1642</v>
-      </c>
-      <c r="AQ2" s="141" t="s">
-        <v>1641</v>
-      </c>
-      <c r="AR2" s="141" t="s">
-        <v>1640</v>
-      </c>
-      <c r="AS2" s="161" t="s">
+      <c r="AY2" s="161" t="s">
         <v>1665</v>
       </c>
-      <c r="AT2" s="161" t="s">
+      <c r="AZ2" s="161" t="s">
         <v>1666</v>
       </c>
-      <c r="AU2" s="161" t="s">
+      <c r="BA2" s="161" t="s">
         <v>1667</v>
       </c>
-      <c r="AV2" s="161" t="s">
+      <c r="BB2" s="161" t="s">
         <v>1668</v>
       </c>
-      <c r="AW2" s="161" t="s">
+      <c r="BC2" s="161" t="s">
         <v>1669</v>
-      </c>
-      <c r="AX2" s="161" t="s">
-        <v>1670</v>
-      </c>
-      <c r="AY2" s="161" t="s">
-        <v>1671</v>
-      </c>
-      <c r="AZ2" s="161" t="s">
-        <v>1672</v>
-      </c>
-      <c r="BA2" s="161" t="s">
-        <v>1673</v>
-      </c>
-      <c r="BB2" s="161" t="s">
-        <v>1674</v>
-      </c>
-      <c r="BC2" s="161" t="s">
-        <v>1675</v>
       </c>
       <c r="BM2" s="1">
         <v>2019</v>
@@ -16025,7 +16039,7 @@
     </row>
     <row r="3" spans="2:114" ht="15" customHeight="1">
       <c r="B3" s="158" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AJ3" s="2">
         <v>145</v>
@@ -16107,7 +16121,7 @@
     </row>
     <row r="4" spans="2:114" ht="15.75" customHeight="1">
       <c r="B4" s="158" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AJ4" s="2">
         <v>96</v>
@@ -18013,7 +18027,7 @@
     </row>
     <row r="27" spans="2:111">
       <c r="B27" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C27" s="12">
         <v>11.7</v>
@@ -20200,7 +20214,7 @@
     </row>
     <row r="36" spans="2:111">
       <c r="B36" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C36" s="12">
         <v>0.2</v>
@@ -22432,7 +22446,7 @@
     </row>
     <row r="47" spans="2:111">
       <c r="B47" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C47" s="14">
         <f t="shared" ref="C47:S47" si="181">C36/C35</f>
@@ -23255,7 +23269,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="BX52" s="161" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="2:80">
@@ -23362,13 +23376,13 @@
         <v>406.73700000000002</v>
       </c>
       <c r="BT53" s="160" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="BU53" s="167">
         <v>0.03</v>
       </c>
       <c r="BY53" s="160" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" spans="2:80">
@@ -23475,13 +23489,13 @@
         <v>36.588999999999999</v>
       </c>
       <c r="BT54" s="160" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BU54" s="167">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="BY54" s="160" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="55" spans="2:80" ht="15" customHeight="1">
@@ -23588,14 +23602,14 @@
         <v>62.640999999999998</v>
       </c>
       <c r="BT55" s="168" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="BU55" s="167">
         <f>8.5%-BU54</f>
         <v>4.1700000000000008E-2</v>
       </c>
       <c r="BY55" s="160" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="56" spans="2:80">
@@ -23702,13 +23716,13 @@
         <v>177.78700000000001</v>
       </c>
       <c r="BT56" s="160" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="BU56" s="160">
         <v>0.56000000000000005</v>
       </c>
       <c r="BX56" s="161" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="2:80">
@@ -23812,14 +23826,14 @@
         <v>28.018000000000001</v>
       </c>
       <c r="BT57" s="160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="BU57" s="167">
         <f>+BU54+(BU55*BU56)</f>
         <v>6.6652000000000003E-2</v>
       </c>
       <c r="BY57" s="160" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="2:80">
@@ -23926,7 +23940,7 @@
         <v>6.5129999999999999</v>
       </c>
       <c r="BY58" s="160" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="2:80">
@@ -24040,12 +24054,12 @@
         <v>12198.536959271867</v>
       </c>
       <c r="BZ59" s="160" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="2:80">
       <c r="B60" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T60" s="12">
         <v>31.861999999999998</v>
@@ -24157,7 +24171,7 @@
         <v>274</v>
       </c>
       <c r="BZ60" s="160" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="2:80">
@@ -24272,7 +24286,7 @@
       </c>
       <c r="BV61" s="170"/>
       <c r="CA61" s="160" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="2:80">
@@ -24414,7 +24428,7 @@
         <v>45763</v>
       </c>
       <c r="BY62" s="160" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="63" spans="2:80">
@@ -24425,7 +24439,7 @@
       <c r="BQ63" s="12"/>
       <c r="BR63" s="12"/>
       <c r="BT63" s="160" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="BU63" s="167">
         <f>BU61/BU62-1</f>
@@ -24436,7 +24450,7 @@
         <v>Upside</v>
       </c>
       <c r="BZ63" s="160" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="2:80">
@@ -24548,7 +24562,7 @@
       <c r="BV64" s="165"/>
       <c r="BW64" s="165"/>
       <c r="BY64" s="160" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="2:79">
@@ -24655,7 +24669,7 @@
         <v>112.429</v>
       </c>
       <c r="BY65" s="160" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="2:79">
@@ -24762,7 +24776,7 @@
         <v>12.221</v>
       </c>
       <c r="BY66" s="160" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="2:79">
@@ -24869,7 +24883,7 @@
         <v>2.3690000000000002</v>
       </c>
       <c r="BY67" s="160" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="2:79">
@@ -24976,7 +24990,7 @@
         <v>187.06800000000001</v>
       </c>
       <c r="BY68" s="160" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="2:79">
@@ -25083,7 +25097,7 @@
         <v>21.731000000000002</v>
       </c>
       <c r="BX69" s="161" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="2:79">
@@ -25190,7 +25204,7 @@
         <v>15.103</v>
       </c>
       <c r="BY70" s="160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="2:79">
@@ -25297,7 +25311,7 @@
         <v>1150.931</v>
       </c>
       <c r="BY71" s="160" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="72" spans="2:79">
@@ -25430,7 +25444,7 @@
       </c>
       <c r="BX72" s="165"/>
       <c r="CA72" s="160" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="2:79">
@@ -25441,7 +25455,7 @@
       <c r="BQ73" s="12"/>
       <c r="BR73" s="12"/>
       <c r="CA73" s="160" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74" spans="2:79">
@@ -25593,7 +25607,7 @@
         <v>6.0066310903407114</v>
       </c>
       <c r="CA74" s="160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="2:79">
@@ -25745,7 +25759,7 @@
         <v>3.4379550980454061</v>
       </c>
       <c r="BZ75" s="160" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="2:79">
@@ -25897,7 +25911,7 @@
         <v>2.048691149073226</v>
       </c>
       <c r="BY76" s="160" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77" spans="2:79">
@@ -26049,7 +26063,7 @@
         <v>0.77916690582164094</v>
       </c>
       <c r="BY77" s="160" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="2:79">
@@ -26198,7 +26212,7 @@
         <v>1.2629734175124079</v>
       </c>
       <c r="BY78" s="160" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="2:79">
@@ -26350,7 +26364,7 @@
         <v>9.1248493323661979E-3</v>
       </c>
       <c r="BZ79" s="160" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="80" spans="2:79">
@@ -26502,7 +26516,7 @@
         <v>1.2155376821025653E-2</v>
       </c>
       <c r="BY80" s="160" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="2:79">
@@ -26513,7 +26527,7 @@
       <c r="BQ81" s="12"/>
       <c r="BR81" s="12"/>
       <c r="CA81" s="160" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="2:79">
@@ -26690,7 +26704,7 @@
         <v>168.48099999999999</v>
       </c>
       <c r="CA82" s="160" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="2:79">
@@ -26867,7 +26881,7 @@
         <v>-21.181999999999999</v>
       </c>
       <c r="BY83" s="160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="2:79">
@@ -27067,7 +27081,7 @@
         <v>147.29900000000001</v>
       </c>
       <c r="BZ84" s="160" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="2:79">
@@ -27199,7 +27213,7 @@
         <v>38.630000000000003</v>
       </c>
       <c r="BX85" s="161" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="2:79">
@@ -27331,32 +27345,32 @@
         <v>3.7977188275568228</v>
       </c>
       <c r="BY86" s="160" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="87" spans="2:79">
       <c r="BY87" s="160" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="88" spans="2:79">
       <c r="BZ88" s="160" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="2:79">
       <c r="CA89" s="160" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90" spans="2:79">
       <c r="BY90" s="160" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="2:79">
       <c r="BY91" s="160" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -27380,8 +27394,8 @@
   </sheetPr>
   <dimension ref="A1:DE1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U130" sqref="U130"/>
+    <sheetView tabSelected="1" topLeftCell="AA33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC66" sqref="AC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -27413,15 +27427,15 @@
         <v>557</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="8:109" ht="15">
       <c r="AB3" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="8:109">
@@ -27451,7 +27465,7 @@
     </row>
     <row r="10" spans="8:109">
       <c r="AD10" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="8:109">
@@ -27479,7 +27493,7 @@
         <v>533</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="28:52">
@@ -27496,7 +27510,7 @@
       <c r="AB19" s="60"/>
       <c r="AC19" s="60"/>
       <c r="AD19" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>453</v>
@@ -27506,7 +27520,7 @@
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>588</v>
@@ -27514,15 +27528,15 @@
     </row>
     <row r="22" spans="28:52" ht="15">
       <c r="AB22" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="28:52" ht="15">
       <c r="AB23" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="28:52" ht="15">
@@ -27538,127 +27552,127 @@
     </row>
     <row r="49" spans="28:30">
       <c r="AB49" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" spans="28:30">
       <c r="AC50" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="28:30">
       <c r="AC51" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="28:30">
       <c r="AD52" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="53" spans="28:30">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="53" spans="28:30" ht="15">
       <c r="AC53" s="2" t="s">
-        <v>785</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="54" spans="28:30">
       <c r="AC54" s="2" t="s">
-        <v>790</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="55" spans="28:30">
       <c r="AB55" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="28:30">
       <c r="AC56" s="2" t="s">
-        <v>744</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="57" spans="28:30">
       <c r="AC57" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="28:30">
       <c r="AD58" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="59" spans="28:30">
       <c r="AB59" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="60" spans="28:30">
       <c r="AB60" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="28:30">
       <c r="AC61" s="2" t="s">
-        <v>597</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="62" spans="28:30">
       <c r="AD62" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="28:30">
       <c r="AB63" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="28:30">
       <c r="AB64" s="2" t="s">
-        <v>792</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="AB65" s="2" t="s">
-        <v>793</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="66" spans="8:29" ht="15">
       <c r="H66" s="1" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="8:29" ht="15">
       <c r="AB67" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="69" spans="8:29" ht="15">
       <c r="AB69" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="8:29" ht="13.5" customHeight="1"/>
     <row r="97" spans="1:30">
       <c r="AB97" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:30">
       <c r="K98" s="2" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="99" spans="1:30">
       <c r="L99" s="2" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -27666,40 +27680,40 @@
         <v>586</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="101" spans="1:30">
       <c r="K101" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="15">
       <c r="I102" s="1"/>
       <c r="L102" s="2" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" spans="1:30">
       <c r="L103" s="2" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" spans="1:30">
       <c r="M104" s="2" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -27712,10 +27726,10 @@
         <v>-0.13203174603174594</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -27728,10 +27742,10 @@
         <v>0.18352724177071522</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -27744,20 +27758,20 @@
         <v>3.5008473359527444E-4</v>
       </c>
       <c r="AC107" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="108" spans="1:30">
       <c r="I108" s="18"/>
       <c r="J108" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="K108" s="7">
         <f>MEDIAN($G$113:$G$1116)</f>
         <v>-3.2415430792942512E-4</v>
       </c>
       <c r="AC108" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -27770,13 +27784,13 @@
         <v>2.4922310845394476E-2</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="15">
       <c r="I110" s="18"/>
       <c r="J110" s="18" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="K110" s="7">
         <f>3*K109</f>
@@ -27784,26 +27798,26 @@
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="15">
       <c r="I111" s="6"/>
       <c r="J111" s="18" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="K111" s="6">
         <v>0.56000000000000005</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="15" customHeight="1">
@@ -27829,7 +27843,7 @@
         <v>269</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="15" customHeight="1">
@@ -27849,20 +27863,20 @@
         <v>572291</v>
       </c>
       <c r="F113" s="97" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G113" s="5">
         <f>A113/D113-1</f>
         <v>-1.7818719741795608E-3</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="J113" s="157">
         <v>1004</v>
       </c>
       <c r="AC113" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="15" customHeight="1" thickBot="1">
@@ -27882,23 +27896,23 @@
         <v>489790</v>
       </c>
       <c r="F114" s="97" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G114" s="5">
         <f t="shared" ref="G114:G177" si="0">A114/D114-1</f>
         <v>-8.9333333333333487E-3</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="115" spans="1:30" ht="15" customHeight="1">
@@ -27918,30 +27932,30 @@
         <v>606068</v>
       </c>
       <c r="F115" s="97" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G115" s="5">
         <f t="shared" si="0"/>
         <v>-7.3333333333347461E-4</v>
       </c>
       <c r="I115" s="102" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="J115" s="102" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="K115" s="97"/>
       <c r="L115" s="106" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="M115" s="107" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="P115" s="106" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="Q115" s="107" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="116" spans="1:30" ht="15">
@@ -27961,7 +27975,7 @@
         <v>1574699</v>
       </c>
       <c r="F116" s="97" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G116" s="5">
         <f t="shared" si="0"/>
@@ -28009,7 +28023,7 @@
         <v>834790</v>
       </c>
       <c r="F117" s="97" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G117" s="5">
         <f t="shared" si="0"/>
@@ -28054,7 +28068,7 @@
         <v>728380</v>
       </c>
       <c r="F118" s="97" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G118" s="5">
         <f t="shared" si="0"/>
@@ -28076,7 +28090,7 @@
         <v>0.22331639508899631</v>
       </c>
       <c r="O118" s="103" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="P118" s="5">
         <f>$K$107+$K$109*-3</f>
@@ -28086,7 +28100,7 @@
         <v>0</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="119" spans="1:30" ht="15">
@@ -28106,7 +28120,7 @@
         <v>502045</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G119" s="5">
         <f t="shared" si="0"/>
@@ -28153,7 +28167,7 @@
         <v>326830</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G120" s="5">
         <f t="shared" si="0"/>
@@ -28175,7 +28189,7 @@
         <v>0.39343053030094327</v>
       </c>
       <c r="O120" s="103" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="P120" s="5">
         <f>$K$107+$K$109*-2</f>
@@ -28202,7 +28216,7 @@
         <v>433558</v>
       </c>
       <c r="F121" s="97" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G121" s="5">
         <f t="shared" si="0"/>
@@ -28249,7 +28263,7 @@
         <v>343522</v>
       </c>
       <c r="F122" s="97" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G122" s="5">
         <f t="shared" si="0"/>
@@ -28271,7 +28285,7 @@
         <v>0.6657869147290929</v>
       </c>
       <c r="O122" s="104" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="P122" s="5">
         <f>$K$107+$K$109*-1</f>
@@ -28298,7 +28312,7 @@
         <v>394203</v>
       </c>
       <c r="F123" s="97" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G123" s="5">
         <f t="shared" si="0"/>
@@ -28344,7 +28358,7 @@
         <v>388806</v>
       </c>
       <c r="F124" s="97" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="G124" s="5">
         <f t="shared" si="0"/>
@@ -28366,7 +28380,7 @@
         <v>1.082236556927398</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="P124" s="5">
         <f>$K$107+$K$109*1</f>
@@ -28393,7 +28407,7 @@
         <v>509513</v>
       </c>
       <c r="F125" s="97" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G125" s="5">
         <f t="shared" si="0"/>
@@ -28439,7 +28453,7 @@
         <v>685564</v>
       </c>
       <c r="F126" s="97" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="G126" s="5">
         <f t="shared" si="0"/>
@@ -28461,7 +28475,7 @@
         <v>1.6897750443815549</v>
       </c>
       <c r="O126" s="105" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="P126" s="5">
         <f>$K$107+$K$109*2</f>
@@ -28488,7 +28502,7 @@
         <v>434838</v>
       </c>
       <c r="F127" s="97" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G127" s="5">
         <f t="shared" si="0"/>
@@ -28534,7 +28548,7 @@
         <v>501999</v>
       </c>
       <c r="F128" s="97" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="G128" s="5">
         <f t="shared" si="0"/>
@@ -28556,7 +28570,7 @@
         <v>2.5342842896496385</v>
       </c>
       <c r="O128" s="105" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="P128" s="5">
         <f>$K$107+$K$109*3</f>
@@ -28583,7 +28597,7 @@
         <v>576802</v>
       </c>
       <c r="F129" s="97" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G129" s="5">
         <f t="shared" si="0"/>
@@ -28630,7 +28644,7 @@
         <v>542229</v>
       </c>
       <c r="F130" s="97" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="G130" s="5">
         <f t="shared" si="0"/>
@@ -28669,7 +28683,7 @@
         <v>361870</v>
       </c>
       <c r="F131" s="97" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G131" s="5">
         <f t="shared" si="0"/>
@@ -28708,7 +28722,7 @@
         <v>411680</v>
       </c>
       <c r="F132" s="97" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="G132" s="5">
         <f t="shared" si="0"/>
@@ -28747,7 +28761,7 @@
         <v>370000</v>
       </c>
       <c r="F133" s="97" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G133" s="5">
         <f t="shared" si="0"/>
@@ -29237,7 +29251,7 @@
         <v>15.642813582443607</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="146" spans="1:31" ht="15">
@@ -29279,7 +29293,7 @@
         <v>15.903104819568272</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="147" spans="1:31" ht="15">
@@ -29321,7 +29335,7 @@
         <v>16.005856170285302</v>
       </c>
       <c r="AC147" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="148" spans="1:31" ht="15">
@@ -29363,7 +29377,7 @@
         <v>15.947985618787614</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="15">
@@ -29405,7 +29419,7 @@
         <v>15.731230610744719</v>
       </c>
       <c r="AE149" s="2" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="15">
@@ -29447,7 +29461,7 @@
         <v>15.362061404536385</v>
       </c>
       <c r="AE150" s="2" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="151" spans="1:31" ht="15">
@@ -29489,7 +29503,7 @@
         <v>14.851360242436012</v>
       </c>
       <c r="AB151" s="2" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="15">
@@ -29531,7 +29545,7 @@
         <v>14.213888539371403</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="15">
@@ -29573,7 +29587,7 @@
         <v>13.467578486782354</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="15">
@@ -29657,7 +29671,7 @@
         <v>11.730932752199603</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" spans="1:31" ht="15">
@@ -29699,7 +29713,7 @@
         <v>10.78447394341967</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="15">
@@ -29741,7 +29755,7 @@
         <v>9.815113422208432</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="15">
@@ -29783,7 +29797,7 @@
         <v>8.8434477991250784</v>
       </c>
       <c r="AC158" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="15">
@@ -29825,7 +29839,7 @@
         <v>7.8881988042839817</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="160" spans="1:31" ht="15">
@@ -29867,7 +29881,7 @@
         <v>6.9656879539684651</v>
       </c>
       <c r="AC160" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="15">
@@ -29909,7 +29923,7 @@
         <v>6.0894787572207258</v>
       </c>
       <c r="AB161" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="15">
@@ -29951,7 +29965,7 @@
         <v>5.2701886486886487</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:29" ht="15">
@@ -29993,7 +30007,7 @@
         <v>4.5154614567481204</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="15">
@@ -30077,7 +30091,7 @@
         <v>3.2162063626533604</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="15">
@@ -30119,7 +30133,7 @@
         <v>2.6736816515361874</v>
       </c>
       <c r="AB166" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="15">
@@ -30161,7 +30175,7 @@
         <v>2.2004191779406992</v>
       </c>
       <c r="AC167" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="15">
@@ -30287,7 +30301,7 @@
         <v>1.1547081201353255</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="15">
@@ -30548,7 +30562,7 @@
         <v>-4.7803240402860547E-3</v>
       </c>
       <c r="I177" s="101" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="J177" s="101">
         <v>8</v>
@@ -31455,7 +31469,7 @@
       <c r="N206" s="25"/>
       <c r="O206" s="5"/>
       <c r="AB206" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -31489,7 +31503,7 @@
       <c r="N207" s="25"/>
       <c r="O207" s="5"/>
       <c r="AC207" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -31523,7 +31537,7 @@
       <c r="N208" s="25"/>
       <c r="O208" s="5"/>
       <c r="AC208" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="209" spans="1:31">
@@ -31557,7 +31571,7 @@
       <c r="N209" s="25"/>
       <c r="O209" s="5"/>
       <c r="AD209" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:31" ht="15">
@@ -31591,7 +31605,7 @@
       <c r="N210" s="25"/>
       <c r="O210" s="5"/>
       <c r="AE210" s="1" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="211" spans="1:31">
@@ -31625,7 +31639,7 @@
       <c r="N211" s="25"/>
       <c r="O211" s="5"/>
       <c r="AB211" s="2" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="212" spans="1:31">
@@ -31693,7 +31707,7 @@
       <c r="N213" s="25"/>
       <c r="O213" s="5"/>
       <c r="AB213" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="214" spans="1:31">
@@ -31727,7 +31741,7 @@
       <c r="N214" s="25"/>
       <c r="O214" s="5"/>
       <c r="AC214" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="215" spans="1:31">
@@ -31761,7 +31775,7 @@
       <c r="N215" s="25"/>
       <c r="O215" s="5"/>
       <c r="AC215" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:31">
@@ -31795,7 +31809,7 @@
       <c r="N216" s="25"/>
       <c r="O216" s="5"/>
       <c r="AB216" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:31">
@@ -31829,7 +31843,7 @@
       <c r="N217" s="25"/>
       <c r="O217" s="5"/>
       <c r="AC217" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" spans="1:31" ht="15">
@@ -31863,7 +31877,7 @@
       <c r="N218" s="25"/>
       <c r="O218" s="5"/>
       <c r="AC218" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="219" spans="1:31">
@@ -31897,7 +31911,7 @@
       <c r="N219" s="25"/>
       <c r="O219" s="5"/>
       <c r="AD219" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -31931,7 +31945,7 @@
       <c r="N220" s="25"/>
       <c r="O220" s="5"/>
       <c r="AD220" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -36990,7 +37004,7 @@
         <v>387504</v>
       </c>
       <c r="F384" s="97" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G384" s="5">
         <f t="shared" si="4"/>
@@ -37014,7 +37028,7 @@
         <v>464660</v>
       </c>
       <c r="F385" s="97" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="G385" s="5">
         <f t="shared" si="4"/>
@@ -37038,7 +37052,7 @@
         <v>928942</v>
       </c>
       <c r="F386" s="97" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G386" s="5">
         <f t="shared" si="4"/>
@@ -37062,7 +37076,7 @@
         <v>503666</v>
       </c>
       <c r="F387" s="97" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G387" s="5">
         <f t="shared" si="4"/>
@@ -37086,7 +37100,7 @@
         <v>327984</v>
       </c>
       <c r="F388" s="97" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G388" s="5">
         <f t="shared" si="4"/>
@@ -37110,7 +37124,7 @@
         <v>306781</v>
       </c>
       <c r="F389" s="97" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G389" s="5">
         <f t="shared" si="4"/>
@@ -37134,7 +37148,7 @@
         <v>339845</v>
       </c>
       <c r="F390" s="97" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G390" s="5">
         <f t="shared" si="4"/>
@@ -37158,7 +37172,7 @@
         <v>384084</v>
       </c>
       <c r="F391" s="97" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G391" s="5">
         <f t="shared" si="4"/>
@@ -37182,7 +37196,7 @@
         <v>360789</v>
       </c>
       <c r="F392" s="97" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G392" s="5">
         <f t="shared" si="4"/>
@@ -37206,7 +37220,7 @@
         <v>790428</v>
       </c>
       <c r="F393" s="97" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="G393" s="5">
         <f t="shared" si="4"/>
@@ -37230,7 +37244,7 @@
         <v>238514</v>
       </c>
       <c r="F394" s="97" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G394" s="5">
         <f t="shared" si="4"/>
@@ -37254,7 +37268,7 @@
         <v>348910</v>
       </c>
       <c r="F395" s="97" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G395" s="5">
         <f t="shared" si="4"/>
@@ -37278,7 +37292,7 @@
         <v>322035</v>
       </c>
       <c r="F396" s="97" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G396" s="5">
         <f t="shared" si="4"/>
@@ -37302,7 +37316,7 @@
         <v>199700</v>
       </c>
       <c r="F397" s="97" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G397" s="5">
         <f t="shared" si="4"/>
@@ -37326,7 +37340,7 @@
         <v>267872</v>
       </c>
       <c r="F398" s="97" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G398" s="5">
         <f t="shared" si="4"/>
@@ -37350,7 +37364,7 @@
         <v>218376</v>
       </c>
       <c r="F399" s="97" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="G399" s="5">
         <f t="shared" si="4"/>
@@ -37374,7 +37388,7 @@
         <v>351744</v>
       </c>
       <c r="F400" s="97" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G400" s="5">
         <f t="shared" si="4"/>
@@ -37398,7 +37412,7 @@
         <v>335118</v>
       </c>
       <c r="F401" s="97" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G401" s="5">
         <f t="shared" si="4"/>
@@ -37422,7 +37436,7 @@
         <v>389894</v>
       </c>
       <c r="F402" s="97" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G402" s="5">
         <f t="shared" si="4"/>
@@ -37446,7 +37460,7 @@
         <v>279120</v>
       </c>
       <c r="F403" s="97" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="G403" s="5">
         <f t="shared" si="4"/>
@@ -37470,7 +37484,7 @@
         <v>575628</v>
       </c>
       <c r="F404" s="97" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G404" s="5">
         <f t="shared" si="4"/>
@@ -37494,7 +37508,7 @@
         <v>447655</v>
       </c>
       <c r="F405" s="97" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G405" s="5">
         <f t="shared" si="4"/>
@@ -37518,7 +37532,7 @@
         <v>688023</v>
       </c>
       <c r="F406" s="97" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G406" s="5">
         <f t="shared" si="4"/>
@@ -37542,7 +37556,7 @@
         <v>570332</v>
       </c>
       <c r="F407" s="97" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G407" s="5">
         <f t="shared" si="4"/>
@@ -37566,7 +37580,7 @@
         <v>1318447</v>
       </c>
       <c r="F408" s="97" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G408" s="5">
         <f t="shared" si="4"/>
@@ -37590,7 +37604,7 @@
         <v>475582</v>
       </c>
       <c r="F409" s="97" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G409" s="5">
         <f t="shared" si="4"/>
@@ -37614,7 +37628,7 @@
         <v>485610</v>
       </c>
       <c r="F410" s="97" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G410" s="5">
         <f t="shared" si="4"/>
@@ -37638,7 +37652,7 @@
         <v>246965</v>
       </c>
       <c r="F411" s="97" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="G411" s="5">
         <f t="shared" si="4"/>
@@ -37662,7 +37676,7 @@
         <v>225551</v>
       </c>
       <c r="F412" s="97" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G412" s="5">
         <f t="shared" si="4"/>
@@ -37686,7 +37700,7 @@
         <v>237699</v>
       </c>
       <c r="F413" s="97" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G413" s="5">
         <f t="shared" si="4"/>
@@ -37710,7 +37724,7 @@
         <v>178353</v>
       </c>
       <c r="F414" s="97" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G414" s="5">
         <f t="shared" si="4"/>
@@ -37734,7 +37748,7 @@
         <v>192327</v>
       </c>
       <c r="F415" s="97" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G415" s="5">
         <f t="shared" si="4"/>
@@ -37758,7 +37772,7 @@
         <v>153008</v>
       </c>
       <c r="F416" s="97" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G416" s="5">
         <f t="shared" si="4"/>
@@ -37782,7 +37796,7 @@
         <v>231298</v>
       </c>
       <c r="F417" s="97" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G417" s="5">
         <f t="shared" si="4"/>
@@ -37806,7 +37820,7 @@
         <v>333172</v>
       </c>
       <c r="F418" s="97" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G418" s="5">
         <f t="shared" si="4"/>
@@ -37830,7 +37844,7 @@
         <v>224729</v>
       </c>
       <c r="F419" s="97" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G419" s="5">
         <f t="shared" si="4"/>
@@ -37854,7 +37868,7 @@
         <v>280587</v>
       </c>
       <c r="F420" s="97" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G420" s="5">
         <f t="shared" si="4"/>
@@ -37878,7 +37892,7 @@
         <v>144506</v>
       </c>
       <c r="F421" s="97" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="G421" s="5">
         <f t="shared" si="4"/>
@@ -37902,7 +37916,7 @@
         <v>130189</v>
       </c>
       <c r="F422" s="97" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G422" s="5">
         <f t="shared" si="4"/>
@@ -37926,7 +37940,7 @@
         <v>258452</v>
       </c>
       <c r="F423" s="97" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G423" s="5">
         <f t="shared" si="4"/>
@@ -37950,7 +37964,7 @@
         <v>272845</v>
       </c>
       <c r="F424" s="97" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G424" s="5">
         <f t="shared" si="4"/>
@@ -37974,7 +37988,7 @@
         <v>122952</v>
       </c>
       <c r="F425" s="97" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="G425" s="5">
         <f t="shared" si="4"/>
@@ -37998,7 +38012,7 @@
         <v>183202</v>
       </c>
       <c r="F426" s="97" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G426" s="5">
         <f t="shared" si="4"/>
@@ -38022,7 +38036,7 @@
         <v>250879</v>
       </c>
       <c r="F427" s="97" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="G427" s="5">
         <f t="shared" si="4"/>
@@ -38046,7 +38060,7 @@
         <v>262375</v>
       </c>
       <c r="F428" s="97" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G428" s="5">
         <f t="shared" si="4"/>
@@ -38070,7 +38084,7 @@
         <v>153426</v>
       </c>
       <c r="F429" s="97" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G429" s="5">
         <f t="shared" si="4"/>
@@ -38094,7 +38108,7 @@
         <v>389490</v>
       </c>
       <c r="F430" s="97" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G430" s="5">
         <f t="shared" si="4"/>
@@ -38118,7 +38132,7 @@
         <v>195967</v>
       </c>
       <c r="F431" s="97" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="G431" s="5">
         <f t="shared" si="4"/>
@@ -38142,7 +38156,7 @@
         <v>230842</v>
       </c>
       <c r="F432" s="97" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G432" s="5">
         <f t="shared" si="4"/>
@@ -38166,7 +38180,7 @@
         <v>222115</v>
       </c>
       <c r="F433" s="97" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="G433" s="5">
         <f t="shared" si="4"/>
@@ -38190,7 +38204,7 @@
         <v>191100</v>
       </c>
       <c r="F434" s="97" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G434" s="5">
         <f t="shared" ref="G434:G497" si="5">A434/D434-1</f>
@@ -38214,7 +38228,7 @@
         <v>441843</v>
       </c>
       <c r="F435" s="97" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G435" s="5">
         <f t="shared" si="5"/>
@@ -38238,7 +38252,7 @@
         <v>448819</v>
       </c>
       <c r="F436" s="97" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G436" s="5">
         <f t="shared" si="5"/>
@@ -38262,7 +38276,7 @@
         <v>385154</v>
       </c>
       <c r="F437" s="97" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G437" s="5">
         <f t="shared" si="5"/>
@@ -38286,7 +38300,7 @@
         <v>331665</v>
       </c>
       <c r="F438" s="97" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G438" s="5">
         <f t="shared" si="5"/>
@@ -38310,7 +38324,7 @@
         <v>363339</v>
       </c>
       <c r="F439" s="97" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="G439" s="5">
         <f t="shared" si="5"/>
@@ -38334,7 +38348,7 @@
         <v>370806</v>
       </c>
       <c r="F440" s="97" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G440" s="5">
         <f t="shared" si="5"/>
@@ -38358,7 +38372,7 @@
         <v>282021</v>
       </c>
       <c r="F441" s="97" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G441" s="5">
         <f t="shared" si="5"/>
@@ -38382,7 +38396,7 @@
         <v>812590</v>
       </c>
       <c r="F442" s="97" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G442" s="5">
         <f t="shared" si="5"/>
@@ -38406,7 +38420,7 @@
         <v>498839</v>
       </c>
       <c r="F443" s="97" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="G443" s="5">
         <f t="shared" si="5"/>
@@ -38430,7 +38444,7 @@
         <v>272767</v>
       </c>
       <c r="F444" s="97" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G444" s="5">
         <f t="shared" si="5"/>
@@ -38454,7 +38468,7 @@
         <v>146427</v>
       </c>
       <c r="F445" s="97" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G445" s="5">
         <f t="shared" si="5"/>
@@ -38478,7 +38492,7 @@
         <v>253322</v>
       </c>
       <c r="F446" s="97" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G446" s="5">
         <f t="shared" si="5"/>
@@ -38502,7 +38516,7 @@
         <v>105882</v>
       </c>
       <c r="F447" s="97" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="G447" s="5">
         <f t="shared" si="5"/>
@@ -38526,7 +38540,7 @@
         <v>117380</v>
       </c>
       <c r="F448" s="97" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G448" s="5">
         <f t="shared" si="5"/>
@@ -38550,7 +38564,7 @@
         <v>179660</v>
       </c>
       <c r="F449" s="97" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="G449" s="5">
         <f t="shared" si="5"/>
@@ -38574,7 +38588,7 @@
         <v>204218</v>
       </c>
       <c r="F450" s="97" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G450" s="5">
         <f t="shared" si="5"/>
@@ -38598,7 +38612,7 @@
         <v>337288</v>
       </c>
       <c r="F451" s="97" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G451" s="5">
         <f t="shared" si="5"/>
@@ -38622,7 +38636,7 @@
         <v>348355</v>
       </c>
       <c r="F452" s="97" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G452" s="5">
         <f t="shared" si="5"/>
@@ -38646,7 +38660,7 @@
         <v>270071</v>
       </c>
       <c r="F453" s="97" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G453" s="5">
         <f t="shared" si="5"/>
@@ -38670,7 +38684,7 @@
         <v>786485</v>
       </c>
       <c r="F454" s="97" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G454" s="5">
         <f t="shared" si="5"/>
@@ -38694,7 +38708,7 @@
         <v>622461</v>
       </c>
       <c r="F455" s="97" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G455" s="5">
         <f t="shared" si="5"/>
@@ -38718,7 +38732,7 @@
         <v>364440</v>
       </c>
       <c r="F456" s="97" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G456" s="5">
         <f t="shared" si="5"/>
@@ -38742,7 +38756,7 @@
         <v>256856</v>
       </c>
       <c r="F457" s="97" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="G457" s="5">
         <f t="shared" si="5"/>
@@ -38766,7 +38780,7 @@
         <v>265722</v>
       </c>
       <c r="F458" s="97" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G458" s="5">
         <f t="shared" si="5"/>
@@ -38790,7 +38804,7 @@
         <v>279165</v>
       </c>
       <c r="F459" s="97" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="G459" s="5">
         <f t="shared" si="5"/>
@@ -38814,7 +38828,7 @@
         <v>158540</v>
       </c>
       <c r="F460" s="97" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G460" s="5">
         <f t="shared" si="5"/>
@@ -38838,7 +38852,7 @@
         <v>311298</v>
       </c>
       <c r="F461" s="97" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="G461" s="5">
         <f t="shared" si="5"/>
@@ -38862,7 +38876,7 @@
         <v>365354</v>
       </c>
       <c r="F462" s="97" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G462" s="5">
         <f t="shared" si="5"/>
@@ -38886,7 +38900,7 @@
         <v>554285</v>
       </c>
       <c r="F463" s="97" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G463" s="5">
         <f t="shared" si="5"/>
@@ -38910,7 +38924,7 @@
         <v>383440</v>
       </c>
       <c r="F464" s="97" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G464" s="5">
         <f t="shared" si="5"/>
@@ -38934,7 +38948,7 @@
         <v>297351</v>
       </c>
       <c r="F465" s="97" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="G465" s="5">
         <f t="shared" si="5"/>
@@ -38958,7 +38972,7 @@
         <v>343509</v>
       </c>
       <c r="F466" s="97" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G466" s="5">
         <f t="shared" si="5"/>
@@ -38982,7 +38996,7 @@
         <v>450831</v>
       </c>
       <c r="F467" s="97" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G467" s="5">
         <f t="shared" si="5"/>
@@ -39006,7 +39020,7 @@
         <v>196097</v>
       </c>
       <c r="F468" s="97" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G468" s="5">
         <f t="shared" si="5"/>
@@ -39030,7 +39044,7 @@
         <v>70973</v>
       </c>
       <c r="F469" s="97" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="G469" s="5">
         <f t="shared" si="5"/>
@@ -39054,7 +39068,7 @@
         <v>252306</v>
       </c>
       <c r="F470" s="97" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G470" s="5">
         <f t="shared" si="5"/>
@@ -39078,7 +39092,7 @@
         <v>231277</v>
       </c>
       <c r="F471" s="97" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G471" s="5">
         <f t="shared" si="5"/>
@@ -39102,7 +39116,7 @@
         <v>536805</v>
       </c>
       <c r="F472" s="97" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G472" s="5">
         <f t="shared" si="5"/>
@@ -39126,7 +39140,7 @@
         <v>548137</v>
       </c>
       <c r="F473" s="97" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="G473" s="5">
         <f t="shared" si="5"/>
@@ -39150,7 +39164,7 @@
         <v>397021</v>
       </c>
       <c r="F474" s="97" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G474" s="5">
         <f t="shared" si="5"/>
@@ -39174,7 +39188,7 @@
         <v>714902</v>
       </c>
       <c r="F475" s="97" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="G475" s="5">
         <f t="shared" si="5"/>
@@ -39198,7 +39212,7 @@
         <v>634498</v>
       </c>
       <c r="F476" s="97" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G476" s="5">
         <f t="shared" si="5"/>
@@ -39222,7 +39236,7 @@
         <v>1556320</v>
       </c>
       <c r="F477" s="97" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="G477" s="5">
         <f t="shared" si="5"/>
@@ -39246,7 +39260,7 @@
         <v>845868</v>
       </c>
       <c r="F478" s="97" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G478" s="5">
         <f t="shared" si="5"/>
@@ -39270,7 +39284,7 @@
         <v>689005</v>
       </c>
       <c r="F479" s="97" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="G479" s="5">
         <f t="shared" si="5"/>
@@ -39294,7 +39308,7 @@
         <v>667463</v>
       </c>
       <c r="F480" s="97" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G480" s="5">
         <f t="shared" si="5"/>
@@ -39318,7 +39332,7 @@
         <v>467219</v>
       </c>
       <c r="F481" s="97" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="G481" s="5">
         <f t="shared" si="5"/>
@@ -39342,7 +39356,7 @@
         <v>399928</v>
       </c>
       <c r="F482" s="97" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G482" s="5">
         <f t="shared" si="5"/>
@@ -39366,7 +39380,7 @@
         <v>883354</v>
       </c>
       <c r="F483" s="97" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="G483" s="5">
         <f t="shared" si="5"/>
@@ -39390,7 +39404,7 @@
         <v>639730</v>
       </c>
       <c r="F484" s="97" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G484" s="5">
         <f t="shared" si="5"/>
@@ -39414,7 +39428,7 @@
         <v>315487</v>
       </c>
       <c r="F485" s="97" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="G485" s="5">
         <f t="shared" si="5"/>
@@ -39438,7 +39452,7 @@
         <v>371739</v>
       </c>
       <c r="F486" s="97" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G486" s="5">
         <f t="shared" si="5"/>
@@ -39462,7 +39476,7 @@
         <v>305359</v>
       </c>
       <c r="F487" s="97" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G487" s="5">
         <f t="shared" si="5"/>
@@ -39486,7 +39500,7 @@
         <v>421917</v>
       </c>
       <c r="F488" s="97" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G488" s="5">
         <f t="shared" si="5"/>
@@ -39510,7 +39524,7 @@
         <v>330355</v>
       </c>
       <c r="F489" s="97" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="G489" s="5">
         <f t="shared" si="5"/>
@@ -39534,7 +39548,7 @@
         <v>174509</v>
       </c>
       <c r="F490" s="97" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G490" s="5">
         <f t="shared" si="5"/>
@@ -39558,7 +39572,7 @@
         <v>307993</v>
       </c>
       <c r="F491" s="97" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G491" s="5">
         <f t="shared" si="5"/>
@@ -39582,7 +39596,7 @@
         <v>213655</v>
       </c>
       <c r="F492" s="97" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G492" s="5">
         <f t="shared" si="5"/>
@@ -39606,7 +39620,7 @@
         <v>182192</v>
       </c>
       <c r="F493" s="97" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G493" s="5">
         <f t="shared" si="5"/>
@@ -39630,7 +39644,7 @@
         <v>361864</v>
       </c>
       <c r="F494" s="97" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G494" s="5">
         <f t="shared" si="5"/>
@@ -39654,7 +39668,7 @@
         <v>259498</v>
       </c>
       <c r="F495" s="97" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G495" s="5">
         <f t="shared" si="5"/>
@@ -39678,7 +39692,7 @@
         <v>481606</v>
       </c>
       <c r="F496" s="97" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G496" s="5">
         <f t="shared" si="5"/>
@@ -39702,7 +39716,7 @@
         <v>380693</v>
       </c>
       <c r="F497" s="97" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="G497" s="5">
         <f t="shared" si="5"/>
@@ -39726,7 +39740,7 @@
         <v>632898</v>
       </c>
       <c r="F498" s="97" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G498" s="5">
         <f t="shared" ref="G498:G561" si="6">A498/D498-1</f>
@@ -39750,7 +39764,7 @@
         <v>1147008</v>
       </c>
       <c r="F499" s="97" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G499" s="5">
         <f t="shared" si="6"/>
@@ -39774,7 +39788,7 @@
         <v>678506</v>
       </c>
       <c r="F500" s="97" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G500" s="5">
         <f t="shared" si="6"/>
@@ -39798,7 +39812,7 @@
         <v>360323</v>
       </c>
       <c r="F501" s="97" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="G501" s="5">
         <f t="shared" si="6"/>
@@ -39822,7 +39836,7 @@
         <v>296141</v>
       </c>
       <c r="F502" s="97" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G502" s="5">
         <f t="shared" si="6"/>
@@ -39846,7 +39860,7 @@
         <v>393414</v>
       </c>
       <c r="F503" s="97" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="G503" s="5">
         <f t="shared" si="6"/>
@@ -39870,7 +39884,7 @@
         <v>409419</v>
       </c>
       <c r="F504" s="97" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G504" s="5">
         <f t="shared" si="6"/>
@@ -39894,7 +39908,7 @@
         <v>582318</v>
       </c>
       <c r="F505" s="97" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="G505" s="5">
         <f t="shared" si="6"/>
@@ -39918,7 +39932,7 @@
         <v>319183</v>
       </c>
       <c r="F506" s="97" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G506" s="5">
         <f t="shared" si="6"/>
@@ -39942,7 +39956,7 @@
         <v>303906</v>
       </c>
       <c r="F507" s="97" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="G507" s="5">
         <f t="shared" si="6"/>
@@ -39966,7 +39980,7 @@
         <v>287649</v>
       </c>
       <c r="F508" s="97" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G508" s="5">
         <f t="shared" si="6"/>
@@ -39990,7 +40004,7 @@
         <v>235923</v>
       </c>
       <c r="F509" s="97" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="G509" s="5">
         <f t="shared" si="6"/>
@@ -40014,7 +40028,7 @@
         <v>247041</v>
       </c>
       <c r="F510" s="97" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G510" s="5">
         <f t="shared" si="6"/>
@@ -40038,7 +40052,7 @@
         <v>158825</v>
       </c>
       <c r="F511" s="97" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="G511" s="5">
         <f t="shared" si="6"/>
@@ -40062,7 +40076,7 @@
         <v>150811</v>
       </c>
       <c r="F512" s="97" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G512" s="5">
         <f t="shared" si="6"/>
@@ -40086,7 +40100,7 @@
         <v>263537</v>
       </c>
       <c r="F513" s="97" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="G513" s="5">
         <f t="shared" si="6"/>
@@ -40110,7 +40124,7 @@
         <v>248384</v>
       </c>
       <c r="F514" s="97" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G514" s="5">
         <f t="shared" si="6"/>
@@ -40134,7 +40148,7 @@
         <v>248919</v>
       </c>
       <c r="F515" s="97" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="G515" s="5">
         <f t="shared" si="6"/>
@@ -40158,7 +40172,7 @@
         <v>261492</v>
       </c>
       <c r="F516" s="97" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G516" s="5">
         <f t="shared" si="6"/>
@@ -40182,7 +40196,7 @@
         <v>310107</v>
       </c>
       <c r="F517" s="97" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="G517" s="5">
         <f t="shared" si="6"/>
@@ -40206,7 +40220,7 @@
         <v>614402</v>
       </c>
       <c r="F518" s="97" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G518" s="5">
         <f t="shared" si="6"/>
@@ -40230,7 +40244,7 @@
         <v>396500</v>
       </c>
       <c r="F519" s="97" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="G519" s="5">
         <f t="shared" si="6"/>
@@ -40254,7 +40268,7 @@
         <v>392986</v>
       </c>
       <c r="F520" s="97" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G520" s="5">
         <f t="shared" si="6"/>
@@ -40278,7 +40292,7 @@
         <v>402300</v>
       </c>
       <c r="F521" s="97" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="G521" s="5">
         <f t="shared" si="6"/>
@@ -40302,7 +40316,7 @@
         <v>433085</v>
       </c>
       <c r="F522" s="97" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G522" s="5">
         <f t="shared" si="6"/>
@@ -40326,7 +40340,7 @@
         <v>841023</v>
       </c>
       <c r="F523" s="97" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="G523" s="5">
         <f t="shared" si="6"/>
@@ -40350,7 +40364,7 @@
         <v>683289</v>
       </c>
       <c r="F524" s="97" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G524" s="5">
         <f t="shared" si="6"/>
@@ -40374,7 +40388,7 @@
         <v>510505</v>
       </c>
       <c r="F525" s="97" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="G525" s="5">
         <f t="shared" si="6"/>
@@ -40398,7 +40412,7 @@
         <v>315379</v>
       </c>
       <c r="F526" s="97" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G526" s="5">
         <f t="shared" si="6"/>
@@ -40422,7 +40436,7 @@
         <v>229067</v>
       </c>
       <c r="F527" s="97" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="G527" s="5">
         <f t="shared" si="6"/>
@@ -40446,7 +40460,7 @@
         <v>358066</v>
       </c>
       <c r="F528" s="97" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G528" s="5">
         <f t="shared" si="6"/>
@@ -40470,7 +40484,7 @@
         <v>253273</v>
       </c>
       <c r="F529" s="97" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G529" s="5">
         <f t="shared" si="6"/>
@@ -40494,7 +40508,7 @@
         <v>181353</v>
       </c>
       <c r="F530" s="97" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G530" s="5">
         <f t="shared" si="6"/>
@@ -40518,7 +40532,7 @@
         <v>223849</v>
       </c>
       <c r="F531" s="97" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="G531" s="5">
         <f t="shared" si="6"/>
@@ -40542,7 +40556,7 @@
         <v>185817</v>
       </c>
       <c r="F532" s="97" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G532" s="5">
         <f t="shared" si="6"/>
@@ -40566,7 +40580,7 @@
         <v>185023</v>
       </c>
       <c r="F533" s="97" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="G533" s="5">
         <f t="shared" si="6"/>
@@ -40590,7 +40604,7 @@
         <v>207559</v>
       </c>
       <c r="F534" s="97" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G534" s="5">
         <f t="shared" si="6"/>
@@ -40614,7 +40628,7 @@
         <v>347626</v>
       </c>
       <c r="F535" s="97" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="G535" s="5">
         <f t="shared" si="6"/>
@@ -40638,7 +40652,7 @@
         <v>328863</v>
       </c>
       <c r="F536" s="97" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G536" s="5">
         <f t="shared" si="6"/>
@@ -40662,7 +40676,7 @@
         <v>453990</v>
       </c>
       <c r="F537" s="97" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="G537" s="5">
         <f t="shared" si="6"/>
@@ -40686,7 +40700,7 @@
         <v>377084</v>
       </c>
       <c r="F538" s="97" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G538" s="5">
         <f t="shared" si="6"/>
@@ -40710,7 +40724,7 @@
         <v>344664</v>
       </c>
       <c r="F539" s="97" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="G539" s="5">
         <f t="shared" si="6"/>
@@ -40734,7 +40748,7 @@
         <v>415822</v>
       </c>
       <c r="F540" s="97" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G540" s="5">
         <f t="shared" si="6"/>
@@ -40758,7 +40772,7 @@
         <v>375564</v>
       </c>
       <c r="F541" s="97" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="G541" s="5">
         <f t="shared" si="6"/>
@@ -40782,7 +40796,7 @@
         <v>204089</v>
       </c>
       <c r="F542" s="97" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="G542" s="5">
         <f t="shared" si="6"/>
@@ -40806,7 +40820,7 @@
         <v>291848</v>
       </c>
       <c r="F543" s="97" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="G543" s="5">
         <f t="shared" si="6"/>
@@ -40830,7 +40844,7 @@
         <v>308870</v>
       </c>
       <c r="F544" s="97" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G544" s="5">
         <f t="shared" si="6"/>
@@ -40854,7 +40868,7 @@
         <v>408678</v>
       </c>
       <c r="F545" s="97" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="G545" s="5">
         <f t="shared" si="6"/>
@@ -40878,7 +40892,7 @@
         <v>440126</v>
       </c>
       <c r="F546" s="97" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="G546" s="5">
         <f t="shared" si="6"/>
@@ -40902,7 +40916,7 @@
         <v>647361</v>
       </c>
       <c r="F547" s="97" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G547" s="5">
         <f t="shared" si="6"/>
@@ -40926,7 +40940,7 @@
         <v>749870</v>
       </c>
       <c r="F548" s="97" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G548" s="5">
         <f t="shared" si="6"/>
@@ -40950,7 +40964,7 @@
         <v>1621906</v>
       </c>
       <c r="F549" s="97" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G549" s="5">
         <f t="shared" si="6"/>
@@ -40974,7 +40988,7 @@
         <v>493435</v>
       </c>
       <c r="F550" s="97" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="G550" s="5">
         <f t="shared" si="6"/>
@@ -40998,7 +41012,7 @@
         <v>338057</v>
       </c>
       <c r="F551" s="97" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="G551" s="5">
         <f t="shared" si="6"/>
@@ -41022,7 +41036,7 @@
         <v>261708</v>
       </c>
       <c r="F552" s="97" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="G552" s="5">
         <f t="shared" si="6"/>
@@ -41046,7 +41060,7 @@
         <v>267420</v>
       </c>
       <c r="F553" s="97" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G553" s="5">
         <f t="shared" si="6"/>
@@ -41070,7 +41084,7 @@
         <v>335675</v>
       </c>
       <c r="F554" s="97" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G554" s="5">
         <f t="shared" si="6"/>
@@ -41094,7 +41108,7 @@
         <v>273405</v>
       </c>
       <c r="F555" s="97" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="G555" s="5">
         <f t="shared" si="6"/>
@@ -41118,7 +41132,7 @@
         <v>381664</v>
       </c>
       <c r="F556" s="97" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G556" s="5">
         <f t="shared" si="6"/>
@@ -41142,7 +41156,7 @@
         <v>324196</v>
       </c>
       <c r="F557" s="97" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G557" s="5">
         <f t="shared" si="6"/>
@@ -41166,7 +41180,7 @@
         <v>376152</v>
       </c>
       <c r="F558" s="97" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G558" s="5">
         <f t="shared" si="6"/>
@@ -41190,7 +41204,7 @@
         <v>725603</v>
       </c>
       <c r="F559" s="97" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G559" s="5">
         <f t="shared" si="6"/>
@@ -41214,7 +41228,7 @@
         <v>440067</v>
       </c>
       <c r="F560" s="97" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G560" s="5">
         <f t="shared" si="6"/>
@@ -41238,7 +41252,7 @@
         <v>419878</v>
       </c>
       <c r="F561" s="97" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="G561" s="5">
         <f t="shared" si="6"/>
@@ -41262,7 +41276,7 @@
         <v>414821</v>
       </c>
       <c r="F562" s="97" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="G562" s="5">
         <f t="shared" ref="G562:G625" si="7">A562/D562-1</f>
@@ -41286,7 +41300,7 @@
         <v>402008</v>
       </c>
       <c r="F563" s="97" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="G563" s="5">
         <f t="shared" si="7"/>
@@ -41310,7 +41324,7 @@
         <v>517965</v>
       </c>
       <c r="F564" s="97" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="G564" s="5">
         <f t="shared" si="7"/>
@@ -41334,7 +41348,7 @@
         <v>463973</v>
       </c>
       <c r="F565" s="97" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="G565" s="5">
         <f t="shared" si="7"/>
@@ -41358,7 +41372,7 @@
         <v>335051</v>
       </c>
       <c r="F566" s="97" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="G566" s="5">
         <f t="shared" si="7"/>
@@ -41382,7 +41396,7 @@
         <v>273176</v>
       </c>
       <c r="F567" s="97" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="G567" s="5">
         <f t="shared" si="7"/>
@@ -41406,7 +41420,7 @@
         <v>313639</v>
       </c>
       <c r="F568" s="97" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G568" s="5">
         <f t="shared" si="7"/>
@@ -41430,7 +41444,7 @@
         <v>310618</v>
       </c>
       <c r="F569" s="97" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="G569" s="5">
         <f t="shared" si="7"/>
@@ -41454,7 +41468,7 @@
         <v>272414</v>
       </c>
       <c r="F570" s="97" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G570" s="5">
         <f t="shared" si="7"/>
@@ -41478,7 +41492,7 @@
         <v>378326</v>
       </c>
       <c r="F571" s="97" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="G571" s="5">
         <f t="shared" si="7"/>
@@ -41502,7 +41516,7 @@
         <v>350036</v>
       </c>
       <c r="F572" s="97" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="G572" s="5">
         <f t="shared" si="7"/>
@@ -41526,7 +41540,7 @@
         <v>262316</v>
       </c>
       <c r="F573" s="97" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="G573" s="5">
         <f t="shared" si="7"/>
@@ -41550,7 +41564,7 @@
         <v>346062</v>
       </c>
       <c r="F574" s="97" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G574" s="5">
         <f t="shared" si="7"/>
@@ -41574,7 +41588,7 @@
         <v>320998</v>
       </c>
       <c r="F575" s="97" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="G575" s="5">
         <f t="shared" si="7"/>
@@ -41598,7 +41612,7 @@
         <v>373262</v>
       </c>
       <c r="F576" s="97" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="G576" s="5">
         <f t="shared" si="7"/>
@@ -41622,7 +41636,7 @@
         <v>300046</v>
       </c>
       <c r="F577" s="97" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="G577" s="5">
         <f t="shared" si="7"/>
@@ -41646,7 +41660,7 @@
         <v>509020</v>
       </c>
       <c r="F578" s="97" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="G578" s="5">
         <f t="shared" si="7"/>
@@ -41670,7 +41684,7 @@
         <v>332008</v>
       </c>
       <c r="F579" s="97" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="G579" s="5">
         <f t="shared" si="7"/>
@@ -41694,7 +41708,7 @@
         <v>558848</v>
       </c>
       <c r="F580" s="97" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G580" s="5">
         <f t="shared" si="7"/>
@@ -41718,7 +41732,7 @@
         <v>282075</v>
       </c>
       <c r="F581" s="97" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="G581" s="5">
         <f t="shared" si="7"/>
@@ -41742,7 +41756,7 @@
         <v>510142</v>
       </c>
       <c r="F582" s="97" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G582" s="5">
         <f t="shared" si="7"/>
@@ -41766,7 +41780,7 @@
         <v>325256</v>
       </c>
       <c r="F583" s="97" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G583" s="5">
         <f t="shared" si="7"/>
@@ -41790,7 +41804,7 @@
         <v>420583</v>
       </c>
       <c r="F584" s="97" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G584" s="5">
         <f t="shared" si="7"/>
@@ -41814,7 +41828,7 @@
         <v>199174</v>
       </c>
       <c r="F585" s="97" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G585" s="5">
         <f t="shared" si="7"/>
@@ -41838,7 +41852,7 @@
         <v>225611</v>
       </c>
       <c r="F586" s="97" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G586" s="5">
         <f t="shared" si="7"/>
@@ -41862,7 +41876,7 @@
         <v>322573</v>
       </c>
       <c r="F587" s="97" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G587" s="5">
         <f t="shared" si="7"/>
@@ -41886,7 +41900,7 @@
         <v>146677</v>
       </c>
       <c r="F588" s="97" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G588" s="5">
         <f t="shared" si="7"/>
@@ -41910,7 +41924,7 @@
         <v>244675</v>
       </c>
       <c r="F589" s="97" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G589" s="5">
         <f t="shared" si="7"/>
@@ -41934,7 +41948,7 @@
         <v>292738</v>
       </c>
       <c r="F590" s="97" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G590" s="5">
         <f t="shared" si="7"/>
@@ -41958,7 +41972,7 @@
         <v>241773</v>
       </c>
       <c r="F591" s="97" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G591" s="5">
         <f t="shared" si="7"/>
@@ -41982,7 +41996,7 @@
         <v>267491</v>
       </c>
       <c r="F592" s="97" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G592" s="5">
         <f t="shared" si="7"/>
@@ -42006,7 +42020,7 @@
         <v>289421</v>
       </c>
       <c r="F593" s="97" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G593" s="5">
         <f t="shared" si="7"/>
@@ -42030,7 +42044,7 @@
         <v>254268</v>
       </c>
       <c r="F594" s="97" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G594" s="5">
         <f t="shared" si="7"/>
@@ -42054,7 +42068,7 @@
         <v>334875</v>
       </c>
       <c r="F595" s="97" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G595" s="5">
         <f t="shared" si="7"/>
@@ -42078,7 +42092,7 @@
         <v>222155</v>
       </c>
       <c r="F596" s="97" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G596" s="5">
         <f t="shared" si="7"/>
@@ -42102,7 +42116,7 @@
         <v>400887</v>
       </c>
       <c r="F597" s="97" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G597" s="5">
         <f t="shared" si="7"/>
@@ -42126,7 +42140,7 @@
         <v>321040</v>
       </c>
       <c r="F598" s="97" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G598" s="5">
         <f t="shared" si="7"/>
@@ -42150,7 +42164,7 @@
         <v>371620</v>
       </c>
       <c r="F599" s="97" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="G599" s="5">
         <f t="shared" si="7"/>
@@ -42174,7 +42188,7 @@
         <v>250056</v>
       </c>
       <c r="F600" s="97" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G600" s="5">
         <f t="shared" si="7"/>
@@ -42198,7 +42212,7 @@
         <v>234923</v>
       </c>
       <c r="F601" s="97" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G601" s="5">
         <f t="shared" si="7"/>
@@ -42222,7 +42236,7 @@
         <v>624065</v>
       </c>
       <c r="F602" s="97" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G602" s="5">
         <f t="shared" si="7"/>
@@ -42246,7 +42260,7 @@
         <v>297238</v>
       </c>
       <c r="F603" s="97" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G603" s="5">
         <f t="shared" si="7"/>
@@ -42270,7 +42284,7 @@
         <v>351219</v>
       </c>
       <c r="F604" s="97" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G604" s="5">
         <f t="shared" si="7"/>
@@ -42294,7 +42308,7 @@
         <v>287706</v>
       </c>
       <c r="F605" s="97" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="G605" s="5">
         <f t="shared" si="7"/>
@@ -42318,7 +42332,7 @@
         <v>451734</v>
       </c>
       <c r="F606" s="97" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G606" s="5">
         <f t="shared" si="7"/>
@@ -42342,7 +42356,7 @@
         <v>334421</v>
       </c>
       <c r="F607" s="97" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G607" s="5">
         <f t="shared" si="7"/>
@@ -42366,7 +42380,7 @@
         <v>312228</v>
       </c>
       <c r="F608" s="97" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G608" s="5">
         <f t="shared" si="7"/>
@@ -42390,7 +42404,7 @@
         <v>521013</v>
       </c>
       <c r="F609" s="97" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G609" s="5">
         <f t="shared" si="7"/>
@@ -42414,7 +42428,7 @@
         <v>549705</v>
       </c>
       <c r="F610" s="97" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G610" s="5">
         <f t="shared" si="7"/>
@@ -42438,7 +42452,7 @@
         <v>1117057</v>
       </c>
       <c r="F611" s="97" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="G611" s="5">
         <f t="shared" si="7"/>
@@ -42462,7 +42476,7 @@
         <v>635562</v>
       </c>
       <c r="F612" s="97" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G612" s="5">
         <f t="shared" si="7"/>
@@ -42486,7 +42500,7 @@
         <v>377902</v>
       </c>
       <c r="F613" s="97" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G613" s="5">
         <f t="shared" si="7"/>
@@ -42510,7 +42524,7 @@
         <v>605593</v>
       </c>
       <c r="F614" s="97" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G614" s="5">
         <f t="shared" si="7"/>
@@ -42534,7 +42548,7 @@
         <v>414450</v>
       </c>
       <c r="F615" s="97" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G615" s="5">
         <f t="shared" si="7"/>
@@ -42558,7 +42572,7 @@
         <v>293371</v>
       </c>
       <c r="F616" s="97" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G616" s="5">
         <f t="shared" si="7"/>
@@ -42582,7 +42596,7 @@
         <v>291898</v>
       </c>
       <c r="F617" s="97" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G617" s="5">
         <f t="shared" si="7"/>
@@ -42606,7 +42620,7 @@
         <v>248829</v>
       </c>
       <c r="F618" s="97" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G618" s="5">
         <f t="shared" si="7"/>
@@ -42630,7 +42644,7 @@
         <v>248849</v>
       </c>
       <c r="F619" s="97" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="G619" s="5">
         <f t="shared" si="7"/>
@@ -42654,7 +42668,7 @@
         <v>408103</v>
       </c>
       <c r="F620" s="97" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G620" s="5">
         <f t="shared" si="7"/>
@@ -42678,7 +42692,7 @@
         <v>342709</v>
       </c>
       <c r="F621" s="97" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G621" s="5">
         <f t="shared" si="7"/>
@@ -42702,7 +42716,7 @@
         <v>471664</v>
       </c>
       <c r="F622" s="97" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G622" s="5">
         <f t="shared" si="7"/>
@@ -42726,7 +42740,7 @@
         <v>286297</v>
       </c>
       <c r="F623" s="97" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="G623" s="5">
         <f t="shared" si="7"/>
@@ -42750,7 +42764,7 @@
         <v>279011</v>
       </c>
       <c r="F624" s="97" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="G624" s="5">
         <f t="shared" si="7"/>
@@ -42774,7 +42788,7 @@
         <v>424781</v>
       </c>
       <c r="F625" s="97" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="G625" s="5">
         <f t="shared" si="7"/>
@@ -42798,7 +42812,7 @@
         <v>204605</v>
       </c>
       <c r="F626" s="97" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="G626" s="5">
         <f t="shared" ref="G626:G689" si="8">A626/D626-1</f>
@@ -42822,7 +42836,7 @@
         <v>300711</v>
       </c>
       <c r="F627" s="97" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="G627" s="5">
         <f t="shared" si="8"/>
@@ -42846,7 +42860,7 @@
         <v>259177</v>
       </c>
       <c r="F628" s="97" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="G628" s="5">
         <f t="shared" si="8"/>
@@ -42870,7 +42884,7 @@
         <v>269197</v>
       </c>
       <c r="F629" s="97" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="G629" s="5">
         <f t="shared" si="8"/>
@@ -42894,7 +42908,7 @@
         <v>241501</v>
       </c>
       <c r="F630" s="97" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="G630" s="5">
         <f t="shared" si="8"/>
@@ -42918,7 +42932,7 @@
         <v>251183</v>
       </c>
       <c r="F631" s="97" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="G631" s="5">
         <f t="shared" si="8"/>
@@ -42942,7 +42956,7 @@
         <v>305692</v>
       </c>
       <c r="F632" s="97" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="G632" s="5">
         <f t="shared" si="8"/>
@@ -42966,7 +42980,7 @@
         <v>369110</v>
       </c>
       <c r="F633" s="97" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="G633" s="5">
         <f t="shared" si="8"/>
@@ -42990,7 +43004,7 @@
         <v>238804</v>
       </c>
       <c r="F634" s="97" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G634" s="5">
         <f t="shared" si="8"/>
@@ -43014,7 +43028,7 @@
         <v>307749</v>
       </c>
       <c r="F635" s="97" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="G635" s="5">
         <f t="shared" si="8"/>
@@ -43038,7 +43052,7 @@
         <v>290883</v>
       </c>
       <c r="F636" s="97" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="G636" s="5">
         <f t="shared" si="8"/>
@@ -43062,7 +43076,7 @@
         <v>212534</v>
       </c>
       <c r="F637" s="97" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="G637" s="5">
         <f t="shared" si="8"/>
@@ -43086,7 +43100,7 @@
         <v>307102</v>
       </c>
       <c r="F638" s="97" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="G638" s="5">
         <f t="shared" si="8"/>
@@ -43110,7 +43124,7 @@
         <v>467000</v>
       </c>
       <c r="F639" s="97" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="G639" s="5">
         <f t="shared" si="8"/>
@@ -43134,7 +43148,7 @@
         <v>515816</v>
       </c>
       <c r="F640" s="97" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G640" s="5">
         <f t="shared" si="8"/>
@@ -43158,7 +43172,7 @@
         <v>281210</v>
       </c>
       <c r="F641" s="97" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="G641" s="5">
         <f t="shared" si="8"/>
@@ -43182,7 +43196,7 @@
         <v>231273</v>
       </c>
       <c r="F642" s="97" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G642" s="5">
         <f t="shared" si="8"/>
@@ -43206,7 +43220,7 @@
         <v>399450</v>
       </c>
       <c r="F643" s="97" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="G643" s="5">
         <f t="shared" si="8"/>
@@ -43230,7 +43244,7 @@
         <v>378913</v>
       </c>
       <c r="F644" s="97" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G644" s="5">
         <f t="shared" si="8"/>
@@ -43254,7 +43268,7 @@
         <v>287708</v>
       </c>
       <c r="F645" s="97" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="G645" s="5">
         <f t="shared" si="8"/>
@@ -43278,7 +43292,7 @@
         <v>311614</v>
       </c>
       <c r="F646" s="97" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G646" s="5">
         <f t="shared" si="8"/>
@@ -43302,7 +43316,7 @@
         <v>327296</v>
       </c>
       <c r="F647" s="97" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="G647" s="5">
         <f t="shared" si="8"/>
@@ -43326,7 +43340,7 @@
         <v>350358</v>
       </c>
       <c r="F648" s="97" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G648" s="5">
         <f t="shared" si="8"/>
@@ -43350,7 +43364,7 @@
         <v>330604</v>
       </c>
       <c r="F649" s="97" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="G649" s="5">
         <f t="shared" si="8"/>
@@ -43374,7 +43388,7 @@
         <v>347595</v>
       </c>
       <c r="F650" s="97" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="G650" s="5">
         <f t="shared" si="8"/>
@@ -43398,7 +43412,7 @@
         <v>248552</v>
       </c>
       <c r="F651" s="97" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="G651" s="5">
         <f t="shared" si="8"/>
@@ -43422,7 +43436,7 @@
         <v>358088</v>
       </c>
       <c r="F652" s="97" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G652" s="5">
         <f t="shared" si="8"/>
@@ -43446,7 +43460,7 @@
         <v>292877</v>
       </c>
       <c r="F653" s="97" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="G653" s="5">
         <f t="shared" si="8"/>
@@ -43470,7 +43484,7 @@
         <v>307573</v>
       </c>
       <c r="F654" s="97" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G654" s="5">
         <f t="shared" si="8"/>
@@ -43494,7 +43508,7 @@
         <v>328053</v>
       </c>
       <c r="F655" s="97" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G655" s="5">
         <f t="shared" si="8"/>
@@ -43518,7 +43532,7 @@
         <v>436099</v>
       </c>
       <c r="F656" s="97" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G656" s="5">
         <f t="shared" si="8"/>
@@ -43542,7 +43556,7 @@
         <v>427985</v>
       </c>
       <c r="F657" s="97" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G657" s="5">
         <f t="shared" si="8"/>
@@ -43566,7 +43580,7 @@
         <v>1003496</v>
       </c>
       <c r="F658" s="97" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G658" s="5">
         <f t="shared" si="8"/>
@@ -43590,7 +43604,7 @@
         <v>447708</v>
       </c>
       <c r="F659" s="97" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="G659" s="5">
         <f t="shared" si="8"/>
@@ -43614,7 +43628,7 @@
         <v>290956</v>
       </c>
       <c r="F660" s="97" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G660" s="5">
         <f t="shared" si="8"/>
@@ -43638,7 +43652,7 @@
         <v>449072</v>
       </c>
       <c r="F661" s="97" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="G661" s="5">
         <f t="shared" si="8"/>
@@ -43662,7 +43676,7 @@
         <v>254022</v>
       </c>
       <c r="F662" s="97" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G662" s="5">
         <f t="shared" si="8"/>
@@ -43686,7 +43700,7 @@
         <v>505521</v>
       </c>
       <c r="F663" s="97" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="G663" s="5">
         <f t="shared" si="8"/>
@@ -43710,7 +43724,7 @@
         <v>406106</v>
       </c>
       <c r="F664" s="97" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G664" s="5">
         <f t="shared" si="8"/>
@@ -43734,7 +43748,7 @@
         <v>437399</v>
       </c>
       <c r="F665" s="97" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="G665" s="5">
         <f t="shared" si="8"/>
@@ -43758,7 +43772,7 @@
         <v>169702</v>
       </c>
       <c r="F666" s="97" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G666" s="5">
         <f t="shared" si="8"/>
@@ -43782,7 +43796,7 @@
         <v>209750</v>
       </c>
       <c r="F667" s="97" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="G667" s="5">
         <f t="shared" si="8"/>
@@ -43806,7 +43820,7 @@
         <v>301958</v>
       </c>
       <c r="F668" s="97" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G668" s="5">
         <f t="shared" si="8"/>
@@ -43830,7 +43844,7 @@
         <v>217682</v>
       </c>
       <c r="F669" s="97" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="G669" s="5">
         <f t="shared" si="8"/>
@@ -43854,7 +43868,7 @@
         <v>212836</v>
       </c>
       <c r="F670" s="97" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="G670" s="5">
         <f t="shared" si="8"/>
@@ -43878,7 +43892,7 @@
         <v>133447</v>
       </c>
       <c r="F671" s="97" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="G671" s="5">
         <f t="shared" si="8"/>
@@ -43902,7 +43916,7 @@
         <v>210772</v>
       </c>
       <c r="F672" s="97" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="G672" s="5">
         <f t="shared" si="8"/>
@@ -43926,7 +43940,7 @@
         <v>354017</v>
       </c>
       <c r="F673" s="97" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="G673" s="5">
         <f t="shared" si="8"/>
@@ -43950,7 +43964,7 @@
         <v>230903</v>
       </c>
       <c r="F674" s="97" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="G674" s="5">
         <f t="shared" si="8"/>
@@ -43974,7 +43988,7 @@
         <v>352846</v>
       </c>
       <c r="F675" s="97" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G675" s="5">
         <f t="shared" si="8"/>
@@ -43998,7 +44012,7 @@
         <v>234386</v>
       </c>
       <c r="F676" s="97" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G676" s="5">
         <f t="shared" si="8"/>
@@ -44022,7 +44036,7 @@
         <v>268750</v>
       </c>
       <c r="F677" s="97" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="G677" s="5">
         <f t="shared" si="8"/>
@@ -44046,7 +44060,7 @@
         <v>251317</v>
       </c>
       <c r="F678" s="97" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="G678" s="5">
         <f t="shared" si="8"/>
@@ -44070,7 +44084,7 @@
         <v>319408</v>
       </c>
       <c r="F679" s="97" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="G679" s="5">
         <f t="shared" si="8"/>
@@ -44094,7 +44108,7 @@
         <v>209939</v>
       </c>
       <c r="F680" s="97" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="G680" s="5">
         <f t="shared" si="8"/>
@@ -44118,7 +44132,7 @@
         <v>308862</v>
       </c>
       <c r="F681" s="97" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G681" s="5">
         <f t="shared" si="8"/>
@@ -44142,7 +44156,7 @@
         <v>335396</v>
       </c>
       <c r="F682" s="97" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="G682" s="5">
         <f t="shared" si="8"/>
@@ -44166,7 +44180,7 @@
         <v>274538</v>
       </c>
       <c r="F683" s="97" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="G683" s="5">
         <f t="shared" si="8"/>
@@ -44190,7 +44204,7 @@
         <v>327631</v>
       </c>
       <c r="F684" s="97" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G684" s="5">
         <f t="shared" si="8"/>
@@ -44214,7 +44228,7 @@
         <v>339320</v>
       </c>
       <c r="F685" s="97" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="G685" s="5">
         <f t="shared" si="8"/>
@@ -44238,7 +44252,7 @@
         <v>411480</v>
       </c>
       <c r="F686" s="97" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="G686" s="5">
         <f t="shared" si="8"/>
@@ -44262,7 +44276,7 @@
         <v>235916</v>
       </c>
       <c r="F687" s="97" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="G687" s="5">
         <f t="shared" si="8"/>
@@ -44286,7 +44300,7 @@
         <v>516798</v>
       </c>
       <c r="F688" s="97" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G688" s="5">
         <f t="shared" si="8"/>
@@ -44310,7 +44324,7 @@
         <v>415212</v>
       </c>
       <c r="F689" s="97" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="G689" s="5">
         <f t="shared" si="8"/>
@@ -44334,7 +44348,7 @@
         <v>604133</v>
       </c>
       <c r="F690" s="97" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G690" s="5">
         <f t="shared" ref="G690:G753" si="9">A690/D690-1</f>
@@ -44358,7 +44372,7 @@
         <v>222248</v>
       </c>
       <c r="F691" s="97" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="G691" s="5">
         <f t="shared" si="9"/>
@@ -44382,7 +44396,7 @@
         <v>236906</v>
       </c>
       <c r="F692" s="97" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G692" s="5">
         <f t="shared" si="9"/>
@@ -44406,7 +44420,7 @@
         <v>312834</v>
       </c>
       <c r="F693" s="97" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="G693" s="5">
         <f t="shared" si="9"/>
@@ -44430,7 +44444,7 @@
         <v>278836</v>
       </c>
       <c r="F694" s="97" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="G694" s="5">
         <f t="shared" si="9"/>
@@ -44454,7 +44468,7 @@
         <v>160468</v>
       </c>
       <c r="F695" s="97" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="G695" s="5">
         <f t="shared" si="9"/>
@@ -44478,7 +44492,7 @@
         <v>161372</v>
       </c>
       <c r="F696" s="97" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G696" s="5">
         <f t="shared" si="9"/>
@@ -44502,7 +44516,7 @@
         <v>153793</v>
       </c>
       <c r="F697" s="97" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="G697" s="5">
         <f t="shared" si="9"/>
@@ -44526,7 +44540,7 @@
         <v>178928</v>
       </c>
       <c r="F698" s="97" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="G698" s="5">
         <f t="shared" si="9"/>
@@ -44550,7 +44564,7 @@
         <v>185855</v>
       </c>
       <c r="F699" s="97" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="G699" s="5">
         <f t="shared" si="9"/>
@@ -44574,7 +44588,7 @@
         <v>249463</v>
       </c>
       <c r="F700" s="97" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G700" s="5">
         <f t="shared" si="9"/>
@@ -44598,7 +44612,7 @@
         <v>203133</v>
       </c>
       <c r="F701" s="97" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="G701" s="5">
         <f t="shared" si="9"/>
@@ -44622,7 +44636,7 @@
         <v>327939</v>
       </c>
       <c r="F702" s="97" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G702" s="5">
         <f t="shared" si="9"/>
@@ -44646,7 +44660,7 @@
         <v>232687</v>
       </c>
       <c r="F703" s="97" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="G703" s="5">
         <f t="shared" si="9"/>
@@ -44670,7 +44684,7 @@
         <v>503164</v>
       </c>
       <c r="F704" s="97" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G704" s="5">
         <f t="shared" si="9"/>
@@ -44694,7 +44708,7 @@
         <v>223925</v>
       </c>
       <c r="F705" s="97" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="G705" s="5">
         <f t="shared" si="9"/>
@@ -44718,7 +44732,7 @@
         <v>302278</v>
       </c>
       <c r="F706" s="97" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="G706" s="5">
         <f t="shared" si="9"/>
@@ -44742,7 +44756,7 @@
         <v>325600</v>
       </c>
       <c r="F707" s="97" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="G707" s="5">
         <f t="shared" si="9"/>
@@ -44766,7 +44780,7 @@
         <v>497750</v>
       </c>
       <c r="F708" s="97" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="G708" s="5">
         <f t="shared" si="9"/>
@@ -44790,7 +44804,7 @@
         <v>375640</v>
       </c>
       <c r="F709" s="97" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="G709" s="5">
         <f t="shared" si="9"/>
@@ -44814,7 +44828,7 @@
         <v>727122</v>
       </c>
       <c r="F710" s="97" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="G710" s="5">
         <f t="shared" si="9"/>
@@ -44838,7 +44852,7 @@
         <v>514924</v>
       </c>
       <c r="F711" s="97" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="G711" s="5">
         <f t="shared" si="9"/>
@@ -44862,7 +44876,7 @@
         <v>610502</v>
       </c>
       <c r="F712" s="97" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G712" s="5">
         <f t="shared" si="9"/>
@@ -44886,7 +44900,7 @@
         <v>842275</v>
       </c>
       <c r="F713" s="97" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="G713" s="5">
         <f t="shared" si="9"/>
@@ -44910,7 +44924,7 @@
         <v>259143</v>
       </c>
       <c r="F714" s="97" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="G714" s="5">
         <f t="shared" si="9"/>
@@ -44934,7 +44948,7 @@
         <v>237651</v>
       </c>
       <c r="F715" s="97" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G715" s="5">
         <f t="shared" si="9"/>
@@ -44958,7 +44972,7 @@
         <v>401711</v>
       </c>
       <c r="F716" s="97" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G716" s="5">
         <f t="shared" si="9"/>
@@ -44982,7 +44996,7 @@
         <v>688985</v>
       </c>
       <c r="F717" s="97" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="G717" s="5">
         <f t="shared" si="9"/>
@@ -45006,7 +45020,7 @@
         <v>551552</v>
       </c>
       <c r="F718" s="97" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G718" s="5">
         <f t="shared" si="9"/>
@@ -45030,7 +45044,7 @@
         <v>153460</v>
       </c>
       <c r="F719" s="97" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="G719" s="5">
         <f t="shared" si="9"/>
@@ -45054,7 +45068,7 @@
         <v>275239</v>
       </c>
       <c r="F720" s="97" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="G720" s="5">
         <f t="shared" si="9"/>
@@ -45078,7 +45092,7 @@
         <v>232086</v>
       </c>
       <c r="F721" s="97" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="G721" s="5">
         <f t="shared" si="9"/>
@@ -45102,7 +45116,7 @@
         <v>230814</v>
       </c>
       <c r="F722" s="97" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G722" s="5">
         <f t="shared" si="9"/>
@@ -45126,7 +45140,7 @@
         <v>355615</v>
       </c>
       <c r="F723" s="97" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="G723" s="5">
         <f t="shared" si="9"/>
@@ -45150,7 +45164,7 @@
         <v>214878</v>
       </c>
       <c r="F724" s="97" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G724" s="5">
         <f t="shared" si="9"/>
@@ -45174,7 +45188,7 @@
         <v>191544</v>
       </c>
       <c r="F725" s="97" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="G725" s="5">
         <f t="shared" si="9"/>
@@ -45198,7 +45212,7 @@
         <v>329981</v>
       </c>
       <c r="F726" s="97" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="G726" s="5">
         <f t="shared" si="9"/>
@@ -45222,7 +45236,7 @@
         <v>301863</v>
       </c>
       <c r="F727" s="97" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="G727" s="5">
         <f t="shared" si="9"/>
@@ -45246,7 +45260,7 @@
         <v>457211</v>
       </c>
       <c r="F728" s="97" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G728" s="5">
         <f t="shared" si="9"/>
@@ -45270,7 +45284,7 @@
         <v>469872</v>
       </c>
       <c r="F729" s="97" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="G729" s="5">
         <f t="shared" si="9"/>
@@ -45294,7 +45308,7 @@
         <v>408357</v>
       </c>
       <c r="F730" s="97" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="G730" s="5">
         <f t="shared" si="9"/>
@@ -45318,7 +45332,7 @@
         <v>654490</v>
       </c>
       <c r="F731" s="97" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="G731" s="5">
         <f t="shared" si="9"/>
@@ -45342,7 +45356,7 @@
         <v>643398</v>
       </c>
       <c r="F732" s="97" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="G732" s="5">
         <f t="shared" si="9"/>
@@ -45366,7 +45380,7 @@
         <v>1348070</v>
       </c>
       <c r="F733" s="97" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="G733" s="5">
         <f t="shared" si="9"/>
@@ -45390,7 +45404,7 @@
         <v>492561</v>
       </c>
       <c r="F734" s="97" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="G734" s="5">
         <f t="shared" si="9"/>
@@ -45414,7 +45428,7 @@
         <v>489828</v>
       </c>
       <c r="F735" s="97" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="G735" s="5">
         <f t="shared" si="9"/>
@@ -45438,7 +45452,7 @@
         <v>588414</v>
       </c>
       <c r="F736" s="97" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G736" s="5">
         <f t="shared" si="9"/>
@@ -45462,7 +45476,7 @@
         <v>294238</v>
       </c>
       <c r="F737" s="97" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="G737" s="5">
         <f t="shared" si="9"/>
@@ -45486,7 +45500,7 @@
         <v>440840</v>
       </c>
       <c r="F738" s="97" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="G738" s="5">
         <f t="shared" si="9"/>
@@ -45510,7 +45524,7 @@
         <v>252558</v>
       </c>
       <c r="F739" s="97" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="G739" s="5">
         <f t="shared" si="9"/>
@@ -45534,7 +45548,7 @@
         <v>313468</v>
       </c>
       <c r="F740" s="97" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G740" s="5">
         <f t="shared" si="9"/>
@@ -45558,7 +45572,7 @@
         <v>229648</v>
       </c>
       <c r="F741" s="97" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="G741" s="5">
         <f t="shared" si="9"/>
@@ -45582,7 +45596,7 @@
         <v>289245</v>
       </c>
       <c r="F742" s="97" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G742" s="5">
         <f t="shared" si="9"/>
@@ -45606,7 +45620,7 @@
         <v>405255</v>
       </c>
       <c r="F743" s="97" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="G743" s="5">
         <f t="shared" si="9"/>
@@ -45630,7 +45644,7 @@
         <v>389121</v>
       </c>
       <c r="F744" s="97" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G744" s="5">
         <f t="shared" si="9"/>
@@ -45654,7 +45668,7 @@
         <v>420133</v>
       </c>
       <c r="F745" s="97" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="G745" s="5">
         <f t="shared" si="9"/>
@@ -45678,7 +45692,7 @@
         <v>280835</v>
       </c>
       <c r="F746" s="97" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="G746" s="5">
         <f t="shared" si="9"/>
@@ -45702,7 +45716,7 @@
         <v>165310</v>
       </c>
       <c r="F747" s="97" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="G747" s="5">
         <f t="shared" si="9"/>
@@ -45726,7 +45740,7 @@
         <v>160354</v>
       </c>
       <c r="F748" s="97" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G748" s="5">
         <f t="shared" si="9"/>
@@ -45750,7 +45764,7 @@
         <v>167316</v>
       </c>
       <c r="F749" s="97" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="G749" s="5">
         <f t="shared" si="9"/>
@@ -45774,7 +45788,7 @@
         <v>129727</v>
       </c>
       <c r="F750" s="97" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G750" s="5">
         <f t="shared" si="9"/>
@@ -45798,7 +45812,7 @@
         <v>268481</v>
       </c>
       <c r="F751" s="97" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="G751" s="5">
         <f t="shared" si="9"/>
@@ -45822,7 +45836,7 @@
         <v>266708</v>
       </c>
       <c r="F752" s="97" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G752" s="5">
         <f t="shared" si="9"/>
@@ -45846,7 +45860,7 @@
         <v>256358</v>
       </c>
       <c r="F753" s="97" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="G753" s="5">
         <f t="shared" si="9"/>
@@ -45870,7 +45884,7 @@
         <v>250902</v>
       </c>
       <c r="F754" s="97" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G754" s="5">
         <f t="shared" ref="G754:G817" si="10">A754/D754-1</f>
@@ -45894,7 +45908,7 @@
         <v>267144</v>
       </c>
       <c r="F755" s="97" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="G755" s="5">
         <f t="shared" si="10"/>
@@ -45918,7 +45932,7 @@
         <v>231605</v>
       </c>
       <c r="F756" s="97" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G756" s="5">
         <f t="shared" si="10"/>
@@ -45942,7 +45956,7 @@
         <v>207765</v>
       </c>
       <c r="F757" s="97" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G757" s="5">
         <f t="shared" si="10"/>
@@ -45966,7 +45980,7 @@
         <v>266049</v>
       </c>
       <c r="F758" s="97" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G758" s="5">
         <f t="shared" si="10"/>
@@ -45990,7 +46004,7 @@
         <v>245309</v>
       </c>
       <c r="F759" s="97" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="G759" s="5">
         <f t="shared" si="10"/>
@@ -46014,7 +46028,7 @@
         <v>269651</v>
       </c>
       <c r="F760" s="97" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G760" s="5">
         <f t="shared" si="10"/>
@@ -46038,7 +46052,7 @@
         <v>234515</v>
       </c>
       <c r="F761" s="97" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="G761" s="5">
         <f t="shared" si="10"/>
@@ -46062,7 +46076,7 @@
         <v>259989</v>
       </c>
       <c r="F762" s="97" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="G762" s="5">
         <f t="shared" si="10"/>
@@ -46086,7 +46100,7 @@
         <v>448413</v>
       </c>
       <c r="F763" s="97" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="G763" s="5">
         <f t="shared" si="10"/>
@@ -46110,7 +46124,7 @@
         <v>218219</v>
       </c>
       <c r="F764" s="97" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="G764" s="5">
         <f t="shared" si="10"/>
@@ -46134,7 +46148,7 @@
         <v>205900</v>
       </c>
       <c r="F765" s="97" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="G765" s="5">
         <f t="shared" si="10"/>
@@ -46158,7 +46172,7 @@
         <v>220681</v>
       </c>
       <c r="F766" s="97" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G766" s="5">
         <f t="shared" si="10"/>
@@ -46182,7 +46196,7 @@
         <v>259234</v>
       </c>
       <c r="F767" s="97" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="G767" s="5">
         <f t="shared" si="10"/>
@@ -46206,7 +46220,7 @@
         <v>651465</v>
       </c>
       <c r="F768" s="97" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="G768" s="5">
         <f t="shared" si="10"/>
@@ -46230,7 +46244,7 @@
         <v>219604</v>
       </c>
       <c r="F769" s="97" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="G769" s="5">
         <f t="shared" si="10"/>
@@ -46254,7 +46268,7 @@
         <v>230325</v>
       </c>
       <c r="F770" s="97" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G770" s="5">
         <f t="shared" si="10"/>
@@ -46278,7 +46292,7 @@
         <v>362791</v>
       </c>
       <c r="F771" s="97" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="G771" s="5">
         <f t="shared" si="10"/>
@@ -46302,7 +46316,7 @@
         <v>401154</v>
       </c>
       <c r="F772" s="97" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G772" s="5">
         <f t="shared" si="10"/>
@@ -46326,7 +46340,7 @@
         <v>824166</v>
       </c>
       <c r="F773" s="97" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="G773" s="5">
         <f t="shared" si="10"/>
@@ -46350,7 +46364,7 @@
         <v>1069015</v>
       </c>
       <c r="F774" s="97" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="G774" s="5">
         <f t="shared" si="10"/>
@@ -46374,7 +46388,7 @@
         <v>834292</v>
       </c>
       <c r="F775" s="97" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="G775" s="5">
         <f t="shared" si="10"/>
@@ -46398,7 +46412,7 @@
         <v>295703</v>
       </c>
       <c r="F776" s="97" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="G776" s="5">
         <f t="shared" si="10"/>
@@ -46422,7 +46436,7 @@
         <v>388898</v>
       </c>
       <c r="F777" s="97" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="G777" s="5">
         <f t="shared" si="10"/>
@@ -46446,7 +46460,7 @@
         <v>435894</v>
       </c>
       <c r="F778" s="97" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G778" s="5">
         <f t="shared" si="10"/>
@@ -46470,7 +46484,7 @@
         <v>338422</v>
       </c>
       <c r="F779" s="97" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="G779" s="5">
         <f t="shared" si="10"/>
@@ -46494,7 +46508,7 @@
         <v>258562</v>
       </c>
       <c r="F780" s="97" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="G780" s="5">
         <f t="shared" si="10"/>
@@ -46518,7 +46532,7 @@
         <v>263596</v>
       </c>
       <c r="F781" s="97" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="G781" s="5">
         <f t="shared" si="10"/>
@@ -46542,7 +46556,7 @@
         <v>473643</v>
       </c>
       <c r="F782" s="97" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G782" s="5">
         <f t="shared" si="10"/>
@@ -46566,7 +46580,7 @@
         <v>232488</v>
       </c>
       <c r="F783" s="97" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="G783" s="5">
         <f t="shared" si="10"/>
@@ -46590,7 +46604,7 @@
         <v>238661</v>
       </c>
       <c r="F784" s="97" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="G784" s="5">
         <f t="shared" si="10"/>
@@ -46614,7 +46628,7 @@
         <v>192147</v>
       </c>
       <c r="F785" s="97" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="G785" s="5">
         <f t="shared" si="10"/>
@@ -46638,7 +46652,7 @@
         <v>186791</v>
       </c>
       <c r="F786" s="97" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G786" s="5">
         <f t="shared" si="10"/>
@@ -46662,7 +46676,7 @@
         <v>240110</v>
       </c>
       <c r="F787" s="97" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="G787" s="5">
         <f t="shared" si="10"/>
@@ -46686,7 +46700,7 @@
         <v>165915</v>
       </c>
       <c r="F788" s="97" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G788" s="5">
         <f t="shared" si="10"/>
@@ -46710,7 +46724,7 @@
         <v>217726</v>
       </c>
       <c r="F789" s="97" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="G789" s="5">
         <f t="shared" si="10"/>
@@ -46734,7 +46748,7 @@
         <v>251434</v>
       </c>
       <c r="F790" s="97" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="G790" s="5">
         <f t="shared" si="10"/>
@@ -46758,7 +46772,7 @@
         <v>173698</v>
       </c>
       <c r="F791" s="97" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="G791" s="5">
         <f t="shared" si="10"/>
@@ -46782,7 +46796,7 @@
         <v>193865</v>
       </c>
       <c r="F792" s="97" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="G792" s="5">
         <f t="shared" si="10"/>
@@ -46806,7 +46820,7 @@
         <v>307557</v>
       </c>
       <c r="F793" s="97" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G793" s="5">
         <f t="shared" si="10"/>
@@ -46830,7 +46844,7 @@
         <v>395060</v>
       </c>
       <c r="F794" s="97" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="G794" s="5">
         <f t="shared" si="10"/>
@@ -46854,7 +46868,7 @@
         <v>583035</v>
       </c>
       <c r="F795" s="97" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G795" s="5">
         <f t="shared" si="10"/>
@@ -46878,7 +46892,7 @@
         <v>627791</v>
       </c>
       <c r="F796" s="97" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="G796" s="5">
         <f t="shared" si="10"/>
@@ -46902,7 +46916,7 @@
         <v>1336347</v>
       </c>
       <c r="F797" s="97" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="G797" s="5">
         <f t="shared" si="10"/>
@@ -46926,7 +46940,7 @@
         <v>462001</v>
       </c>
       <c r="F798" s="97" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G798" s="5">
         <f t="shared" si="10"/>
@@ -46950,7 +46964,7 @@
         <v>342118</v>
       </c>
       <c r="F799" s="97" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="G799" s="5">
         <f t="shared" si="10"/>
@@ -46974,7 +46988,7 @@
         <v>478485</v>
       </c>
       <c r="F800" s="97" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="G800" s="5">
         <f t="shared" si="10"/>
@@ -46998,7 +47012,7 @@
         <v>309709</v>
       </c>
       <c r="F801" s="97" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G801" s="5">
         <f t="shared" si="10"/>
@@ -47022,7 +47036,7 @@
         <v>289589</v>
       </c>
       <c r="F802" s="97" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G802" s="5">
         <f t="shared" si="10"/>
@@ -47046,7 +47060,7 @@
         <v>250509</v>
       </c>
       <c r="F803" s="97" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="G803" s="5">
         <f t="shared" si="10"/>
@@ -47070,7 +47084,7 @@
         <v>284569</v>
       </c>
       <c r="F804" s="97" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G804" s="5">
         <f t="shared" si="10"/>
@@ -47094,7 +47108,7 @@
         <v>329114</v>
       </c>
       <c r="F805" s="97" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="G805" s="5">
         <f t="shared" si="10"/>
@@ -47118,7 +47132,7 @@
         <v>373045</v>
       </c>
       <c r="F806" s="97" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G806" s="5">
         <f t="shared" si="10"/>
@@ -47142,7 +47156,7 @@
         <v>344990</v>
       </c>
       <c r="F807" s="97" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G807" s="5">
         <f t="shared" si="10"/>
@@ -47166,7 +47180,7 @@
         <v>1231522</v>
       </c>
       <c r="F808" s="97" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G808" s="5">
         <f t="shared" si="10"/>
@@ -47190,7 +47204,7 @@
         <v>984668</v>
       </c>
       <c r="F809" s="97" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G809" s="5">
         <f t="shared" si="10"/>
@@ -47214,7 +47228,7 @@
         <v>663623</v>
       </c>
       <c r="F810" s="97" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G810" s="5">
         <f t="shared" si="10"/>
@@ -47238,7 +47252,7 @@
         <v>322935</v>
       </c>
       <c r="F811" s="97" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G811" s="5">
         <f t="shared" si="10"/>
@@ -47262,7 +47276,7 @@
         <v>710220</v>
       </c>
       <c r="F812" s="97" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G812" s="5">
         <f t="shared" si="10"/>
@@ -47286,7 +47300,7 @@
         <v>358734</v>
       </c>
       <c r="F813" s="97" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="G813" s="5">
         <f t="shared" si="10"/>
@@ -47310,7 +47324,7 @@
         <v>540872</v>
       </c>
       <c r="F814" s="97" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G814" s="5">
         <f t="shared" si="10"/>
@@ -47334,7 +47348,7 @@
         <v>242162</v>
       </c>
       <c r="F815" s="97" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G815" s="5">
         <f t="shared" si="10"/>
@@ -47358,7 +47372,7 @@
         <v>215109</v>
       </c>
       <c r="F816" s="97" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G816" s="5">
         <f t="shared" si="10"/>
@@ -47382,7 +47396,7 @@
         <v>191992</v>
       </c>
       <c r="F817" s="97" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="G817" s="5">
         <f t="shared" si="10"/>
@@ -47406,7 +47420,7 @@
         <v>303103</v>
       </c>
       <c r="F818" s="97" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G818" s="5">
         <f t="shared" ref="G818:G881" si="11">A818/D818-1</f>
@@ -47430,7 +47444,7 @@
         <v>189223</v>
       </c>
       <c r="F819" s="97" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="G819" s="5">
         <f t="shared" si="11"/>
@@ -47454,7 +47468,7 @@
         <v>304493</v>
       </c>
       <c r="F820" s="97" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G820" s="5">
         <f t="shared" si="11"/>
@@ -47478,7 +47492,7 @@
         <v>298811</v>
       </c>
       <c r="F821" s="97" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G821" s="5">
         <f t="shared" si="11"/>
@@ -47502,7 +47516,7 @@
         <v>325017</v>
       </c>
       <c r="F822" s="97" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="G822" s="5">
         <f t="shared" si="11"/>
@@ -47526,7 +47540,7 @@
         <v>155888</v>
       </c>
       <c r="F823" s="97" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="G823" s="5">
         <f t="shared" si="11"/>
@@ -47550,7 +47564,7 @@
         <v>659323</v>
       </c>
       <c r="F824" s="97" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="G824" s="5">
         <f t="shared" si="11"/>
@@ -47574,7 +47588,7 @@
         <v>211140</v>
       </c>
       <c r="F825" s="97" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="G825" s="5">
         <f t="shared" si="11"/>
@@ -47598,7 +47612,7 @@
         <v>335024</v>
       </c>
       <c r="F826" s="97" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G826" s="5">
         <f t="shared" si="11"/>
@@ -47622,7 +47636,7 @@
         <v>258056</v>
       </c>
       <c r="F827" s="97" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G827" s="5">
         <f t="shared" si="11"/>
@@ -47646,7 +47660,7 @@
         <v>386201</v>
       </c>
       <c r="F828" s="97" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="G828" s="5">
         <f t="shared" si="11"/>
@@ -47670,7 +47684,7 @@
         <v>348531</v>
       </c>
       <c r="F829" s="97" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="G829" s="5">
         <f t="shared" si="11"/>
@@ -47694,7 +47708,7 @@
         <v>604684</v>
       </c>
       <c r="F830" s="97" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="G830" s="5">
         <f t="shared" si="11"/>
@@ -47718,7 +47732,7 @@
         <v>403875</v>
       </c>
       <c r="F831" s="97" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="G831" s="5">
         <f t="shared" si="11"/>
@@ -47742,7 +47756,7 @@
         <v>389292</v>
       </c>
       <c r="F832" s="97" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="G832" s="5">
         <f t="shared" si="11"/>
@@ -47766,7 +47780,7 @@
         <v>431644</v>
       </c>
       <c r="F833" s="97" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="G833" s="5">
         <f t="shared" si="11"/>
@@ -47790,7 +47804,7 @@
         <v>359253</v>
       </c>
       <c r="F834" s="97" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="G834" s="5">
         <f t="shared" si="11"/>
@@ -47814,7 +47828,7 @@
         <v>336890</v>
       </c>
       <c r="F835" s="97" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="G835" s="5">
         <f t="shared" si="11"/>
@@ -47838,7 +47852,7 @@
         <v>186487</v>
       </c>
       <c r="F836" s="97" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="G836" s="5">
         <f t="shared" si="11"/>
@@ -47862,7 +47876,7 @@
         <v>297492</v>
       </c>
       <c r="F837" s="97" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="G837" s="5">
         <f t="shared" si="11"/>
@@ -47886,7 +47900,7 @@
         <v>548309</v>
       </c>
       <c r="F838" s="97" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G838" s="5">
         <f t="shared" si="11"/>
@@ -47910,7 +47924,7 @@
         <v>279989</v>
       </c>
       <c r="F839" s="97" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="G839" s="5">
         <f t="shared" si="11"/>
@@ -47934,7 +47948,7 @@
         <v>196669</v>
       </c>
       <c r="F840" s="97" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="G840" s="5">
         <f t="shared" si="11"/>
@@ -47958,7 +47972,7 @@
         <v>551945</v>
       </c>
       <c r="F841" s="97" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="G841" s="5">
         <f t="shared" si="11"/>
@@ -47982,7 +47996,7 @@
         <v>584103</v>
       </c>
       <c r="F842" s="97" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="G842" s="5">
         <f t="shared" si="11"/>
@@ -48006,7 +48020,7 @@
         <v>454011</v>
       </c>
       <c r="F843" s="97" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="G843" s="5">
         <f t="shared" si="11"/>
@@ -48030,7 +48044,7 @@
         <v>223343</v>
       </c>
       <c r="F844" s="97" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="G844" s="5">
         <f t="shared" si="11"/>
@@ -48054,7 +48068,7 @@
         <v>127156</v>
       </c>
       <c r="F845" s="97" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="G845" s="5">
         <f t="shared" si="11"/>
@@ -48078,7 +48092,7 @@
         <v>230689</v>
       </c>
       <c r="F846" s="97" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="G846" s="5">
         <f t="shared" si="11"/>
@@ -48102,7 +48116,7 @@
         <v>236286</v>
       </c>
       <c r="F847" s="97" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G847" s="5">
         <f t="shared" si="11"/>
@@ -48126,7 +48140,7 @@
         <v>267966</v>
       </c>
       <c r="F848" s="97" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="G848" s="5">
         <f t="shared" si="11"/>
@@ -48150,7 +48164,7 @@
         <v>306089</v>
       </c>
       <c r="F849" s="97" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="G849" s="5">
         <f t="shared" si="11"/>
@@ -48174,7 +48188,7 @@
         <v>353428</v>
       </c>
       <c r="F850" s="97" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G850" s="5">
         <f t="shared" si="11"/>
@@ -48198,7 +48212,7 @@
         <v>400032</v>
       </c>
       <c r="F851" s="97" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="G851" s="5">
         <f t="shared" si="11"/>
@@ -48222,7 +48236,7 @@
         <v>448099</v>
       </c>
       <c r="F852" s="97" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="G852" s="5">
         <f t="shared" si="11"/>
@@ -48246,7 +48260,7 @@
         <v>235583</v>
       </c>
       <c r="F853" s="97" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="G853" s="5">
         <f t="shared" si="11"/>
@@ -48270,7 +48284,7 @@
         <v>407805</v>
       </c>
       <c r="F854" s="97" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="G854" s="5">
         <f t="shared" si="11"/>
@@ -48294,7 +48308,7 @@
         <v>320271</v>
       </c>
       <c r="F855" s="97" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="G855" s="5">
         <f t="shared" si="11"/>
@@ -48318,7 +48332,7 @@
         <v>506175</v>
       </c>
       <c r="F856" s="97" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="G856" s="5">
         <f t="shared" si="11"/>
@@ -48342,7 +48356,7 @@
         <v>674172</v>
       </c>
       <c r="F857" s="97" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="G857" s="5">
         <f t="shared" si="11"/>
@@ -48366,7 +48380,7 @@
         <v>492548</v>
       </c>
       <c r="F858" s="97" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="G858" s="5">
         <f t="shared" si="11"/>
@@ -48390,7 +48404,7 @@
         <v>708389</v>
       </c>
       <c r="F859" s="97" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="G859" s="5">
         <f t="shared" si="11"/>
@@ -48414,7 +48428,7 @@
         <v>398428</v>
       </c>
       <c r="F860" s="97" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="G860" s="5">
         <f t="shared" si="11"/>
@@ -48438,7 +48452,7 @@
         <v>600962</v>
       </c>
       <c r="F861" s="97" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="G861" s="5">
         <f t="shared" si="11"/>
@@ -48462,7 +48476,7 @@
         <v>302309</v>
       </c>
       <c r="F862" s="97" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G862" s="5">
         <f t="shared" si="11"/>
@@ -48486,7 +48500,7 @@
         <v>242616</v>
       </c>
       <c r="F863" s="97" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="G863" s="5">
         <f t="shared" si="11"/>
@@ -48510,7 +48524,7 @@
         <v>211150</v>
       </c>
       <c r="F864" s="97" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="G864" s="5">
         <f t="shared" si="11"/>
@@ -48534,7 +48548,7 @@
         <v>263711</v>
       </c>
       <c r="F865" s="97" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G865" s="5">
         <f t="shared" si="11"/>
@@ -48558,7 +48572,7 @@
         <v>238808</v>
       </c>
       <c r="F866" s="97" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="G866" s="5">
         <f t="shared" si="11"/>
@@ -48582,7 +48596,7 @@
         <v>246854</v>
       </c>
       <c r="F867" s="97" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G867" s="5">
         <f t="shared" si="11"/>
@@ -48606,7 +48620,7 @@
         <v>251641</v>
       </c>
       <c r="F868" s="97" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="G868" s="5">
         <f t="shared" si="11"/>
@@ -48630,7 +48644,7 @@
         <v>218678</v>
       </c>
       <c r="F869" s="97" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="G869" s="5">
         <f t="shared" si="11"/>
@@ -48654,7 +48668,7 @@
         <v>190756</v>
       </c>
       <c r="F870" s="97" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="G870" s="5">
         <f t="shared" si="11"/>
@@ -48678,7 +48692,7 @@
         <v>222188</v>
       </c>
       <c r="F871" s="97" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="G871" s="5">
         <f t="shared" si="11"/>
@@ -48702,7 +48716,7 @@
         <v>322156</v>
       </c>
       <c r="F872" s="97" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="G872" s="5">
         <f t="shared" si="11"/>
@@ -48726,7 +48740,7 @@
         <v>181762</v>
       </c>
       <c r="F873" s="97" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="G873" s="5">
         <f t="shared" si="11"/>
@@ -48750,7 +48764,7 @@
         <v>211397</v>
       </c>
       <c r="F874" s="97" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="G874" s="5">
         <f t="shared" si="11"/>
@@ -48774,7 +48788,7 @@
         <v>221565</v>
       </c>
       <c r="F875" s="97" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="G875" s="5">
         <f t="shared" si="11"/>
@@ -48798,7 +48812,7 @@
         <v>227094</v>
       </c>
       <c r="F876" s="97" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G876" s="5">
         <f t="shared" si="11"/>
@@ -48822,7 +48836,7 @@
         <v>285495</v>
       </c>
       <c r="F877" s="97" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="G877" s="5">
         <f t="shared" si="11"/>
@@ -48846,7 +48860,7 @@
         <v>325056</v>
       </c>
       <c r="F878" s="97" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="G878" s="5">
         <f t="shared" si="11"/>
@@ -48870,7 +48884,7 @@
         <v>239412</v>
       </c>
       <c r="F879" s="97" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="G879" s="5">
         <f t="shared" si="11"/>
@@ -48894,7 +48908,7 @@
         <v>330638</v>
       </c>
       <c r="F880" s="97" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G880" s="5">
         <f t="shared" si="11"/>
@@ -48918,7 +48932,7 @@
         <v>332736</v>
       </c>
       <c r="F881" s="97" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G881" s="5">
         <f t="shared" si="11"/>
@@ -48942,7 +48956,7 @@
         <v>220945</v>
       </c>
       <c r="F882" s="97" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G882" s="5">
         <f t="shared" ref="G882:G945" si="12">A882/D882-1</f>
@@ -48966,7 +48980,7 @@
         <v>273075</v>
       </c>
       <c r="F883" s="97" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="G883" s="5">
         <f t="shared" si="12"/>
@@ -48990,7 +49004,7 @@
         <v>252196</v>
       </c>
       <c r="F884" s="97" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="G884" s="5">
         <f t="shared" si="12"/>
@@ -49014,7 +49028,7 @@
         <v>212687</v>
       </c>
       <c r="F885" s="97" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G885" s="5">
         <f t="shared" si="12"/>
@@ -49038,7 +49052,7 @@
         <v>389175</v>
       </c>
       <c r="F886" s="97" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="G886" s="5">
         <f t="shared" si="12"/>
@@ -49062,7 +49076,7 @@
         <v>484988</v>
       </c>
       <c r="F887" s="97" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G887" s="5">
         <f t="shared" si="12"/>
@@ -49086,7 +49100,7 @@
         <v>229432</v>
       </c>
       <c r="F888" s="97" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G888" s="5">
         <f t="shared" si="12"/>
@@ -49110,7 +49124,7 @@
         <v>263169</v>
       </c>
       <c r="F889" s="97" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="G889" s="5">
         <f t="shared" si="12"/>
@@ -49134,7 +49148,7 @@
         <v>104510</v>
       </c>
       <c r="F890" s="97" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G890" s="5">
         <f t="shared" si="12"/>
@@ -49158,7 +49172,7 @@
         <v>131082</v>
       </c>
       <c r="F891" s="97" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G891" s="5">
         <f t="shared" si="12"/>
@@ -49182,7 +49196,7 @@
         <v>78337</v>
       </c>
       <c r="F892" s="97" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G892" s="5">
         <f t="shared" si="12"/>
@@ -49206,7 +49220,7 @@
         <v>212639</v>
       </c>
       <c r="F893" s="97" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G893" s="5">
         <f t="shared" si="12"/>
@@ -49230,7 +49244,7 @@
         <v>205937</v>
       </c>
       <c r="F894" s="97" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G894" s="5">
         <f t="shared" si="12"/>
@@ -49254,7 +49268,7 @@
         <v>161972</v>
       </c>
       <c r="F895" s="97" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="G895" s="5">
         <f t="shared" si="12"/>
@@ -49278,7 +49292,7 @@
         <v>120010</v>
       </c>
       <c r="F896" s="97" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="G896" s="5">
         <f t="shared" si="12"/>
@@ -49302,7 +49316,7 @@
         <v>174502</v>
       </c>
       <c r="F897" s="97" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G897" s="5">
         <f t="shared" si="12"/>
@@ -49326,7 +49340,7 @@
         <v>140283</v>
       </c>
       <c r="F898" s="97" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G898" s="5">
         <f t="shared" si="12"/>
@@ -49350,7 +49364,7 @@
         <v>196056</v>
       </c>
       <c r="F899" s="97" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G899" s="5">
         <f t="shared" si="12"/>
@@ -49374,7 +49388,7 @@
         <v>180228</v>
       </c>
       <c r="F900" s="97" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="G900" s="5">
         <f t="shared" si="12"/>
@@ -49398,7 +49412,7 @@
         <v>181971</v>
       </c>
       <c r="F901" s="97" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="G901" s="5">
         <f t="shared" si="12"/>
@@ -49422,7 +49436,7 @@
         <v>187060</v>
       </c>
       <c r="F902" s="97" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="G902" s="5">
         <f t="shared" si="12"/>
@@ -49446,7 +49460,7 @@
         <v>142664</v>
       </c>
       <c r="F903" s="97" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="G903" s="5">
         <f t="shared" si="12"/>
@@ -49470,7 +49484,7 @@
         <v>148841</v>
       </c>
       <c r="F904" s="97" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="G904" s="5">
         <f t="shared" si="12"/>
@@ -49494,7 +49508,7 @@
         <v>184311</v>
       </c>
       <c r="F905" s="97" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="G905" s="5">
         <f t="shared" si="12"/>
@@ -49518,7 +49532,7 @@
         <v>260463</v>
       </c>
       <c r="F906" s="97" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="G906" s="5">
         <f t="shared" si="12"/>
@@ -49542,7 +49556,7 @@
         <v>249241</v>
       </c>
       <c r="F907" s="97" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="G907" s="5">
         <f t="shared" si="12"/>
@@ -49566,7 +49580,7 @@
         <v>205121</v>
       </c>
       <c r="F908" s="97" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="G908" s="5">
         <f t="shared" si="12"/>
@@ -49590,7 +49604,7 @@
         <v>305500</v>
       </c>
       <c r="F909" s="97" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="G909" s="5">
         <f t="shared" si="12"/>
@@ -49614,7 +49628,7 @@
         <v>606510</v>
       </c>
       <c r="F910" s="97" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="G910" s="5">
         <f t="shared" si="12"/>
@@ -49638,7 +49652,7 @@
         <v>216050</v>
       </c>
       <c r="F911" s="97" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="G911" s="5">
         <f t="shared" si="12"/>
@@ -49662,7 +49676,7 @@
         <v>172327</v>
       </c>
       <c r="F912" s="97" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="G912" s="5">
         <f t="shared" si="12"/>
@@ -49686,7 +49700,7 @@
         <v>168673</v>
       </c>
       <c r="F913" s="97" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G913" s="5">
         <f t="shared" si="12"/>
@@ -49710,7 +49724,7 @@
         <v>108387</v>
       </c>
       <c r="F914" s="97" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="G914" s="5">
         <f t="shared" si="12"/>
@@ -49734,7 +49748,7 @@
         <v>91667</v>
       </c>
       <c r="F915" s="97" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="G915" s="5">
         <f t="shared" si="12"/>
@@ -49758,7 +49772,7 @@
         <v>148939</v>
       </c>
       <c r="F916" s="97" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="G916" s="5">
         <f t="shared" si="12"/>
@@ -49782,7 +49796,7 @@
         <v>81168</v>
       </c>
       <c r="F917" s="97" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G917" s="5">
         <f t="shared" si="12"/>
@@ -49806,7 +49820,7 @@
         <v>153968</v>
       </c>
       <c r="F918" s="97" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G918" s="5">
         <f t="shared" si="12"/>
@@ -49830,7 +49844,7 @@
         <v>135752</v>
       </c>
       <c r="F919" s="97" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="G919" s="5">
         <f t="shared" si="12"/>
@@ -49854,7 +49868,7 @@
         <v>110888</v>
       </c>
       <c r="F920" s="97" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="G920" s="5">
         <f t="shared" si="12"/>
@@ -49878,7 +49892,7 @@
         <v>95994</v>
       </c>
       <c r="F921" s="97" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="G921" s="5">
         <f t="shared" si="12"/>
@@ -49902,7 +49916,7 @@
         <v>145583</v>
       </c>
       <c r="F922" s="97" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="G922" s="5">
         <f t="shared" si="12"/>
@@ -49926,7 +49940,7 @@
         <v>143611</v>
       </c>
       <c r="F923" s="97" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="G923" s="5">
         <f t="shared" si="12"/>
@@ -49950,7 +49964,7 @@
         <v>178028</v>
       </c>
       <c r="F924" s="97" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="G924" s="5">
         <f t="shared" si="12"/>
@@ -49974,7 +49988,7 @@
         <v>179776</v>
       </c>
       <c r="F925" s="97" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="G925" s="5">
         <f t="shared" si="12"/>
@@ -49998,7 +50012,7 @@
         <v>284637</v>
       </c>
       <c r="F926" s="97" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="G926" s="5">
         <f t="shared" si="12"/>
@@ -50022,7 +50036,7 @@
         <v>160118</v>
       </c>
       <c r="F927" s="97" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="G927" s="5">
         <f t="shared" si="12"/>
@@ -50046,7 +50060,7 @@
         <v>188010</v>
       </c>
       <c r="F928" s="97" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="G928" s="5">
         <f t="shared" si="12"/>
@@ -50070,7 +50084,7 @@
         <v>135705</v>
       </c>
       <c r="F929" s="97" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="G929" s="5">
         <f t="shared" si="12"/>
@@ -50094,7 +50108,7 @@
         <v>264833</v>
       </c>
       <c r="F930" s="97" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="G930" s="5">
         <f t="shared" si="12"/>
@@ -50118,7 +50132,7 @@
         <v>265955</v>
       </c>
       <c r="F931" s="97" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="G931" s="5">
         <f t="shared" si="12"/>
@@ -50142,7 +50156,7 @@
         <v>150501</v>
       </c>
       <c r="F932" s="97" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="G932" s="5">
         <f t="shared" si="12"/>
@@ -50166,7 +50180,7 @@
         <v>189379</v>
       </c>
       <c r="F933" s="97" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="G933" s="5">
         <f t="shared" si="12"/>
@@ -50190,7 +50204,7 @@
         <v>147152</v>
       </c>
       <c r="F934" s="97" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="G934" s="5">
         <f t="shared" si="12"/>
@@ -50214,7 +50228,7 @@
         <v>240173</v>
       </c>
       <c r="F935" s="97" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="G935" s="5">
         <f t="shared" si="12"/>
@@ -50238,7 +50252,7 @@
         <v>287309</v>
       </c>
       <c r="F936" s="97" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G936" s="5">
         <f t="shared" si="12"/>
@@ -50262,7 +50276,7 @@
         <v>188556</v>
       </c>
       <c r="F937" s="97" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="G937" s="5">
         <f t="shared" si="12"/>
@@ -50286,7 +50300,7 @@
         <v>224527</v>
       </c>
       <c r="F938" s="97" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G938" s="5">
         <f t="shared" si="12"/>
@@ -50310,7 +50324,7 @@
         <v>274171</v>
       </c>
       <c r="F939" s="97" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="G939" s="5">
         <f t="shared" si="12"/>
@@ -50334,7 +50348,7 @@
         <v>326631</v>
       </c>
       <c r="F940" s="97" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="G940" s="5">
         <f t="shared" si="12"/>
@@ -50358,7 +50372,7 @@
         <v>177126</v>
       </c>
       <c r="F941" s="97" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="G941" s="5">
         <f t="shared" si="12"/>
@@ -50382,7 +50396,7 @@
         <v>204819</v>
       </c>
       <c r="F942" s="97" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="G942" s="5">
         <f t="shared" si="12"/>
@@ -50406,7 +50420,7 @@
         <v>250852</v>
       </c>
       <c r="F943" s="97" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G943" s="5">
         <f t="shared" si="12"/>
@@ -50430,7 +50444,7 @@
         <v>178930</v>
       </c>
       <c r="F944" s="97" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="G944" s="5">
         <f t="shared" si="12"/>
@@ -50454,7 +50468,7 @@
         <v>223553</v>
       </c>
       <c r="F945" s="97" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G945" s="5">
         <f t="shared" si="12"/>
@@ -50478,7 +50492,7 @@
         <v>185776</v>
       </c>
       <c r="F946" s="97" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="G946" s="5">
         <f t="shared" ref="G946:G1009" si="13">A946/D946-1</f>
@@ -50502,7 +50516,7 @@
         <v>178152</v>
       </c>
       <c r="F947" s="97" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="G947" s="5">
         <f t="shared" si="13"/>
@@ -50526,7 +50540,7 @@
         <v>98694</v>
       </c>
       <c r="F948" s="97" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="G948" s="5">
         <f t="shared" si="13"/>
@@ -50550,7 +50564,7 @@
         <v>90614</v>
       </c>
       <c r="F949" s="97" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="G949" s="5">
         <f t="shared" si="13"/>
@@ -50574,7 +50588,7 @@
         <v>103060</v>
       </c>
       <c r="F950" s="97" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="G950" s="5">
         <f t="shared" si="13"/>
@@ -50598,7 +50612,7 @@
         <v>208525</v>
       </c>
       <c r="F951" s="97" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="G951" s="5">
         <f t="shared" si="13"/>
@@ -50622,7 +50636,7 @@
         <v>170479</v>
       </c>
       <c r="F952" s="97" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="G952" s="5">
         <f t="shared" si="13"/>
@@ -50646,7 +50660,7 @@
         <v>145326</v>
       </c>
       <c r="F953" s="97" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="G953" s="5">
         <f t="shared" si="13"/>
@@ -50670,7 +50684,7 @@
         <v>117502</v>
       </c>
       <c r="F954" s="97" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="G954" s="5">
         <f t="shared" si="13"/>
@@ -50694,7 +50708,7 @@
         <v>412747</v>
       </c>
       <c r="F955" s="97" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="G955" s="5">
         <f t="shared" si="13"/>
@@ -50718,7 +50732,7 @@
         <v>161465</v>
       </c>
       <c r="F956" s="97" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="G956" s="5">
         <f t="shared" si="13"/>
@@ -50742,7 +50756,7 @@
         <v>183750</v>
       </c>
       <c r="F957" s="97" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="G957" s="5">
         <f t="shared" si="13"/>
@@ -50766,7 +50780,7 @@
         <v>121922</v>
       </c>
       <c r="F958" s="97" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="G958" s="5">
         <f t="shared" si="13"/>
@@ -50790,7 +50804,7 @@
         <v>570107</v>
       </c>
       <c r="F959" s="97" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="G959" s="5">
         <f t="shared" si="13"/>
@@ -50814,7 +50828,7 @@
         <v>101801</v>
       </c>
       <c r="F960" s="97" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="G960" s="5">
         <f t="shared" si="13"/>
@@ -50838,7 +50852,7 @@
         <v>93300</v>
       </c>
       <c r="F961" s="97" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="G961" s="5">
         <f t="shared" si="13"/>
@@ -50862,7 +50876,7 @@
         <v>155500</v>
       </c>
       <c r="F962" s="97" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="G962" s="5">
         <f t="shared" si="13"/>
@@ -50886,7 +50900,7 @@
         <v>118581</v>
       </c>
       <c r="F963" s="97" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="G963" s="5">
         <f t="shared" si="13"/>
@@ -50910,7 +50924,7 @@
         <v>191089</v>
       </c>
       <c r="F964" s="97" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="G964" s="5">
         <f t="shared" si="13"/>
@@ -50934,7 +50948,7 @@
         <v>182764</v>
       </c>
       <c r="F965" s="97" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="G965" s="5">
         <f t="shared" si="13"/>
@@ -50958,7 +50972,7 @@
         <v>127856</v>
       </c>
       <c r="F966" s="97" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="G966" s="5">
         <f t="shared" si="13"/>
@@ -50982,7 +50996,7 @@
         <v>188836</v>
       </c>
       <c r="F967" s="97" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="G967" s="5">
         <f t="shared" si="13"/>
@@ -51006,7 +51020,7 @@
         <v>257633</v>
       </c>
       <c r="F968" s="97" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="G968" s="5">
         <f t="shared" si="13"/>
@@ -51030,7 +51044,7 @@
         <v>129847</v>
       </c>
       <c r="F969" s="97" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="G969" s="5">
         <f t="shared" si="13"/>
@@ -51054,7 +51068,7 @@
         <v>92857</v>
       </c>
       <c r="F970" s="97" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="G970" s="5">
         <f t="shared" si="13"/>
@@ -51078,7 +51092,7 @@
         <v>92055</v>
       </c>
       <c r="F971" s="97" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="G971" s="5">
         <f t="shared" si="13"/>
@@ -51102,7 +51116,7 @@
         <v>100189</v>
       </c>
       <c r="F972" s="97" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="G972" s="5">
         <f t="shared" si="13"/>
@@ -51126,7 +51140,7 @@
         <v>112092</v>
       </c>
       <c r="F973" s="97" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="G973" s="5">
         <f t="shared" si="13"/>
@@ -51150,7 +51164,7 @@
         <v>144173</v>
       </c>
       <c r="F974" s="97" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="G974" s="5">
         <f t="shared" si="13"/>
@@ -51174,7 +51188,7 @@
         <v>123580</v>
       </c>
       <c r="F975" s="97" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="G975" s="5">
         <f t="shared" si="13"/>
@@ -51198,7 +51212,7 @@
         <v>112425</v>
       </c>
       <c r="F976" s="97" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="G976" s="5">
         <f t="shared" si="13"/>
@@ -51222,7 +51236,7 @@
         <v>105569</v>
       </c>
       <c r="F977" s="97" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="G977" s="5">
         <f t="shared" si="13"/>
@@ -51246,7 +51260,7 @@
         <v>123034</v>
       </c>
       <c r="F978" s="97" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="G978" s="5">
         <f t="shared" si="13"/>
@@ -51270,7 +51284,7 @@
         <v>106722</v>
       </c>
       <c r="F979" s="97" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="G979" s="5">
         <f t="shared" si="13"/>
@@ -51294,7 +51308,7 @@
         <v>138280</v>
       </c>
       <c r="F980" s="97" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="G980" s="5">
         <f t="shared" si="13"/>
@@ -51318,7 +51332,7 @@
         <v>119177</v>
       </c>
       <c r="F981" s="97" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="G981" s="5">
         <f t="shared" si="13"/>
@@ -51342,7 +51356,7 @@
         <v>112903</v>
       </c>
       <c r="F982" s="97" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G982" s="5">
         <f t="shared" si="13"/>
@@ -51366,7 +51380,7 @@
         <v>150820</v>
       </c>
       <c r="F983" s="97" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="G983" s="5">
         <f t="shared" si="13"/>
@@ -51390,7 +51404,7 @@
         <v>229226</v>
       </c>
       <c r="F984" s="97" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="G984" s="5">
         <f t="shared" si="13"/>
@@ -51414,7 +51428,7 @@
         <v>346626</v>
       </c>
       <c r="F985" s="97" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="G985" s="5">
         <f t="shared" si="13"/>
@@ -51438,7 +51452,7 @@
         <v>158014</v>
       </c>
       <c r="F986" s="97" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="G986" s="5">
         <f t="shared" si="13"/>
@@ -51462,7 +51476,7 @@
         <v>139495</v>
       </c>
       <c r="F987" s="97" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="G987" s="5">
         <f t="shared" si="13"/>
@@ -51486,7 +51500,7 @@
         <v>135396</v>
       </c>
       <c r="F988" s="97" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="G988" s="5">
         <f t="shared" si="13"/>
@@ -51510,7 +51524,7 @@
         <v>149772</v>
       </c>
       <c r="F989" s="97" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="G989" s="5">
         <f t="shared" si="13"/>
@@ -51534,7 +51548,7 @@
         <v>68572</v>
       </c>
       <c r="F990" s="97" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="G990" s="5">
         <f t="shared" si="13"/>
@@ -51558,7 +51572,7 @@
         <v>69796</v>
       </c>
       <c r="F991" s="97" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="G991" s="5">
         <f t="shared" si="13"/>
@@ -51582,7 +51596,7 @@
         <v>131029</v>
       </c>
       <c r="F992" s="97" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="G992" s="5">
         <f t="shared" si="13"/>
@@ -51606,7 +51620,7 @@
         <v>97849</v>
       </c>
       <c r="F993" s="97" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="G993" s="5">
         <f t="shared" si="13"/>
@@ -51630,7 +51644,7 @@
         <v>57314</v>
       </c>
       <c r="F994" s="97" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="G994" s="5">
         <f t="shared" si="13"/>
@@ -51654,7 +51668,7 @@
         <v>72618</v>
       </c>
       <c r="F995" s="97" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="G995" s="5">
         <f t="shared" si="13"/>
@@ -51678,7 +51692,7 @@
         <v>103626</v>
       </c>
       <c r="F996" s="97" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="G996" s="5">
         <f t="shared" si="13"/>
@@ -51702,7 +51716,7 @@
         <v>101876</v>
       </c>
       <c r="F997" s="97" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="G997" s="5">
         <f t="shared" si="13"/>
@@ -51726,7 +51740,7 @@
         <v>79567</v>
       </c>
       <c r="F998" s="97" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="G998" s="5">
         <f t="shared" si="13"/>
@@ -51750,7 +51764,7 @@
         <v>117639</v>
       </c>
       <c r="F999" s="97" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="G999" s="5">
         <f t="shared" si="13"/>
@@ -51774,7 +51788,7 @@
         <v>86800</v>
       </c>
       <c r="F1000" s="97" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="G1000" s="5">
         <f t="shared" si="13"/>
@@ -51798,7 +51812,7 @@
         <v>70345</v>
       </c>
       <c r="F1001" s="97" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="G1001" s="5">
         <f t="shared" si="13"/>
@@ -51822,7 +51836,7 @@
         <v>99603</v>
       </c>
       <c r="F1002" s="97" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="G1002" s="5">
         <f t="shared" si="13"/>
@@ -51846,7 +51860,7 @@
         <v>87790</v>
       </c>
       <c r="F1003" s="97" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="G1003" s="5">
         <f t="shared" si="13"/>
@@ -51870,7 +51884,7 @@
         <v>72098</v>
       </c>
       <c r="F1004" s="97" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="G1004" s="5">
         <f t="shared" si="13"/>
@@ -51894,7 +51908,7 @@
         <v>123132</v>
       </c>
       <c r="F1005" s="97" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="G1005" s="5">
         <f t="shared" si="13"/>
@@ -51918,7 +51932,7 @@
         <v>145285</v>
       </c>
       <c r="F1006" s="97" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="G1006" s="5">
         <f t="shared" si="13"/>
@@ -51942,7 +51956,7 @@
         <v>196741</v>
       </c>
       <c r="F1007" s="97" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="G1007" s="5">
         <f t="shared" si="13"/>
@@ -51966,7 +51980,7 @@
         <v>198325</v>
       </c>
       <c r="F1008" s="97" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="G1008" s="5">
         <f t="shared" si="13"/>
@@ -51990,7 +52004,7 @@
         <v>144704</v>
       </c>
       <c r="F1009" s="97" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="G1009" s="5">
         <f t="shared" si="13"/>
@@ -52014,7 +52028,7 @@
         <v>165230</v>
       </c>
       <c r="F1010" s="97" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="G1010" s="5">
         <f t="shared" ref="G1010:G1073" si="14">A1010/D1010-1</f>
@@ -52038,7 +52052,7 @@
         <v>122689</v>
       </c>
       <c r="F1011" s="97" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="G1011" s="5">
         <f t="shared" si="14"/>
@@ -52062,7 +52076,7 @@
         <v>181402</v>
       </c>
       <c r="F1012" s="97" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="G1012" s="5">
         <f t="shared" si="14"/>
@@ -52086,7 +52100,7 @@
         <v>86752</v>
       </c>
       <c r="F1013" s="97" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="G1013" s="5">
         <f t="shared" si="14"/>
@@ -52110,7 +52124,7 @@
         <v>82689</v>
       </c>
       <c r="F1014" s="97" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="G1014" s="5">
         <f t="shared" si="14"/>
@@ -52134,7 +52148,7 @@
         <v>85636</v>
       </c>
       <c r="F1015" s="97" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="G1015" s="5">
         <f t="shared" si="14"/>
@@ -52158,7 +52172,7 @@
         <v>229325</v>
       </c>
       <c r="F1016" s="97" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="G1016" s="5">
         <f t="shared" si="14"/>
@@ -52182,7 +52196,7 @@
         <v>234597</v>
       </c>
       <c r="F1017" s="97" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="G1017" s="5">
         <f t="shared" si="14"/>
@@ -52206,7 +52220,7 @@
         <v>159646</v>
       </c>
       <c r="F1018" s="97" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="G1018" s="5">
         <f t="shared" si="14"/>
@@ -52230,7 +52244,7 @@
         <v>306574</v>
       </c>
       <c r="F1019" s="97" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="G1019" s="5">
         <f t="shared" si="14"/>
@@ -52254,7 +52268,7 @@
         <v>129760</v>
       </c>
       <c r="F1020" s="97" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="G1020" s="5">
         <f t="shared" si="14"/>
@@ -52278,7 +52292,7 @@
         <v>206159</v>
       </c>
       <c r="F1021" s="97" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="G1021" s="5">
         <f t="shared" si="14"/>
@@ -52302,7 +52316,7 @@
         <v>183232</v>
       </c>
       <c r="F1022" s="97" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="G1022" s="5">
         <f t="shared" si="14"/>
@@ -52326,7 +52340,7 @@
         <v>266303</v>
       </c>
       <c r="F1023" s="97" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="G1023" s="5">
         <f t="shared" si="14"/>
@@ -52350,7 +52364,7 @@
         <v>215844</v>
       </c>
       <c r="F1024" s="97" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="G1024" s="5">
         <f t="shared" si="14"/>
@@ -52374,7 +52388,7 @@
         <v>193029</v>
       </c>
       <c r="F1025" s="97" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="G1025" s="5">
         <f t="shared" si="14"/>
@@ -52398,7 +52412,7 @@
         <v>235859</v>
       </c>
       <c r="F1026" s="97" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="G1026" s="5">
         <f t="shared" si="14"/>
@@ -52422,7 +52436,7 @@
         <v>134053</v>
       </c>
       <c r="F1027" s="97" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="G1027" s="5">
         <f t="shared" si="14"/>
@@ -52446,7 +52460,7 @@
         <v>197964</v>
       </c>
       <c r="F1028" s="97" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="G1028" s="5">
         <f t="shared" si="14"/>
@@ -52470,7 +52484,7 @@
         <v>127731</v>
       </c>
       <c r="F1029" s="97" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="G1029" s="5">
         <f t="shared" si="14"/>
@@ -52494,7 +52508,7 @@
         <v>301679</v>
       </c>
       <c r="F1030" s="97" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G1030" s="5">
         <f t="shared" si="14"/>
@@ -52518,7 +52532,7 @@
         <v>162948</v>
       </c>
       <c r="F1031" s="97" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="G1031" s="5">
         <f t="shared" si="14"/>
@@ -52542,7 +52556,7 @@
         <v>167865</v>
       </c>
       <c r="F1032" s="97" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="G1032" s="5">
         <f t="shared" si="14"/>
@@ -52566,7 +52580,7 @@
         <v>127941</v>
       </c>
       <c r="F1033" s="97" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="G1033" s="5">
         <f t="shared" si="14"/>
@@ -52590,7 +52604,7 @@
         <v>71291</v>
       </c>
       <c r="F1034" s="97" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="G1034" s="5">
         <f t="shared" si="14"/>
@@ -52614,7 +52628,7 @@
         <v>132196</v>
       </c>
       <c r="F1035" s="97" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="G1035" s="5">
         <f t="shared" si="14"/>
@@ -52638,7 +52652,7 @@
         <v>157657</v>
       </c>
       <c r="F1036" s="97" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="G1036" s="5">
         <f t="shared" si="14"/>
@@ -52662,7 +52676,7 @@
         <v>351420</v>
       </c>
       <c r="F1037" s="97" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="G1037" s="5">
         <f t="shared" si="14"/>
@@ -52686,7 +52700,7 @@
         <v>122309</v>
       </c>
       <c r="F1038" s="97" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="G1038" s="5">
         <f t="shared" si="14"/>
@@ -52710,7 +52724,7 @@
         <v>74651</v>
       </c>
       <c r="F1039" s="97" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="G1039" s="5">
         <f t="shared" si="14"/>
@@ -52734,7 +52748,7 @@
         <v>84563</v>
       </c>
       <c r="F1040" s="97" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="G1040" s="5">
         <f t="shared" si="14"/>
@@ -52758,7 +52772,7 @@
         <v>136789</v>
       </c>
       <c r="F1041" s="97" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="G1041" s="5">
         <f t="shared" si="14"/>
@@ -52782,7 +52796,7 @@
         <v>132197</v>
       </c>
       <c r="F1042" s="97" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="G1042" s="5">
         <f t="shared" si="14"/>
@@ -52806,7 +52820,7 @@
         <v>102902</v>
       </c>
       <c r="F1043" s="97" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="G1043" s="5">
         <f t="shared" si="14"/>
@@ -52830,7 +52844,7 @@
         <v>133470</v>
       </c>
       <c r="F1044" s="97" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="G1044" s="5">
         <f t="shared" si="14"/>
@@ -52854,7 +52868,7 @@
         <v>325082</v>
       </c>
       <c r="F1045" s="97" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="G1045" s="5">
         <f t="shared" si="14"/>
@@ -52878,7 +52892,7 @@
         <v>587266</v>
       </c>
       <c r="F1046" s="97" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="G1046" s="5">
         <f t="shared" si="14"/>
@@ -52902,7 +52916,7 @@
         <v>227170</v>
       </c>
       <c r="F1047" s="97" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="G1047" s="5">
         <f t="shared" si="14"/>
@@ -52926,7 +52940,7 @@
         <v>106964</v>
       </c>
       <c r="F1048" s="97" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="G1048" s="5">
         <f t="shared" si="14"/>
@@ -52950,7 +52964,7 @@
         <v>126694</v>
       </c>
       <c r="F1049" s="97" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="G1049" s="5">
         <f t="shared" si="14"/>
@@ -52974,7 +52988,7 @@
         <v>149937</v>
       </c>
       <c r="F1050" s="97" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G1050" s="5">
         <f t="shared" si="14"/>
@@ -52998,7 +53012,7 @@
         <v>174386</v>
       </c>
       <c r="F1051" s="97" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="G1051" s="5">
         <f t="shared" si="14"/>
@@ -53022,7 +53036,7 @@
         <v>177080</v>
       </c>
       <c r="F1052" s="97" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="G1052" s="5">
         <f t="shared" si="14"/>
@@ -53046,7 +53060,7 @@
         <v>168738</v>
       </c>
       <c r="F1053" s="97" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="G1053" s="5">
         <f t="shared" si="14"/>
@@ -53070,7 +53084,7 @@
         <v>160963</v>
       </c>
       <c r="F1054" s="97" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="G1054" s="5">
         <f t="shared" si="14"/>
@@ -53094,7 +53108,7 @@
         <v>392322</v>
       </c>
       <c r="F1055" s="97" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="G1055" s="5">
         <f t="shared" si="14"/>
@@ -53118,7 +53132,7 @@
         <v>119581</v>
       </c>
       <c r="F1056" s="97" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="G1056" s="5">
         <f t="shared" si="14"/>
@@ -53142,7 +53156,7 @@
         <v>86837</v>
       </c>
       <c r="F1057" s="97" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="G1057" s="5">
         <f t="shared" si="14"/>
@@ -53166,7 +53180,7 @@
         <v>154140</v>
       </c>
       <c r="F1058" s="97" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="G1058" s="5">
         <f t="shared" si="14"/>
@@ -53190,7 +53204,7 @@
         <v>130128</v>
       </c>
       <c r="F1059" s="97" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="G1059" s="5">
         <f t="shared" si="14"/>
@@ -53214,7 +53228,7 @@
         <v>241253</v>
       </c>
       <c r="F1060" s="97" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="G1060" s="5">
         <f t="shared" si="14"/>
@@ -53238,7 +53252,7 @@
         <v>154677</v>
       </c>
       <c r="F1061" s="97" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="G1061" s="5">
         <f t="shared" si="14"/>
@@ -53262,7 +53276,7 @@
         <v>118853</v>
       </c>
       <c r="F1062" s="97" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="G1062" s="5">
         <f t="shared" si="14"/>
@@ -53286,7 +53300,7 @@
         <v>119418</v>
       </c>
       <c r="F1063" s="97" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="G1063" s="5">
         <f t="shared" si="14"/>
@@ -53310,7 +53324,7 @@
         <v>127400</v>
       </c>
       <c r="F1064" s="97" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="G1064" s="5">
         <f t="shared" si="14"/>
@@ -53334,7 +53348,7 @@
         <v>148744</v>
       </c>
       <c r="F1065" s="97" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="G1065" s="5">
         <f t="shared" si="14"/>
@@ -53358,7 +53372,7 @@
         <v>91697</v>
       </c>
       <c r="F1066" s="97" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="G1066" s="5">
         <f t="shared" si="14"/>
@@ -53382,7 +53396,7 @@
         <v>84024</v>
       </c>
       <c r="F1067" s="97" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="G1067" s="5">
         <f t="shared" si="14"/>
@@ -53406,7 +53420,7 @@
         <v>78071</v>
       </c>
       <c r="F1068" s="97" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="G1068" s="5">
         <f t="shared" si="14"/>
@@ -53430,7 +53444,7 @@
         <v>131483</v>
       </c>
       <c r="F1069" s="97" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="G1069" s="5">
         <f t="shared" si="14"/>
@@ -53454,7 +53468,7 @@
         <v>80150</v>
       </c>
       <c r="F1070" s="97" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="G1070" s="5">
         <f t="shared" si="14"/>
@@ -53478,7 +53492,7 @@
         <v>125112</v>
       </c>
       <c r="F1071" s="97" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G1071" s="5">
         <f t="shared" si="14"/>
@@ -53502,7 +53516,7 @@
         <v>81353</v>
       </c>
       <c r="F1072" s="97" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="G1072" s="5">
         <f t="shared" si="14"/>
@@ -53526,7 +53540,7 @@
         <v>138263</v>
       </c>
       <c r="F1073" s="97" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="G1073" s="5">
         <f t="shared" si="14"/>
@@ -53550,7 +53564,7 @@
         <v>130015</v>
       </c>
       <c r="F1074" s="97" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="G1074" s="5">
         <f t="shared" ref="G1074:G1116" si="15">A1074/D1074-1</f>
@@ -53574,7 +53588,7 @@
         <v>133532</v>
       </c>
       <c r="F1075" s="97" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="G1075" s="5">
         <f t="shared" si="15"/>
@@ -53598,7 +53612,7 @@
         <v>101781</v>
       </c>
       <c r="F1076" s="97" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="G1076" s="5">
         <f t="shared" si="15"/>
@@ -53622,7 +53636,7 @@
         <v>365423</v>
       </c>
       <c r="F1077" s="97" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G1077" s="5">
         <f t="shared" si="15"/>
@@ -53646,7 +53660,7 @@
         <v>136689</v>
       </c>
       <c r="F1078" s="97" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="G1078" s="5">
         <f t="shared" si="15"/>
@@ -53670,7 +53684,7 @@
         <v>159400</v>
       </c>
       <c r="F1079" s="97" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="G1079" s="5">
         <f t="shared" si="15"/>
@@ -53694,7 +53708,7 @@
         <v>125441</v>
       </c>
       <c r="F1080" s="97" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="G1080" s="5">
         <f t="shared" si="15"/>
@@ -53718,7 +53732,7 @@
         <v>412945</v>
       </c>
       <c r="F1081" s="97" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="G1081" s="5">
         <f t="shared" si="15"/>
@@ -53742,7 +53756,7 @@
         <v>502192</v>
       </c>
       <c r="F1082" s="97" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="G1082" s="5">
         <f t="shared" si="15"/>
@@ -53766,7 +53780,7 @@
         <v>236668</v>
       </c>
       <c r="F1083" s="97" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="G1083" s="5">
         <f t="shared" si="15"/>
@@ -53790,7 +53804,7 @@
         <v>137776</v>
       </c>
       <c r="F1084" s="97" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="G1084" s="5">
         <f t="shared" si="15"/>
@@ -53814,7 +53828,7 @@
         <v>226218</v>
       </c>
       <c r="F1085" s="97" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="G1085" s="5">
         <f t="shared" si="15"/>
@@ -53838,7 +53852,7 @@
         <v>370695</v>
       </c>
       <c r="F1086" s="97" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="G1086" s="5">
         <f t="shared" si="15"/>
@@ -53862,7 +53876,7 @@
         <v>119909</v>
       </c>
       <c r="F1087" s="97" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="G1087" s="5">
         <f t="shared" si="15"/>
@@ -53886,7 +53900,7 @@
         <v>128477</v>
       </c>
       <c r="F1088" s="97" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="G1088" s="5">
         <f t="shared" si="15"/>
@@ -53910,7 +53924,7 @@
         <v>204944</v>
       </c>
       <c r="F1089" s="97" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="G1089" s="5">
         <f t="shared" si="15"/>
@@ -53934,7 +53948,7 @@
         <v>209848</v>
       </c>
       <c r="F1090" s="97" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="G1090" s="5">
         <f t="shared" si="15"/>
@@ -53958,7 +53972,7 @@
         <v>190277</v>
       </c>
       <c r="F1091" s="97" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="G1091" s="5">
         <f t="shared" si="15"/>
@@ -53982,7 +53996,7 @@
         <v>281610</v>
       </c>
       <c r="F1092" s="97" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="G1092" s="5">
         <f t="shared" si="15"/>
@@ -54006,7 +54020,7 @@
         <v>300658</v>
       </c>
       <c r="F1093" s="97" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="G1093" s="5">
         <f t="shared" si="15"/>
@@ -54030,7 +54044,7 @@
         <v>288116</v>
       </c>
       <c r="F1094" s="97" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="G1094" s="5">
         <f t="shared" si="15"/>
@@ -54054,7 +54068,7 @@
         <v>196669</v>
       </c>
       <c r="F1095" s="97" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="G1095" s="5">
         <f t="shared" si="15"/>
@@ -54078,7 +54092,7 @@
         <v>361583</v>
       </c>
       <c r="F1096" s="97" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="G1096" s="5">
         <f t="shared" si="15"/>
@@ -54102,7 +54116,7 @@
         <v>261086</v>
       </c>
       <c r="F1097" s="97" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="G1097" s="5">
         <f t="shared" si="15"/>
@@ -54126,7 +54140,7 @@
         <v>868736</v>
       </c>
       <c r="F1098" s="97" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="G1098" s="5">
         <f t="shared" si="15"/>
@@ -54150,7 +54164,7 @@
         <v>793170</v>
       </c>
       <c r="F1099" s="97" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="G1099" s="5">
         <f t="shared" si="15"/>
@@ -54174,7 +54188,7 @@
         <v>241809</v>
       </c>
       <c r="F1100" s="97" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="G1100" s="5">
         <f t="shared" si="15"/>
@@ -54198,7 +54212,7 @@
         <v>323660</v>
       </c>
       <c r="F1101" s="97" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="G1101" s="5">
         <f t="shared" si="15"/>
@@ -54222,7 +54236,7 @@
         <v>181472</v>
       </c>
       <c r="F1102" s="97" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="G1102" s="5">
         <f t="shared" si="15"/>
@@ -54246,7 +54260,7 @@
         <v>229022</v>
       </c>
       <c r="F1103" s="97" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="G1103" s="5">
         <f t="shared" si="15"/>
@@ -54270,7 +54284,7 @@
         <v>424411</v>
       </c>
       <c r="F1104" s="97" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="G1104" s="5">
         <f t="shared" si="15"/>
@@ -54294,7 +54308,7 @@
         <v>314267</v>
       </c>
       <c r="F1105" s="97" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="G1105" s="5">
         <f t="shared" si="15"/>
@@ -54318,7 +54332,7 @@
         <v>330058</v>
       </c>
       <c r="F1106" s="97" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="G1106" s="5">
         <f t="shared" si="15"/>
@@ -54342,7 +54356,7 @@
         <v>347951</v>
       </c>
       <c r="F1107" s="97" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="G1107" s="5">
         <f t="shared" si="15"/>
@@ -54366,7 +54380,7 @@
         <v>388742</v>
       </c>
       <c r="F1108" s="97" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="G1108" s="5">
         <f t="shared" si="15"/>
@@ -54390,7 +54404,7 @@
         <v>297433</v>
       </c>
       <c r="F1109" s="97" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="G1109" s="5">
         <f t="shared" si="15"/>
@@ -54414,7 +54428,7 @@
         <v>226041</v>
       </c>
       <c r="F1110" s="97" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="G1110" s="5">
         <f t="shared" si="15"/>
@@ -54438,7 +54452,7 @@
         <v>189463</v>
       </c>
       <c r="F1111" s="97" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="G1111" s="5">
         <f t="shared" si="15"/>
@@ -54462,7 +54476,7 @@
         <v>288242</v>
       </c>
       <c r="F1112" s="97" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="G1112" s="5">
         <f t="shared" si="15"/>
@@ -54486,7 +54500,7 @@
         <v>503798</v>
       </c>
       <c r="F1113" s="97" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="G1113" s="5">
         <f t="shared" si="15"/>
@@ -54510,7 +54524,7 @@
         <v>264477</v>
       </c>
       <c r="F1114" s="97" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="G1114" s="5">
         <f t="shared" si="15"/>
@@ -54534,7 +54548,7 @@
         <v>235864</v>
       </c>
       <c r="F1115" s="97" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="G1115" s="5">
         <f t="shared" si="15"/>
@@ -54558,7 +54572,7 @@
         <v>246549</v>
       </c>
       <c r="F1116" s="97" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="G1116" s="5">
         <f t="shared" si="15"/>
@@ -54600,7 +54614,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -54613,7 +54627,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -55066,7 +55080,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -55128,7 +55142,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15">
       <c r="B2" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -55136,15 +55150,15 @@
         <v>532</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="61" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -55193,50 +55207,50 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="B4" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="C6" s="96" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="D7" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/PEN_Model.xlsx
+++ b/PEN_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C2D01-DAE5-4186-BBC3-780A6CDD3606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68FCCF-3E94-4D63-96B4-C79E8E85B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1697">
   <si>
     <t>MC</t>
   </si>
@@ -5902,9 +5902,6 @@
     <t>The return distribution is highly non-normal and doesn't fit a Gaussian curve, reducing confidence in any statistical inferences made</t>
   </si>
   <si>
-    <t>Fat tails, with extremely volatile daily returns (±6-7% change in share price) occuring more often than expected in a Gaussian distribution</t>
-  </si>
-  <si>
     <t>Q4 2018</t>
   </si>
   <si>
@@ -6279,6 +6276,12 @@
   </si>
   <si>
     <t>Listen to earnings call for commentary on sales force highering trends (if mentioned)</t>
+  </si>
+  <si>
+    <t>High capital intensity… that Inventory costs money and MUST be sold to generate revenue/returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fat tails, with extremely volatile daily returns (±6-7% change in share price) occuring more often than expected in a Gaussian distribution </t>
   </si>
 </sst>
 </file>
@@ -12473,21 +12476,21 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F772FA-8B85-4FB8-A8A2-E314655C8E83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CB6E09-6D0E-40B2-BA57-2180218014F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12503,8 +12506,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11452412" y="31477324"/>
-          <a:ext cx="8482854" cy="5972735"/>
+          <a:off x="11452412" y="31679029"/>
+          <a:ext cx="8482854" cy="5983942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13054,8 +13057,8 @@
   </sheetPr>
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15266,20 +15269,20 @@
       </c>
       <c r="C253" s="53"/>
       <c r="D253" s="54"/>
-      <c r="E253" s="108" t="s">
+      <c r="E253" s="142" t="s">
         <v>543</v>
       </c>
-      <c r="F253" s="108"/>
-      <c r="G253" s="108"/>
-      <c r="H253" s="108"/>
-      <c r="I253" s="108"/>
-      <c r="J253" s="108"/>
-      <c r="K253" s="108"/>
-      <c r="L253" s="108"/>
-      <c r="M253" s="108"/>
-      <c r="N253" s="108"/>
-      <c r="O253" s="108"/>
-      <c r="P253" s="108"/>
+      <c r="F253" s="143"/>
+      <c r="G253" s="143"/>
+      <c r="H253" s="143"/>
+      <c r="I253" s="143"/>
+      <c r="J253" s="143"/>
+      <c r="K253" s="143"/>
+      <c r="L253" s="143"/>
+      <c r="M253" s="143"/>
+      <c r="N253" s="143"/>
+      <c r="O253" s="143"/>
+      <c r="P253" s="144"/>
     </row>
     <row r="254" spans="1:16" ht="15">
       <c r="B254" s="55" t="s">
@@ -15287,7 +15290,7 @@
       </c>
       <c r="C254" s="46"/>
       <c r="D254" s="56"/>
-      <c r="E254" s="109" t="s">
+      <c r="E254" s="145" t="s">
         <v>544</v>
       </c>
       <c r="F254" s="109"/>
@@ -15300,7 +15303,7 @@
       <c r="M254" s="109"/>
       <c r="N254" s="109"/>
       <c r="O254" s="109"/>
-      <c r="P254" s="109"/>
+      <c r="P254" s="146"/>
     </row>
     <row r="255" spans="1:16" ht="15">
       <c r="B255" s="55" t="s">
@@ -15308,7 +15311,7 @@
       </c>
       <c r="C255" s="46"/>
       <c r="D255" s="56"/>
-      <c r="E255" s="108" t="s">
+      <c r="E255" s="147" t="s">
         <v>545</v>
       </c>
       <c r="F255" s="108"/>
@@ -15321,7 +15324,7 @@
       <c r="M255" s="108"/>
       <c r="N255" s="108"/>
       <c r="O255" s="108"/>
-      <c r="P255" s="108"/>
+      <c r="P255" s="148"/>
     </row>
     <row r="256" spans="1:16" ht="15">
       <c r="B256" s="57" t="s">
@@ -15329,20 +15332,20 @@
       </c>
       <c r="C256" s="58"/>
       <c r="D256" s="59"/>
-      <c r="E256" s="109" t="s">
+      <c r="E256" s="149" t="s">
         <v>546</v>
       </c>
-      <c r="F256" s="109"/>
-      <c r="G256" s="109"/>
-      <c r="H256" s="109"/>
-      <c r="I256" s="109"/>
-      <c r="J256" s="109"/>
-      <c r="K256" s="109"/>
-      <c r="L256" s="109"/>
-      <c r="M256" s="109"/>
-      <c r="N256" s="109"/>
-      <c r="O256" s="109"/>
-      <c r="P256" s="109"/>
+      <c r="F256" s="150"/>
+      <c r="G256" s="150"/>
+      <c r="H256" s="150"/>
+      <c r="I256" s="150"/>
+      <c r="J256" s="150"/>
+      <c r="K256" s="150"/>
+      <c r="L256" s="150"/>
+      <c r="M256" s="150"/>
+      <c r="N256" s="150"/>
+      <c r="O256" s="150"/>
+      <c r="P256" s="151"/>
     </row>
     <row r="258" spans="1:4">
       <c r="B258" s="2" t="s">
@@ -15498,10 +15501,10 @@
   <dimension ref="B1:DJ91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BQ59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR84" sqref="BR84"/>
+      <selection pane="bottomRight" activeCell="AS50" sqref="AS50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15694,163 +15697,163 @@
         <v>277</v>
       </c>
       <c r="C2" s="141" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J2" s="141" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K2" s="141" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L2" s="141" t="s">
+        <v>1623</v>
+      </c>
+      <c r="M2" s="141" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N2" s="141" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O2" s="141" t="s">
+        <v>1620</v>
+      </c>
+      <c r="P2" s="141" t="s">
+        <v>1619</v>
+      </c>
+      <c r="Q2" s="141" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R2" s="141" t="s">
+        <v>1617</v>
+      </c>
+      <c r="S2" s="141" t="s">
+        <v>1616</v>
+      </c>
+      <c r="T2" s="141" t="s">
+        <v>1657</v>
+      </c>
+      <c r="U2" s="141" t="s">
+        <v>1656</v>
+      </c>
+      <c r="V2" s="141" t="s">
+        <v>1655</v>
+      </c>
+      <c r="W2" s="141" t="s">
+        <v>1654</v>
+      </c>
+      <c r="X2" s="141" t="s">
+        <v>1653</v>
+      </c>
+      <c r="Y2" s="141" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Z2" s="141" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA2" s="141" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AB2" s="141" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AC2" s="141" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AD2" s="141" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AE2" s="141" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AF2" s="141" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AG2" s="141" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AH2" s="141" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AI2" s="141" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AJ2" s="141" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AK2" s="141" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AL2" s="141" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AM2" s="141" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AN2" s="141" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AO2" s="141" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AP2" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AQ2" s="141" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AR2" s="141" t="s">
         <v>1633</v>
       </c>
-      <c r="D2" s="141" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E2" s="141" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F2" s="141" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G2" s="141" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H2" s="141" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I2" s="141" t="s">
-        <v>1627</v>
-      </c>
-      <c r="J2" s="141" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K2" s="141" t="s">
-        <v>1625</v>
-      </c>
-      <c r="L2" s="141" t="s">
-        <v>1624</v>
-      </c>
-      <c r="M2" s="141" t="s">
-        <v>1623</v>
-      </c>
-      <c r="N2" s="141" t="s">
-        <v>1622</v>
-      </c>
-      <c r="O2" s="141" t="s">
-        <v>1621</v>
-      </c>
-      <c r="P2" s="141" t="s">
-        <v>1620</v>
-      </c>
-      <c r="Q2" s="141" t="s">
-        <v>1619</v>
-      </c>
-      <c r="R2" s="141" t="s">
-        <v>1618</v>
-      </c>
-      <c r="S2" s="141" t="s">
-        <v>1617</v>
-      </c>
-      <c r="T2" s="141" t="s">
+      <c r="AS2" s="161" t="s">
         <v>1658</v>
       </c>
-      <c r="U2" s="141" t="s">
-        <v>1657</v>
-      </c>
-      <c r="V2" s="141" t="s">
-        <v>1656</v>
-      </c>
-      <c r="W2" s="141" t="s">
-        <v>1655</v>
-      </c>
-      <c r="X2" s="141" t="s">
-        <v>1654</v>
-      </c>
-      <c r="Y2" s="141" t="s">
-        <v>1653</v>
-      </c>
-      <c r="Z2" s="141" t="s">
-        <v>1652</v>
-      </c>
-      <c r="AA2" s="141" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AB2" s="141" t="s">
-        <v>1650</v>
-      </c>
-      <c r="AC2" s="141" t="s">
-        <v>1649</v>
-      </c>
-      <c r="AD2" s="141" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AE2" s="141" t="s">
-        <v>1647</v>
-      </c>
-      <c r="AF2" s="141" t="s">
-        <v>1646</v>
-      </c>
-      <c r="AG2" s="141" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AH2" s="141" t="s">
-        <v>1644</v>
-      </c>
-      <c r="AI2" s="141" t="s">
-        <v>1643</v>
-      </c>
-      <c r="AJ2" s="141" t="s">
-        <v>1642</v>
-      </c>
-      <c r="AK2" s="141" t="s">
-        <v>1641</v>
-      </c>
-      <c r="AL2" s="141" t="s">
-        <v>1640</v>
-      </c>
-      <c r="AM2" s="141" t="s">
-        <v>1639</v>
-      </c>
-      <c r="AN2" s="141" t="s">
-        <v>1638</v>
-      </c>
-      <c r="AO2" s="141" t="s">
-        <v>1637</v>
-      </c>
-      <c r="AP2" s="141" t="s">
-        <v>1636</v>
-      </c>
-      <c r="AQ2" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="AR2" s="141" t="s">
-        <v>1634</v>
-      </c>
-      <c r="AS2" s="161" t="s">
+      <c r="AT2" s="161" t="s">
         <v>1659</v>
       </c>
-      <c r="AT2" s="161" t="s">
+      <c r="AU2" s="161" t="s">
         <v>1660</v>
       </c>
-      <c r="AU2" s="161" t="s">
+      <c r="AV2" s="161" t="s">
         <v>1661</v>
       </c>
-      <c r="AV2" s="161" t="s">
+      <c r="AW2" s="161" t="s">
         <v>1662</v>
       </c>
-      <c r="AW2" s="161" t="s">
+      <c r="AX2" s="161" t="s">
         <v>1663</v>
       </c>
-      <c r="AX2" s="161" t="s">
+      <c r="AY2" s="161" t="s">
         <v>1664</v>
       </c>
-      <c r="AY2" s="161" t="s">
+      <c r="AZ2" s="161" t="s">
         <v>1665</v>
       </c>
-      <c r="AZ2" s="161" t="s">
+      <c r="BA2" s="161" t="s">
         <v>1666</v>
       </c>
-      <c r="BA2" s="161" t="s">
+      <c r="BB2" s="161" t="s">
         <v>1667</v>
       </c>
-      <c r="BB2" s="161" t="s">
+      <c r="BC2" s="161" t="s">
         <v>1668</v>
-      </c>
-      <c r="BC2" s="161" t="s">
-        <v>1669</v>
       </c>
       <c r="BM2" s="1">
         <v>2019</v>
@@ -23495,7 +23498,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="BY54" s="160" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="55" spans="2:80" ht="15" customHeight="1">
@@ -23609,7 +23612,7 @@
         <v>4.1700000000000008E-2</v>
       </c>
       <c r="BY55" s="160" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="56" spans="2:80">
@@ -25311,7 +25314,7 @@
         <v>1150.931</v>
       </c>
       <c r="BY71" s="160" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="72" spans="2:79">
@@ -26364,7 +26367,7 @@
         <v>9.1248493323661979E-3</v>
       </c>
       <c r="BZ79" s="160" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="80" spans="2:79">
@@ -27345,12 +27348,12 @@
         <v>3.7977188275568228</v>
       </c>
       <c r="BY86" s="160" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="87" spans="2:79">
       <c r="BY87" s="160" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="88" spans="2:79">
@@ -27394,8 +27397,8 @@
   </sheetPr>
   <dimension ref="A1:DE1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC66" sqref="AC66"/>
+    <sheetView tabSelected="1" topLeftCell="H30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -27572,12 +27575,12 @@
     </row>
     <row r="53" spans="28:30" ht="15">
       <c r="AC53" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="54" spans="28:30">
       <c r="AC54" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="55" spans="28:30">
@@ -27587,7 +27590,7 @@
     </row>
     <row r="56" spans="28:30">
       <c r="AC56" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="57" spans="28:30">
@@ -27612,7 +27615,7 @@
     </row>
     <row r="61" spans="28:30">
       <c r="AC61" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="62" spans="28:30">
@@ -27627,12 +27630,12 @@
     </row>
     <row r="64" spans="28:30">
       <c r="AB64" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="AB65" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="66" spans="8:29" ht="15">
@@ -27669,7 +27672,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="L99" s="2" t="s">
-        <v>1616</v>
+        <v>1696</v>
       </c>
       <c r="AC99" s="2" t="s">
         <v>740</v>
@@ -27694,7 +27697,7 @@
     <row r="102" spans="1:30" ht="15">
       <c r="I102" s="1"/>
       <c r="L102" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>699</v>
@@ -27870,7 +27873,7 @@
         <v>-1.7818719741795608E-3</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J113" s="157">
         <v>1004</v>
@@ -27903,13 +27906,13 @@
         <v>-8.9333333333333487E-3</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="AD114" s="2" t="s">
         <v>802</v>
@@ -29419,7 +29422,7 @@
         <v>15.731230610744719</v>
       </c>
       <c r="AE149" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="15">
@@ -29461,7 +29464,7 @@
         <v>15.362061404536385</v>
       </c>
       <c r="AE150" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="151" spans="1:31" ht="15">
@@ -29503,7 +29506,7 @@
         <v>14.851360242436012</v>
       </c>
       <c r="AB151" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="15">
@@ -29587,7 +29590,7 @@
         <v>13.467578486782354</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="15">
@@ -29713,7 +29716,7 @@
         <v>10.78447394341967</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="15">
@@ -30091,7 +30094,7 @@
         <v>3.2162063626533604</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>679</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="15">
@@ -30132,8 +30135,8 @@
         <f>_xlfn.NORM.DIST(L166,$K$107,$K$109,FALSE)</f>
         <v>2.6736816515361874</v>
       </c>
-      <c r="AB166" s="2" t="s">
-        <v>683</v>
+      <c r="AC166" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="15">
@@ -30174,8 +30177,8 @@
         <f>_xlfn.NORM.DIST(L167,$K$107,$K$109,FALSE)</f>
         <v>2.2004191779406992</v>
       </c>
-      <c r="AC167" s="2" t="s">
-        <v>684</v>
+      <c r="AB167" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="15">
@@ -30216,8 +30219,8 @@
         <f>_xlfn.NORM.DIST(L168,$K$107,$K$109,FALSE)</f>
         <v>1.7927968648030317</v>
       </c>
-      <c r="AB168" s="2" t="s">
-        <v>568</v>
+      <c r="AC168" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:29" ht="15">
@@ -30258,8 +30261,8 @@
         <f>_xlfn.NORM.DIST(L169,$K$107,$K$109,FALSE)</f>
         <v>1.4460612333913916</v>
       </c>
-      <c r="AC169" s="2" t="s">
-        <v>577</v>
+      <c r="AB169" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="15">
@@ -30300,8 +30303,8 @@
         <f>_xlfn.NORM.DIST(L170,$K$107,$K$109,FALSE)</f>
         <v>1.1547081201353255</v>
       </c>
-      <c r="AB170" s="2" t="s">
-        <v>1676</v>
+      <c r="AC170" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="15">
@@ -30341,6 +30344,9 @@
       <c r="M171" s="2">
         <f>_xlfn.NORM.DIST(L171,$K$107,$K$109,FALSE)</f>
         <v>0.91282535155394096</v>
+      </c>
+      <c r="AB171" s="2" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="15">
@@ -31468,9 +31474,6 @@
       <c r="M206" s="25"/>
       <c r="N206" s="25"/>
       <c r="O206" s="5"/>
-      <c r="AB206" s="2" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="207" spans="1:29">
       <c r="A207" s="97">
@@ -31502,8 +31505,8 @@
       <c r="M207" s="25"/>
       <c r="N207" s="25"/>
       <c r="O207" s="5"/>
-      <c r="AC207" s="2" t="s">
-        <v>709</v>
+      <c r="AB207" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -31537,7 +31540,7 @@
       <c r="N208" s="25"/>
       <c r="O208" s="5"/>
       <c r="AC208" s="2" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209" spans="1:31">
@@ -31570,11 +31573,11 @@
       <c r="M209" s="25"/>
       <c r="N209" s="25"/>
       <c r="O209" s="5"/>
-      <c r="AD209" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="210" spans="1:31" ht="15">
+      <c r="AC209" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31">
       <c r="A210" s="97">
         <v>242.7</v>
       </c>
@@ -31604,11 +31607,11 @@
       <c r="M210" s="25"/>
       <c r="N210" s="25"/>
       <c r="O210" s="5"/>
-      <c r="AE210" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="211" spans="1:31">
+      <c r="AD210" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" ht="15">
       <c r="A211" s="97">
         <v>249.08</v>
       </c>
@@ -31638,8 +31641,8 @@
       <c r="M211" s="25"/>
       <c r="N211" s="25"/>
       <c r="O211" s="5"/>
-      <c r="AB211" s="2" t="s">
-        <v>1677</v>
+      <c r="AE211" s="1" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="212" spans="1:31">
@@ -31672,8 +31675,8 @@
       <c r="M212" s="25"/>
       <c r="N212" s="25"/>
       <c r="O212" s="5"/>
-      <c r="AC212" s="2" t="s">
-        <v>579</v>
+      <c r="AB212" s="2" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="213" spans="1:31">
@@ -31706,8 +31709,8 @@
       <c r="M213" s="25"/>
       <c r="N213" s="25"/>
       <c r="O213" s="5"/>
-      <c r="AB213" s="2" t="s">
-        <v>657</v>
+      <c r="AC213" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:31">
@@ -31740,8 +31743,8 @@
       <c r="M214" s="25"/>
       <c r="N214" s="25"/>
       <c r="O214" s="5"/>
-      <c r="AC214" s="2" t="s">
-        <v>711</v>
+      <c r="AB214" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="215" spans="1:31">
@@ -31775,7 +31778,7 @@
       <c r="N215" s="25"/>
       <c r="O215" s="5"/>
       <c r="AC215" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="216" spans="1:31">
@@ -31808,8 +31811,8 @@
       <c r="M216" s="25"/>
       <c r="N216" s="25"/>
       <c r="O216" s="5"/>
-      <c r="AB216" s="2" t="s">
-        <v>713</v>
+      <c r="AC216" s="2" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:31">
@@ -31842,11 +31845,11 @@
       <c r="M217" s="25"/>
       <c r="N217" s="25"/>
       <c r="O217" s="5"/>
-      <c r="AC217" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="218" spans="1:31" ht="15">
+      <c r="AB217" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31">
       <c r="A218" s="97">
         <v>244.84</v>
       </c>
@@ -31877,10 +31880,10 @@
       <c r="N218" s="25"/>
       <c r="O218" s="5"/>
       <c r="AC218" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="219" spans="1:31">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" ht="15">
       <c r="A219" s="97">
         <v>240.49</v>
       </c>
@@ -31910,8 +31913,8 @@
       <c r="M219" s="25"/>
       <c r="N219" s="25"/>
       <c r="O219" s="5"/>
-      <c r="AD219" s="2" t="s">
-        <v>660</v>
+      <c r="AC219" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -31945,7 +31948,7 @@
       <c r="N220" s="25"/>
       <c r="O220" s="5"/>
       <c r="AD220" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -31978,6 +31981,9 @@
       <c r="M221" s="25"/>
       <c r="N221" s="25"/>
       <c r="O221" s="5"/>
+      <c r="AD221" s="2" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="222" spans="1:31">
       <c r="A222" s="97">
@@ -54627,7 +54633,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="3" spans="2:13">
